--- a/EDA_DF/LaLiga_Rank_ML.xlsx
+++ b/EDA_DF/LaLiga_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>16.91725405177083</v>
+        <v>16.93776051584491</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>30.91725405177083</v>
+        <v>30.9377605158449</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>43.91725405177083</v>
+        <v>43.93776051584491</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.0214207184375</v>
+        <v>53.04192718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>59.91725405177083</v>
+        <v>59.93776051584491</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.0214207184375</v>
+        <v>67.04192718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.0214207184375</v>
+        <v>81.04192718251157</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>107.9172540517708</v>
+        <v>107.9377605158449</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>114.9172540517708</v>
+        <v>114.9377605158449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>142.9172540517708</v>
+        <v>142.9377605158449</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>158.1568373851042</v>
+        <v>158.1773438491782</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>178.1568373851042</v>
+        <v>178.1773438491782</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>186.0630873851042</v>
+        <v>186.0835938491782</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>191.9589207184375</v>
+        <v>191.9794271825116</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>198.9589207184375</v>
+        <v>198.9794271825116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>234.9380873851042</v>
+        <v>234.9585938491782</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>318.9589207184375</v>
+        <v>318.9794271825115</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>319.2505873851042</v>
+        <v>319.2710938491782</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>344.0214207184375</v>
+        <v>344.0419271825115</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>16.91725405177083</v>
+        <v>16.93776051584491</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>30.91725405177083</v>
+        <v>30.9377605158449</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>43.91725405177083</v>
+        <v>43.93776051584491</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.0214207184375</v>
+        <v>53.04192718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>59.91725405177083</v>
+        <v>59.93776051584491</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.0214207184375</v>
+        <v>67.04192718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.0214207184375</v>
+        <v>81.04192718251157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>107.9172540517708</v>
+        <v>107.9377605158449</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>114.9172540517708</v>
+        <v>114.9377605158449</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>142.9172540517708</v>
+        <v>142.9377605158449</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>158.1568373851042</v>
+        <v>158.1773438491782</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>178.1568373851042</v>
+        <v>178.1773438491782</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>186.0630873851042</v>
+        <v>186.0835938491782</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>191.9589207184375</v>
+        <v>191.9794271825116</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>198.9589207184375</v>
+        <v>198.9794271825116</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>234.9380873851042</v>
+        <v>234.9585938491782</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>318.9589207184375</v>
+        <v>318.9794271825115</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>319.2505873851042</v>
+        <v>319.2710938491782</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>344.0214207184375</v>
+        <v>344.0419271825115</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.917254051770833</v>
+        <v>2.937760515844907</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.1151707184375</v>
+        <v>3.135677182511574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>3.917254051770833</v>
+        <v>3.937760515844907</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.0214207184375</v>
+        <v>24.04192718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.91725405177083</v>
+        <v>24.9377605158449</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.1151707184375</v>
+        <v>31.13567718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>36.91725405177083</v>
+        <v>36.93776051584491</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>37.91725405177083</v>
+        <v>37.93776051584491</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.1151707184375</v>
+        <v>39.13567718251157</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.2089207184375</v>
+        <v>46.22942718251157</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>58.91725405177083</v>
+        <v>58.93776051584491</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>62.91725405177083</v>
+        <v>62.93776051584491</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>63.00058738510417</v>
+        <v>63.02109384917824</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>65.91725405177083</v>
+        <v>65.93776051584491</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>72.91725405177083</v>
+        <v>72.93776051584491</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>90.8964207184375</v>
+        <v>90.91692718251157</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>102.1568373851042</v>
+        <v>102.1773438491782</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.8964207184375</v>
+        <v>104.9169271825116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>105.8964207184375</v>
+        <v>105.9169271825116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>109.1151707184375</v>
+        <v>109.1356771825116</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>121.9172540517708</v>
+        <v>121.9377605158449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>123.1151707184375</v>
+        <v>123.1356771825116</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.2089207184375</v>
+        <v>123.2294271825116</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>127.9172540517708</v>
+        <v>127.9377605158449</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.9172540517708</v>
+        <v>143.9377605158449</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>144.9172540517708</v>
+        <v>144.9377605158449</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>149.9172540517708</v>
+        <v>149.9377605158449</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>157.0214207184375</v>
+        <v>157.0419271825116</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>158.9589207184375</v>
+        <v>158.9794271825116</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>163.9589207184375</v>
+        <v>163.9794271825116</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>179.1568373851042</v>
+        <v>179.1773438491782</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>186.9589207184375</v>
+        <v>186.9794271825116</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>189.0422540517708</v>
+        <v>189.0627605158449</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>189.0422540517708</v>
+        <v>189.0627605158449</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>193.0630873851042</v>
+        <v>193.0835938491782</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>199.9589207184375</v>
+        <v>199.9794271825116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>213.2505873851042</v>
+        <v>213.2710938491782</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>214.1568373851042</v>
+        <v>214.1773438491782</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>219.9380873851042</v>
+        <v>219.9585938491782</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>227.1047540517708</v>
+        <v>227.1252605158449</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>315.0214207184375</v>
+        <v>315.0419271825115</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>318.1568373851042</v>
+        <v>318.1773438491782</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>319.1568373851042</v>
+        <v>319.1773438491782</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>325.9589207184375</v>
+        <v>325.9794271825115</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>334.9172540517708</v>
+        <v>334.9377605158449</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>337.0214207184375</v>
+        <v>337.0419271825115</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>339.9589207184375</v>
+        <v>339.9794271825115</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>341.9172540517708</v>
+        <v>341.9377605158449</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.91725405177083</v>
+        <v>17.93776051584491</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.91725405177083</v>
+        <v>25.9377605158449</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>51.91725405177083</v>
+        <v>51.93776051584491</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>60.91725405177083</v>
+        <v>60.93776051584491</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>73.1151707184375</v>
+        <v>73.13567718251157</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>90.9901707184375</v>
+        <v>91.01067718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.0005873851042</v>
+        <v>105.0210938491782</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>106.9172540517708</v>
+        <v>106.9377605158449</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>115.2089207184375</v>
+        <v>115.2294271825116</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.0214207184375</v>
+        <v>123.0419271825116</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>129.9172540517708</v>
+        <v>129.9377605158449</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>143.1151707184375</v>
+        <v>143.1356771825116</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>156.9172540517708</v>
+        <v>156.9377605158449</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>164.1568373851042</v>
+        <v>164.1773438491782</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>179.9589207184375</v>
+        <v>179.9794271825116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>184.9589207184375</v>
+        <v>184.9794271825116</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>193.2505873851042</v>
+        <v>193.2710938491782</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>200.2505873851042</v>
+        <v>200.2710938491782</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>227.0214207184375</v>
+        <v>227.0419271825116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>232.9380873851042</v>
+        <v>232.9585938491782</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.0214207184375</v>
+        <v>335.0419271825115</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>335.9172540517708</v>
+        <v>335.9377605158449</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>340.0630873851042</v>
+        <v>340.0835938491782</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>343.0214207184375</v>
+        <v>343.0419271825115</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.0214207184375</v>
+        <v>3.041927182511574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.0214207184375</v>
+        <v>18.04192718251158</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.1151707184375</v>
+        <v>18.13567718251158</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>23.91725405177083</v>
+        <v>23.93776051584491</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.0214207184375</v>
+        <v>31.04192718251157</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.91725405177083</v>
+        <v>31.9377605158449</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.91725405177083</v>
+        <v>39.93776051584491</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.0214207184375</v>
+        <v>45.04192718251157</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.2089207184375</v>
+        <v>53.22942718251158</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.0214207184375</v>
+        <v>60.04192718251158</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.91725405177083</v>
+        <v>61.93776051584491</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.1151707184375</v>
+        <v>67.13567718251157</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>73.0214207184375</v>
+        <v>73.04192718251157</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -14672,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.2089207184375</v>
+        <v>81.22942718251157</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>89.8964207184375</v>
+        <v>89.91692718251157</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>91.8964207184375</v>
+        <v>91.91692718251157</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.8964207184375</v>
+        <v>103.9169271825116</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.0005873851042</v>
+        <v>104.0210938491782</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>104.0005873851042</v>
+        <v>104.0210938491782</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>108.9172540517708</v>
+        <v>108.9377605158449</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>116.0214207184375</v>
+        <v>116.0419271825116</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.1151707184375</v>
+        <v>116.1356771825116</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>122.9172540517708</v>
+        <v>122.9377605158449</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>129.0214207184375</v>
+        <v>129.0419271825116</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.9172540517708</v>
+        <v>150.9377605158449</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.2089207184375</v>
+        <v>151.2294271825116</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>179.2505873851042</v>
+        <v>179.2710938491782</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>186.2505873851042</v>
+        <v>186.2710938491782</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>188.9380873851042</v>
+        <v>188.9585938491782</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>189.0422540517708</v>
+        <v>189.0627605158449</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>189.9380873851042</v>
+        <v>189.9585938491782</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>212.9589207184375</v>
+        <v>212.9794271825116</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -16629,7 +16629,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>215.0214207184375</v>
+        <v>215.0419271825116</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>220.1047540517708</v>
+        <v>220.1252605158449</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>222.0214207184375</v>
+        <v>222.0419271825116</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>229.0214207184375</v>
+        <v>229.0419271825116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>233.9380873851042</v>
+        <v>233.9585938491782</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>235.1255873851042</v>
+        <v>235.1460938491782</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.0630873851042</v>
+        <v>318.0835938491782</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.2505873851042</v>
+        <v>326.2710938491782</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.0214207184375</v>
+        <v>336.0419271825115</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.9172540517708</v>
+        <v>336.9377605158449</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.9589207184375</v>
+        <v>340.9794271825115</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>343.9172540517708</v>
+        <v>343.9377605158449</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.9589207184375</v>
+        <v>1.979427182511574</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.2089207184375</v>
+        <v>4.229427182511574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.1151707184375</v>
+        <v>17.13567718251158</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.1151707184375</v>
+        <v>24.13567718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.2089207184375</v>
+        <v>24.22942718251158</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.1151707184375</v>
+        <v>25.13567718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.2089207184375</v>
+        <v>25.22942718251157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.0214207184375</v>
+        <v>32.04192718251157</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.0214207184375</v>
+        <v>38.04192718251157</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>38.1151707184375</v>
+        <v>38.13567718251157</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>38.2089207184375</v>
+        <v>38.22942718251157</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>45.91725405177083</v>
+        <v>45.93776051584491</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.91725405177083</v>
+        <v>46.93776051584491</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>52.1151707184375</v>
+        <v>52.13567718251158</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>52.2089207184375</v>
+        <v>52.22942718251158</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>52.91725405177083</v>
+        <v>52.93776051584491</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>53.1151707184375</v>
+        <v>53.13567718251158</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>53.91725405177083</v>
+        <v>53.93776051584491</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>59.0214207184375</v>
+        <v>59.04192718251158</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>59.1151707184375</v>
+        <v>59.13567718251158</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>66.1151707184375</v>
+        <v>66.13567718251157</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>66.91725405177083</v>
+        <v>66.93776051584491</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>67.2089207184375</v>
+        <v>67.22942718251157</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>73.2089207184375</v>
+        <v>73.22942718251157</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>74.0214207184375</v>
+        <v>74.04192718251157</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>80.1151707184375</v>
+        <v>80.13567718251157</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>81.1151707184375</v>
+        <v>81.13567718251157</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>92.0839207184375</v>
+        <v>92.10442718251157</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>103.8964207184375</v>
+        <v>103.9169271825116</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>104.8964207184375</v>
+        <v>104.9169271825116</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>108.1151707184375</v>
+        <v>108.1356771825116</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>109.9172540517708</v>
+        <v>109.9377605158449</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>115.0214207184375</v>
+        <v>115.0419271825116</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>115.9172540517708</v>
+        <v>115.9377605158449</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>116.2089207184375</v>
+        <v>116.2294271825116</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>116.9172540517708</v>
+        <v>116.9377605158449</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>123.9589207184375</v>
+        <v>123.9794271825116</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>128.9172540517708</v>
+        <v>128.9377605158449</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>129.1151707184375</v>
+        <v>129.1356771825116</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>129.2089207184375</v>
+        <v>129.2294271825116</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>130.1151707184375</v>
+        <v>130.1356771825116</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>144.0214207184375</v>
+        <v>144.0419271825116</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>150.0214207184375</v>
+        <v>150.0419271825116</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -22568,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>151.9589207184375</v>
+        <v>151.9794271825116</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>157.2089207184375</v>
+        <v>157.2294271825116</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>157.9589207184375</v>
+        <v>157.9794271825116</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>158.0630873851042</v>
+        <v>158.0835938491782</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>164.2505873851042</v>
+        <v>164.2710938491782</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>165.1568373851042</v>
+        <v>165.1773438491782</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>178.0630873851042</v>
+        <v>178.0835938491782</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>178.2505873851042</v>
+        <v>178.2710938491782</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>179.0630873851042</v>
+        <v>179.0835938491782</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>183.9589207184375</v>
+        <v>183.9794271825116</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>184.9589207184375</v>
+        <v>184.9794271825116</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>185.1568373851042</v>
+        <v>185.1773438491782</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>185.9589207184375</v>
+        <v>185.9794271825116</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>187.9380873851042</v>
+        <v>187.9585938491782</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>188.9380873851042</v>
+        <v>188.9585938491782</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>192.2505873851042</v>
+        <v>192.2710938491782</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>193.1568373851042</v>
+        <v>193.1773438491782</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>193.9589207184375</v>
+        <v>193.9794271825116</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>199.2505873851042</v>
+        <v>199.2710938491782</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>200.1568373851042</v>
+        <v>200.1773438491782</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>213.1568373851042</v>
+        <v>213.1773438491782</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>213.9589207184375</v>
+        <v>213.9794271825116</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>214.0630873851042</v>
+        <v>214.0835938491782</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>220.0214207184375</v>
+        <v>220.0419271825116</v>
       </c>
       <c r="AD68" t="n">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>226.0422540517708</v>
+        <v>226.0627605158449</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>226.9380873851042</v>
+        <v>226.9585938491782</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>227.9380873851042</v>
+        <v>227.9585938491782</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>228.1255873851042</v>
+        <v>228.1460938491782</v>
       </c>
       <c r="AD72" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>228.9380873851042</v>
+        <v>228.9585938491782</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>234.0214207184375</v>
+        <v>234.0419271825116</v>
       </c>
       <c r="AD74" t="n">
         <v>1</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD75" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD76" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         <v>1</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>1</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD78" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD79" t="n">
         <v>1</v>
@@ -26173,7 +26173,7 @@
         <v>1</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
@@ -26276,7 +26276,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>313.9380873851042</v>
+        <v>313.9585938491782</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>314.0214207184375</v>
+        <v>314.0419271825115</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>314.9172540517708</v>
+        <v>314.9377605158449</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>323.9589207184375</v>
+        <v>323.9794271825115</v>
       </c>
       <c r="AD84" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>326.0630873851042</v>
+        <v>326.0835938491782</v>
       </c>
       <c r="AD85" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>335.9172540517708</v>
+        <v>335.9377605158449</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>338.0422540517708</v>
+        <v>338.0627605158449</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>339.1568373851042</v>
+        <v>339.1773438491782</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>339.2505873851042</v>
+        <v>339.2710938491782</v>
       </c>
       <c r="AD89" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>344.0214207184375</v>
+        <v>344.0419271825115</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.0214207184375</v>
+        <v>4.041927182511574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.917254051770833</v>
+        <v>4.937760515844907</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.07350405177083</v>
+        <v>17.09401051584491</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.2089207184375</v>
+        <v>18.22942718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.91725405177083</v>
+        <v>18.93776051584491</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>29.91725405177083</v>
+        <v>29.9377605158449</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.2089207184375</v>
+        <v>31.22942718251157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.0214207184375</v>
+        <v>39.04192718251157</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>44.91725405177083</v>
+        <v>44.93776051584491</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.1151707184375</v>
+        <v>46.13567718251157</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>59.2089207184375</v>
+        <v>59.22942718251158</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -28610,7 +28610,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>60.2089207184375</v>
+        <v>60.22942718251158</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -28713,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>64.91725405177083</v>
+        <v>64.93776051584491</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>74.1151707184375</v>
+        <v>74.13567718251157</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -28919,7 +28919,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>74.91725405177083</v>
+        <v>74.93776051584491</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>80.91725405177083</v>
+        <v>80.93776051584491</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>90.0839207184375</v>
+        <v>90.10442718251157</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>91.9901707184375</v>
+        <v>92.01067718251157</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>108.0214207184375</v>
+        <v>108.0419271825116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>122.2089207184375</v>
+        <v>122.2294271825116</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>125.9172540517708</v>
+        <v>125.9377605158449</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>130.0214207184375</v>
+        <v>130.0419271825116</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>130.9172540517708</v>
+        <v>130.9377605158449</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>148.9172540517708</v>
+        <v>148.9377605158449</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.1151707184375</v>
+        <v>150.1356771825116</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>150.2089207184375</v>
+        <v>150.2294271825116</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>151.1151707184375</v>
+        <v>151.1356771825116</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>162.9589207184375</v>
+        <v>162.9794271825116</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>164.0630873851042</v>
+        <v>164.0835938491782</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>165.2505873851042</v>
+        <v>165.2710938491782</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>165.9589207184375</v>
+        <v>165.9794271825116</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>192.0630873851042</v>
+        <v>192.0835938491782</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>192.0630873851042</v>
+        <v>192.0835938491782</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.1568373851042</v>
+        <v>199.1773438491782</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>214.2505873851042</v>
+        <v>214.2710938491782</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>219.0214207184375</v>
+        <v>219.0419271825116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -31185,7 +31185,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>221.0422540517708</v>
+        <v>221.0627605158449</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>233.0214207184375</v>
+        <v>233.0419271825116</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>235.0214207184375</v>
+        <v>235.0419271825116</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>315.0214207184375</v>
+        <v>315.0419271825115</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>316.0214207184375</v>
+        <v>316.0419271825115</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>319.0630873851042</v>
+        <v>319.0835938491782</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>319.9589207184375</v>
+        <v>319.9794271825115</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>326.1568373851042</v>
+        <v>326.1773438491782</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>326.9589207184375</v>
+        <v>326.9794271825115</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>342.0214207184375</v>
+        <v>342.0419271825115</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>342.0214207184375</v>
+        <v>342.0419271825115</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>343.0214207184375</v>
+        <v>343.0419271825115</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.0214207184375</v>
+        <v>25.04192718251157</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.2089207184375</v>
+        <v>32.22942718251157</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -32901,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.2089207184375</v>
+        <v>45.22942718251157</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.0214207184375</v>
+        <v>46.04192718251157</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>66.2089207184375</v>
+        <v>66.22942718251157</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -33210,7 +33210,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>73.91725405177083</v>
+        <v>73.93776051584491</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>80.2089207184375</v>
+        <v>80.22942718251157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -33416,7 +33416,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>122.0214207184375</v>
+        <v>122.0419271825116</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>130.2089207184375</v>
+        <v>130.2294271825116</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.1151707184375</v>
+        <v>144.1356771825116</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>144.2089207184375</v>
+        <v>144.2294271825116</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>155.9172540517708</v>
+        <v>155.9377605158449</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.1151707184375</v>
+        <v>157.1356771825116</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.0630873851042</v>
+        <v>165.0835938491782</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>177.9589207184375</v>
+        <v>177.9794271825116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>192.1568373851042</v>
+        <v>192.1773438491782</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>197.9589207184375</v>
+        <v>197.9794271825116</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>220.9380873851042</v>
+        <v>220.9585938491782</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>221.9380873851042</v>
+        <v>221.9585938491782</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>228.0214207184375</v>
+        <v>228.0419271825116</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -34858,7 +34858,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>312.0422540517708</v>
+        <v>312.0627605158449</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -35064,7 +35064,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>315.9172540517708</v>
+        <v>315.9377605158449</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>316.0214207184375</v>
+        <v>316.0419271825115</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>324.9589207184375</v>
+        <v>324.9794271825115</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>337.9589207184375</v>
+        <v>337.9794271825115</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>342.9172540517708</v>
+        <v>342.9377605158449</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>347.0630873851042</v>
+        <v>347.0835938491782</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.2089207184375</v>
+        <v>3.229427182511574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -35956,7 +35956,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.1151707184375</v>
+        <v>4.135677182511574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.0214207184375</v>
+        <v>17.04192718251158</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -36162,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>17.2089207184375</v>
+        <v>17.22942718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.91725405177083</v>
+        <v>22.93776051584491</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -36368,7 +36368,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.91725405177083</v>
+        <v>38.93776051584491</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -36471,7 +36471,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>50.91725405177083</v>
+        <v>50.93776051584491</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -36574,7 +36574,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.0214207184375</v>
+        <v>52.04192718251158</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>57.91725405177083</v>
+        <v>57.93776051584491</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.1151707184375</v>
+        <v>60.13567718251158</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>66.0214207184375</v>
+        <v>66.04192718251157</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>71.91725405177083</v>
+        <v>71.93776051584491</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.2089207184375</v>
+        <v>74.22942718251157</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -37192,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>89.9901707184375</v>
+        <v>90.01067718251157</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -37295,7 +37295,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>90.9901707184375</v>
+        <v>91.01067718251157</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -37398,7 +37398,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>105.8964207184375</v>
+        <v>105.9169271825116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -37501,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>106.0005873851042</v>
+        <v>106.0210938491782</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>109.0214207184375</v>
+        <v>109.0419271825116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>113.1151707184375</v>
+        <v>113.1356771825116</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>113.9172540517708</v>
+        <v>113.9377605158449</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>122.1151707184375</v>
+        <v>122.1356771825116</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>143.0214207184375</v>
+        <v>143.0419271825116</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>144.0214207184375</v>
+        <v>144.0419271825116</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>151.0214207184375</v>
+        <v>151.0419271825116</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>158.2505873851042</v>
+        <v>158.2710938491782</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>164.9589207184375</v>
+        <v>164.9794271825116</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>178.0630873851042</v>
+        <v>178.0835938491782</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -38634,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>178.9589207184375</v>
+        <v>178.9794271825116</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>188.0422540517708</v>
+        <v>188.0627605158449</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -38840,7 +38840,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>192.9589207184375</v>
+        <v>192.9794271825116</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>199.0630873851042</v>
+        <v>199.0835938491782</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.9172540517708</v>
+        <v>214.9377605158449</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>218.9380873851042</v>
+        <v>218.9585938491782</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>225.9380873851042</v>
+        <v>225.9585938491782</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>234.1255873851042</v>
+        <v>234.1460938491782</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>235.9380873851042</v>
+        <v>235.9585938491782</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>236.0214207184375</v>
+        <v>236.0419271825116</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>314.9172540517708</v>
+        <v>314.9377605158449</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>315.0214207184375</v>
+        <v>315.0419271825115</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>317.9589207184375</v>
+        <v>317.9794271825115</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>325.0630873851042</v>
+        <v>325.0835938491782</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -40179,7 +40179,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>325.1568373851042</v>
+        <v>325.1773438491782</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>325.2505873851042</v>
+        <v>325.2710938491782</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>338.9589207184375</v>
+        <v>338.9794271825115</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>339.0630873851042</v>
+        <v>339.0835938491782</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>340.1568373851042</v>
+        <v>340.1773438491782</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -40865,7 +40865,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.1151707184375</v>
+        <v>32.13567718251157</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -40968,7 +40968,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.91725405177083</v>
+        <v>32.93776051584491</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -41071,7 +41071,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.1151707184375</v>
+        <v>45.13567718251157</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -41174,7 +41174,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>67.91725405177083</v>
+        <v>67.93776051584491</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -41277,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>81.91725405177083</v>
+        <v>81.93776051584491</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -41380,7 +41380,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>91.0839207184375</v>
+        <v>91.10442718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -41483,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>108.2089207184375</v>
+        <v>108.2294271825116</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -41586,7 +41586,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>109.2089207184375</v>
+        <v>109.2294271825116</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -41689,7 +41689,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>120.9172540517708</v>
+        <v>120.9377605158449</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>185.2505873851042</v>
+        <v>185.2710938491782</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -41895,7 +41895,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>186.1568373851042</v>
+        <v>186.1773438491782</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41998,7 +41998,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>188.0422540517708</v>
+        <v>188.0627605158449</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>190.0422540517708</v>
+        <v>190.0627605158449</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>200.0630873851042</v>
+        <v>200.0835938491782</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -42307,7 +42307,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>200.9589207184375</v>
+        <v>200.9794271825116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -42410,7 +42410,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>221.0214207184375</v>
+        <v>221.0419271825116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>318.2505873851042</v>
+        <v>318.2710938491782</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>319.0630873851042</v>
+        <v>319.0835938491782</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>334.9172540517708</v>
+        <v>334.9377605158449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -43131,7 +43131,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.0214207184375</v>
+        <v>335.0419271825115</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>337.0214207184375</v>
+        <v>337.0419271825115</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>342.9172540517708</v>
+        <v>342.9377605158449</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -43611,7 +43611,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.0214207184375</v>
+        <v>3.041927182511574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -43714,7 +43714,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.0214207184375</v>
+        <v>18.04192718251158</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -43817,7 +43817,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.1151707184375</v>
+        <v>18.13567718251158</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -43920,7 +43920,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>23.91725405177083</v>
+        <v>23.93776051584491</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -44023,7 +44023,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.0214207184375</v>
+        <v>31.04192718251157</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -44126,7 +44126,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.91725405177083</v>
+        <v>31.9377605158449</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -44229,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.91725405177083</v>
+        <v>39.93776051584491</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.0214207184375</v>
+        <v>45.04192718251157</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -44435,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.2089207184375</v>
+        <v>53.22942718251158</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.0214207184375</v>
+        <v>60.04192718251158</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.91725405177083</v>
+        <v>61.93776051584491</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -44744,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.1151707184375</v>
+        <v>67.13567718251157</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -44847,7 +44847,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>73.0214207184375</v>
+        <v>73.04192718251157</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -44950,7 +44950,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.2089207184375</v>
+        <v>81.22942718251157</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -45053,7 +45053,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>89.8964207184375</v>
+        <v>89.91692718251157</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -45156,7 +45156,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>91.8964207184375</v>
+        <v>91.91692718251157</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -45259,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.8964207184375</v>
+        <v>103.9169271825116</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.0005873851042</v>
+        <v>104.0210938491782</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -45465,7 +45465,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>104.0005873851042</v>
+        <v>104.0210938491782</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>108.9172540517708</v>
+        <v>108.9377605158449</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>116.0214207184375</v>
+        <v>116.0419271825116</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.1151707184375</v>
+        <v>116.1356771825116</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>122.9172540517708</v>
+        <v>122.9377605158449</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>129.0214207184375</v>
+        <v>129.0419271825116</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.9172540517708</v>
+        <v>150.9377605158449</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.2089207184375</v>
+        <v>151.2294271825116</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>179.2505873851042</v>
+        <v>179.2710938491782</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>186.2505873851042</v>
+        <v>186.2710938491782</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>188.9380873851042</v>
+        <v>188.9585938491782</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>189.0422540517708</v>
+        <v>189.0627605158449</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>189.9380873851042</v>
+        <v>189.9585938491782</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>212.9589207184375</v>
+        <v>212.9794271825116</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>215.0214207184375</v>
+        <v>215.0419271825116</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>220.1047540517708</v>
+        <v>220.1252605158449</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>222.0214207184375</v>
+        <v>222.0419271825116</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>229.0214207184375</v>
+        <v>229.0419271825116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>233.9380873851042</v>
+        <v>233.9585938491782</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>235.1255873851042</v>
+        <v>235.1460938491782</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.0630873851042</v>
+        <v>318.0835938491782</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.2505873851042</v>
+        <v>326.2710938491782</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.0214207184375</v>
+        <v>336.0419271825115</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.9172540517708</v>
+        <v>336.9377605158449</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.9589207184375</v>
+        <v>340.9794271825115</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>343.9172540517708</v>
+        <v>343.9377605158449</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -48417,7 +48417,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.0214207184375</v>
+        <v>25.04192718251157</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -48520,7 +48520,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.2089207184375</v>
+        <v>32.22942718251157</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -48623,7 +48623,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.2089207184375</v>
+        <v>45.22942718251157</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -48726,7 +48726,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.0214207184375</v>
+        <v>46.04192718251157</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>66.2089207184375</v>
+        <v>66.22942718251157</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -48932,7 +48932,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>73.91725405177083</v>
+        <v>73.93776051584491</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -49035,7 +49035,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>80.2089207184375</v>
+        <v>80.22942718251157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -49138,7 +49138,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>122.0214207184375</v>
+        <v>122.0419271825116</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -49241,7 +49241,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>130.2089207184375</v>
+        <v>130.2294271825116</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.1151707184375</v>
+        <v>144.1356771825116</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>144.2089207184375</v>
+        <v>144.2294271825116</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>155.9172540517708</v>
+        <v>155.9377605158449</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -49653,7 +49653,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.1151707184375</v>
+        <v>157.1356771825116</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -49756,7 +49756,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.0630873851042</v>
+        <v>165.0835938491782</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -49859,7 +49859,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>177.9589207184375</v>
+        <v>177.9794271825116</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -49962,7 +49962,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>192.1568373851042</v>
+        <v>192.1773438491782</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>197.9589207184375</v>
+        <v>197.9794271825116</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>220.9380873851042</v>
+        <v>220.9585938491782</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>221.9380873851042</v>
+        <v>221.9585938491782</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>228.0214207184375</v>
+        <v>228.0419271825116</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>312.0422540517708</v>
+        <v>312.0627605158449</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>315.9172540517708</v>
+        <v>315.9377605158449</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -50889,7 +50889,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>316.0214207184375</v>
+        <v>316.0419271825115</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>324.9589207184375</v>
+        <v>324.9794271825115</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>337.9589207184375</v>
+        <v>337.9794271825115</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>342.9172540517708</v>
+        <v>342.9377605158449</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>347.0630873851042</v>
+        <v>347.0835938491782</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -51575,7 +51575,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.917254051770833</v>
+        <v>2.937760515844907</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -51678,7 +51678,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.1151707184375</v>
+        <v>3.135677182511574</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -51781,7 +51781,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>3.917254051770833</v>
+        <v>3.937760515844907</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -51884,7 +51884,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.0214207184375</v>
+        <v>24.04192718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -51987,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.91725405177083</v>
+        <v>24.9377605158449</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -52090,7 +52090,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.1151707184375</v>
+        <v>31.13567718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -52193,7 +52193,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>36.91725405177083</v>
+        <v>36.93776051584491</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -52296,7 +52296,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>37.91725405177083</v>
+        <v>37.93776051584491</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -52399,7 +52399,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.1151707184375</v>
+        <v>39.13567718251157</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.2089207184375</v>
+        <v>46.22942718251157</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -52605,7 +52605,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>58.91725405177083</v>
+        <v>58.93776051584491</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -52708,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>62.91725405177083</v>
+        <v>62.93776051584491</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>63.00058738510417</v>
+        <v>63.02109384917824</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -52914,7 +52914,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>65.91725405177083</v>
+        <v>65.93776051584491</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -53017,7 +53017,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>72.91725405177083</v>
+        <v>72.93776051584491</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>90.8964207184375</v>
+        <v>90.91692718251157</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>102.1568373851042</v>
+        <v>102.1773438491782</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -53326,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.8964207184375</v>
+        <v>104.9169271825116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -53429,7 +53429,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>105.8964207184375</v>
+        <v>105.9169271825116</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>109.1151707184375</v>
+        <v>109.1356771825116</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>121.9172540517708</v>
+        <v>121.9377605158449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>123.1151707184375</v>
+        <v>123.1356771825116</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.2089207184375</v>
+        <v>123.2294271825116</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>127.9172540517708</v>
+        <v>127.9377605158449</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.9172540517708</v>
+        <v>143.9377605158449</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>144.9172540517708</v>
+        <v>144.9377605158449</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>149.9172540517708</v>
+        <v>149.9377605158449</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>157.0214207184375</v>
+        <v>157.0419271825116</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>158.9589207184375</v>
+        <v>158.9794271825116</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>163.9589207184375</v>
+        <v>163.9794271825116</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>179.1568373851042</v>
+        <v>179.1773438491782</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>186.9589207184375</v>
+        <v>186.9794271825116</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>189.0422540517708</v>
+        <v>189.0627605158449</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>189.0422540517708</v>
+        <v>189.0627605158449</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>193.0630873851042</v>
+        <v>193.0835938491782</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>199.9589207184375</v>
+        <v>199.9794271825116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>213.2505873851042</v>
+        <v>213.2710938491782</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>214.1568373851042</v>
+        <v>214.1773438491782</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>219.9380873851042</v>
+        <v>219.9585938491782</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>227.1047540517708</v>
+        <v>227.1252605158449</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>315.0214207184375</v>
+        <v>315.0419271825115</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>318.1568373851042</v>
+        <v>318.1773438491782</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>319.1568373851042</v>
+        <v>319.1773438491782</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>325.9589207184375</v>
+        <v>325.9794271825115</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>334.9172540517708</v>
+        <v>334.9377605158449</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>337.0214207184375</v>
+        <v>337.0419271825115</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>339.9589207184375</v>
+        <v>339.9794271825115</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -56622,7 +56622,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>341.9172540517708</v>
+        <v>341.9377605158449</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -56896,7 +56896,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.9589207184375</v>
+        <v>1.979427182511574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -56999,7 +56999,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.2089207184375</v>
+        <v>4.229427182511574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -57102,7 +57102,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.1151707184375</v>
+        <v>17.13567718251158</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.1151707184375</v>
+        <v>24.13567718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57308,7 +57308,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.2089207184375</v>
+        <v>24.22942718251158</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -57411,7 +57411,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.1151707184375</v>
+        <v>25.13567718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.2089207184375</v>
+        <v>25.22942718251157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -57617,7 +57617,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.0214207184375</v>
+        <v>32.04192718251157</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -57720,7 +57720,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.0214207184375</v>
+        <v>38.04192718251157</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>38.1151707184375</v>
+        <v>38.13567718251157</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -57926,7 +57926,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>38.2089207184375</v>
+        <v>38.22942718251157</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>45.91725405177083</v>
+        <v>45.93776051584491</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58132,7 +58132,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.91725405177083</v>
+        <v>46.93776051584491</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58235,7 +58235,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>52.1151707184375</v>
+        <v>52.13567718251158</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -58338,7 +58338,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>52.2089207184375</v>
+        <v>52.22942718251158</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -58441,7 +58441,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>52.91725405177083</v>
+        <v>52.93776051584491</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>53.1151707184375</v>
+        <v>53.13567718251158</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58647,7 +58647,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>53.91725405177083</v>
+        <v>53.93776051584491</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>59.0214207184375</v>
+        <v>59.04192718251158</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -58853,7 +58853,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>59.1151707184375</v>
+        <v>59.13567718251158</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>66.1151707184375</v>
+        <v>66.13567718251157</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -59059,7 +59059,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>66.91725405177083</v>
+        <v>66.93776051584491</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -59162,7 +59162,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>67.2089207184375</v>
+        <v>67.22942718251157</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>73.2089207184375</v>
+        <v>73.22942718251157</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>74.0214207184375</v>
+        <v>74.04192718251157</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>80.1151707184375</v>
+        <v>80.13567718251157</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>81.1151707184375</v>
+        <v>81.13567718251157</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>92.0839207184375</v>
+        <v>92.10442718251157</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>103.8964207184375</v>
+        <v>103.9169271825116</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>104.8964207184375</v>
+        <v>104.9169271825116</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -59986,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>108.1151707184375</v>
+        <v>108.1356771825116</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>109.9172540517708</v>
+        <v>109.9377605158449</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>115.0214207184375</v>
+        <v>115.0419271825116</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>115.9172540517708</v>
+        <v>115.9377605158449</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>116.2089207184375</v>
+        <v>116.2294271825116</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>116.9172540517708</v>
+        <v>116.9377605158449</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>123.9589207184375</v>
+        <v>123.9794271825116</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>128.9172540517708</v>
+        <v>128.9377605158449</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>129.1151707184375</v>
+        <v>129.1356771825116</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>129.2089207184375</v>
+        <v>129.2294271825116</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>130.1151707184375</v>
+        <v>130.1356771825116</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>144.0214207184375</v>
+        <v>144.0419271825116</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>150.0214207184375</v>
+        <v>150.0419271825116</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>151.9589207184375</v>
+        <v>151.9794271825116</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>157.2089207184375</v>
+        <v>157.2294271825116</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>157.9589207184375</v>
+        <v>157.9794271825116</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -61634,7 +61634,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>158.0630873851042</v>
+        <v>158.0835938491782</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>164.2505873851042</v>
+        <v>164.2710938491782</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>165.1568373851042</v>
+        <v>165.1773438491782</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>178.0630873851042</v>
+        <v>178.0835938491782</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>178.2505873851042</v>
+        <v>178.2710938491782</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>179.0630873851042</v>
+        <v>179.0835938491782</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>183.9589207184375</v>
+        <v>183.9794271825116</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>184.9589207184375</v>
+        <v>184.9794271825116</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -62458,7 +62458,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>185.1568373851042</v>
+        <v>185.1773438491782</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>185.9589207184375</v>
+        <v>185.9794271825116</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>187.9380873851042</v>
+        <v>187.9585938491782</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>188.9380873851042</v>
+        <v>188.9585938491782</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>192.2505873851042</v>
+        <v>192.2710938491782</v>
       </c>
       <c r="AD60" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>193.1568373851042</v>
+        <v>193.1773438491782</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>193.9589207184375</v>
+        <v>193.9794271825116</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>199.2505873851042</v>
+        <v>199.2710938491782</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>200.1568373851042</v>
+        <v>200.1773438491782</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>213.1568373851042</v>
+        <v>213.1773438491782</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>213.9589207184375</v>
+        <v>213.9794271825116</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>214.0630873851042</v>
+        <v>214.0835938491782</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>220.0214207184375</v>
+        <v>220.0419271825116</v>
       </c>
       <c r="AD68" t="n">
         <v>0</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>226.0422540517708</v>
+        <v>226.0627605158449</v>
       </c>
       <c r="AD69" t="n">
         <v>1</v>
@@ -63900,7 +63900,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>226.9380873851042</v>
+        <v>226.9585938491782</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>227.9380873851042</v>
+        <v>227.9585938491782</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>228.1255873851042</v>
+        <v>228.1460938491782</v>
       </c>
       <c r="AD72" t="n">
         <v>1</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>228.9380873851042</v>
+        <v>228.9585938491782</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -64312,7 +64312,7 @@
         <v>1</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>234.0214207184375</v>
+        <v>234.0419271825116</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD75" t="n">
         <v>1</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD76" t="n">
         <v>1</v>
@@ -64621,7 +64621,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -64724,7 +64724,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD78" t="n">
         <v>1</v>
@@ -64827,7 +64827,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD79" t="n">
         <v>0</v>
@@ -64930,7 +64930,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>313.9380873851042</v>
+        <v>313.9585938491782</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>314.0214207184375</v>
+        <v>314.0419271825115</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>314.9172540517708</v>
+        <v>314.9377605158449</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>323.9589207184375</v>
+        <v>323.9794271825115</v>
       </c>
       <c r="AD84" t="n">
         <v>1</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>326.0630873851042</v>
+        <v>326.0835938491782</v>
       </c>
       <c r="AD85" t="n">
         <v>1</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>335.9172540517708</v>
+        <v>335.9377605158449</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>338.0422540517708</v>
+        <v>338.0627605158449</v>
       </c>
       <c r="AD87" t="n">
         <v>1</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>339.1568373851042</v>
+        <v>339.1773438491782</v>
       </c>
       <c r="AD88" t="n">
         <v>1</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>339.2505873851042</v>
+        <v>339.2710938491782</v>
       </c>
       <c r="AD89" t="n">
         <v>1</v>
@@ -65960,7 +65960,7 @@
         <v>1</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>344.0214207184375</v>
+        <v>344.0419271825115</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -66234,7 +66234,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.2089207184375</v>
+        <v>3.229427182511574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.1151707184375</v>
+        <v>4.135677182511574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.0214207184375</v>
+        <v>17.04192718251158</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>17.2089207184375</v>
+        <v>17.22942718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -66646,7 +66646,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.91725405177083</v>
+        <v>22.93776051584491</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.91725405177083</v>
+        <v>38.93776051584491</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>50.91725405177083</v>
+        <v>50.93776051584491</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.0214207184375</v>
+        <v>52.04192718251158</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>57.91725405177083</v>
+        <v>57.93776051584491</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.1151707184375</v>
+        <v>60.13567718251158</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>66.0214207184375</v>
+        <v>66.04192718251157</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>71.91725405177083</v>
+        <v>71.93776051584491</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.2089207184375</v>
+        <v>74.22942718251157</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>89.9901707184375</v>
+        <v>90.01067718251157</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>90.9901707184375</v>
+        <v>91.01067718251157</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>105.8964207184375</v>
+        <v>105.9169271825116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67882,7 +67882,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>106.0005873851042</v>
+        <v>106.0210938491782</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>109.0214207184375</v>
+        <v>109.0419271825116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>113.1151707184375</v>
+        <v>113.1356771825116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>113.9172540517708</v>
+        <v>113.9377605158449</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>122.1151707184375</v>
+        <v>122.1356771825116</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>143.0214207184375</v>
+        <v>143.0419271825116</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>144.0214207184375</v>
+        <v>144.0419271825116</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>151.0214207184375</v>
+        <v>151.0419271825116</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>158.2505873851042</v>
+        <v>158.2710938491782</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>164.9589207184375</v>
+        <v>164.9794271825116</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>178.0630873851042</v>
+        <v>178.0835938491782</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>178.9589207184375</v>
+        <v>178.9794271825116</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>188.0422540517708</v>
+        <v>188.0627605158449</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>192.9589207184375</v>
+        <v>192.9794271825116</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69324,7 +69324,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>199.0630873851042</v>
+        <v>199.0835938491782</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.9172540517708</v>
+        <v>214.9377605158449</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>218.9380873851042</v>
+        <v>218.9585938491782</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>225.9380873851042</v>
+        <v>225.9585938491782</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69736,7 +69736,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>234.1255873851042</v>
+        <v>234.1460938491782</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>235.9380873851042</v>
+        <v>235.9585938491782</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>236.0214207184375</v>
+        <v>236.0419271825116</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>314.9172540517708</v>
+        <v>314.9377605158449</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>315.0214207184375</v>
+        <v>315.0419271825115</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>317.9589207184375</v>
+        <v>317.9794271825115</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -70457,7 +70457,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>325.0630873851042</v>
+        <v>325.0835938491782</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -70560,7 +70560,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>325.1568373851042</v>
+        <v>325.1773438491782</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -70663,7 +70663,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>325.2505873851042</v>
+        <v>325.2710938491782</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>338.9589207184375</v>
+        <v>338.9794271825115</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>339.0630873851042</v>
+        <v>339.0835938491782</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70972,7 +70972,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>340.1568373851042</v>
+        <v>340.1773438491782</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.91725405177083</v>
+        <v>17.93776051584491</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.91725405177083</v>
+        <v>25.9377605158449</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>51.91725405177083</v>
+        <v>51.93776051584491</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>60.91725405177083</v>
+        <v>60.93776051584491</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>73.1151707184375</v>
+        <v>73.13567718251157</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>90.9901707184375</v>
+        <v>91.01067718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.0005873851042</v>
+        <v>105.0210938491782</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>106.9172540517708</v>
+        <v>106.9377605158449</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>115.2089207184375</v>
+        <v>115.2294271825116</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.0214207184375</v>
+        <v>123.0419271825116</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>129.9172540517708</v>
+        <v>129.9377605158449</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>143.1151707184375</v>
+        <v>143.1356771825116</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>156.9172540517708</v>
+        <v>156.9377605158449</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>164.1568373851042</v>
+        <v>164.1773438491782</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>179.9589207184375</v>
+        <v>179.9794271825116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>184.9589207184375</v>
+        <v>184.9794271825116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>193.2505873851042</v>
+        <v>193.2710938491782</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>200.2505873851042</v>
+        <v>200.2710938491782</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>227.0214207184375</v>
+        <v>227.0419271825116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>232.9380873851042</v>
+        <v>232.9585938491782</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -73306,7 +73306,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.0214207184375</v>
+        <v>335.0419271825115</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>335.9172540517708</v>
+        <v>335.9377605158449</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>340.0630873851042</v>
+        <v>340.0835938491782</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>343.0214207184375</v>
+        <v>343.0419271825115</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -74095,7 +74095,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.0214207184375</v>
+        <v>4.041927182511574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -74198,7 +74198,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.917254051770833</v>
+        <v>4.937760515844907</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -74301,7 +74301,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.07350405177083</v>
+        <v>17.09401051584491</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.2089207184375</v>
+        <v>18.22942718251158</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -74507,7 +74507,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.91725405177083</v>
+        <v>18.93776051584491</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>29.91725405177083</v>
+        <v>29.9377605158449</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.2089207184375</v>
+        <v>31.22942718251157</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.0214207184375</v>
+        <v>39.04192718251157</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>44.91725405177083</v>
+        <v>44.93776051584491</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.1151707184375</v>
+        <v>46.13567718251157</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>59.2089207184375</v>
+        <v>59.22942718251158</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>60.2089207184375</v>
+        <v>60.22942718251158</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>64.91725405177083</v>
+        <v>64.93776051584491</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>74.1151707184375</v>
+        <v>74.13567718251157</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>74.91725405177083</v>
+        <v>74.93776051584491</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>80.91725405177083</v>
+        <v>80.93776051584491</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>90.0839207184375</v>
+        <v>90.10442718251157</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>91.9901707184375</v>
+        <v>92.01067718251157</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>108.0214207184375</v>
+        <v>108.0419271825116</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>122.2089207184375</v>
+        <v>122.2294271825116</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>125.9172540517708</v>
+        <v>125.9377605158449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>130.0214207184375</v>
+        <v>130.0419271825116</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>130.9172540517708</v>
+        <v>130.9377605158449</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>148.9172540517708</v>
+        <v>148.9377605158449</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.1151707184375</v>
+        <v>150.1356771825116</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>150.2089207184375</v>
+        <v>150.2294271825116</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>151.1151707184375</v>
+        <v>151.1356771825116</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>162.9589207184375</v>
+        <v>162.9794271825116</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>164.0630873851042</v>
+        <v>164.0835938491782</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>165.2505873851042</v>
+        <v>165.2710938491782</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>165.9589207184375</v>
+        <v>165.9794271825116</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>192.0630873851042</v>
+        <v>192.0835938491782</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>192.0630873851042</v>
+        <v>192.0835938491782</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.1568373851042</v>
+        <v>199.1773438491782</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>214.2505873851042</v>
+        <v>214.2710938491782</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>219.0214207184375</v>
+        <v>219.0419271825116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>221.0422540517708</v>
+        <v>221.0627605158449</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>233.0214207184375</v>
+        <v>233.0419271825116</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>235.0214207184375</v>
+        <v>235.0419271825116</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>315.0214207184375</v>
+        <v>315.0419271825115</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -78318,7 +78318,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>316.0214207184375</v>
+        <v>316.0419271825115</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>319.0630873851042</v>
+        <v>319.0835938491782</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>319.9589207184375</v>
+        <v>319.9794271825115</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>326.1568373851042</v>
+        <v>326.1773438491782</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>326.9589207184375</v>
+        <v>326.9794271825115</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>342.0214207184375</v>
+        <v>342.0419271825115</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -78936,7 +78936,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>342.0214207184375</v>
+        <v>342.0419271825115</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -79039,7 +79039,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>343.0214207184375</v>
+        <v>343.0419271825115</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.1151707184375</v>
+        <v>32.13567718251157</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.91725405177083</v>
+        <v>32.93776051584491</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.1151707184375</v>
+        <v>45.13567718251157</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>67.91725405177083</v>
+        <v>67.93776051584491</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79725,7 +79725,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>81.91725405177083</v>
+        <v>81.93776051584491</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79828,7 +79828,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>91.0839207184375</v>
+        <v>91.10442718251157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>108.2089207184375</v>
+        <v>108.2294271825116</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>109.2089207184375</v>
+        <v>109.2294271825116</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>120.9172540517708</v>
+        <v>120.9377605158449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>185.2505873851042</v>
+        <v>185.2710938491782</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80343,7 +80343,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>186.1568373851042</v>
+        <v>186.1773438491782</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>188.0422540517708</v>
+        <v>188.0627605158449</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>190.0422540517708</v>
+        <v>190.0627605158449</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>200.0630873851042</v>
+        <v>200.0835938491782</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>200.9589207184375</v>
+        <v>200.9794271825116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>221.0214207184375</v>
+        <v>221.0419271825116</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>304.0005873851042</v>
+        <v>304.0210938491782</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>311.0422540517708</v>
+        <v>311.0627605158449</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81270,7 +81270,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>318.2505873851042</v>
+        <v>318.2710938491782</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>319.0630873851042</v>
+        <v>319.0835938491782</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>334.9172540517708</v>
+        <v>334.9377605158449</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.0214207184375</v>
+        <v>335.0419271825115</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>337.0214207184375</v>
+        <v>337.0419271825115</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>342.9172540517708</v>
+        <v>342.9377605158449</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>

--- a/EDA_DF/LaLiga_Rank_ML.xlsx
+++ b/EDA_DF/LaLiga_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>16.93776051584491</v>
+        <v>17.8876997594213</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>30.9377605158449</v>
+        <v>31.8876997594213</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>43.93776051584491</v>
+        <v>44.8876997594213</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.04192718251158</v>
+        <v>53.99186642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>59.93776051584491</v>
+        <v>60.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.04192718251157</v>
+        <v>67.99186642608797</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.04192718251157</v>
+        <v>81.99186642608797</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>107.9377605158449</v>
+        <v>108.8876997594213</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>114.9377605158449</v>
+        <v>115.8876997594213</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>142.9377605158449</v>
+        <v>143.8876997594213</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>158.1773438491782</v>
+        <v>159.1272830927547</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>178.1773438491782</v>
+        <v>179.1272830927547</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>186.0835938491782</v>
+        <v>187.0335330927547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>191.9794271825116</v>
+        <v>192.929366426088</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>198.9794271825116</v>
+        <v>199.9293664260879</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>234.9585938491782</v>
+        <v>235.9085330927546</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>318.9794271825115</v>
+        <v>319.9293664260879</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>319.2710938491782</v>
+        <v>320.2210330927546</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>344.0419271825115</v>
+        <v>344.9918664260879</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>16.93776051584491</v>
+        <v>17.8876997594213</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>30.9377605158449</v>
+        <v>31.8876997594213</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>43.93776051584491</v>
+        <v>44.8876997594213</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.04192718251158</v>
+        <v>53.99186642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>59.93776051584491</v>
+        <v>60.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.04192718251157</v>
+        <v>67.99186642608797</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.04192718251157</v>
+        <v>81.99186642608797</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>107.9377605158449</v>
+        <v>108.8876997594213</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>114.9377605158449</v>
+        <v>115.8876997594213</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>142.9377605158449</v>
+        <v>143.8876997594213</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>158.1773438491782</v>
+        <v>159.1272830927547</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>178.1773438491782</v>
+        <v>179.1272830927547</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>186.0835938491782</v>
+        <v>187.0335330927547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>191.9794271825116</v>
+        <v>192.929366426088</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>198.9794271825116</v>
+        <v>199.9293664260879</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>234.9585938491782</v>
+        <v>235.9085330927546</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>318.9794271825115</v>
+        <v>319.9293664260879</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>319.2710938491782</v>
+        <v>320.2210330927546</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>344.0419271825115</v>
+        <v>344.9918664260879</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.937760515844907</v>
+        <v>3.887699759421297</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.135677182511574</v>
+        <v>4.085616426087963</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>3.937760515844907</v>
+        <v>4.887699759421296</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.04192718251158</v>
+        <v>24.99186642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.9377605158449</v>
+        <v>25.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.13567718251157</v>
+        <v>32.08561642608796</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>36.93776051584491</v>
+        <v>37.8876997594213</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>37.93776051584491</v>
+        <v>38.8876997594213</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.13567718251157</v>
+        <v>40.08561642608796</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.22942718251157</v>
+        <v>47.17936642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>58.93776051584491</v>
+        <v>59.8876997594213</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>62.93776051584491</v>
+        <v>63.8876997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>63.02109384917824</v>
+        <v>63.97103309275463</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>65.93776051584491</v>
+        <v>66.8876997594213</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>72.93776051584491</v>
+        <v>73.8876997594213</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>90.91692718251157</v>
+        <v>91.86686642608797</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>102.1773438491782</v>
+        <v>103.1272830927546</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.9169271825116</v>
+        <v>105.866866426088</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>105.9169271825116</v>
+        <v>106.866866426088</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>109.1356771825116</v>
+        <v>110.085616426088</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>121.9377605158449</v>
+        <v>122.8876997594213</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>123.1356771825116</v>
+        <v>124.085616426088</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.2294271825116</v>
+        <v>124.179366426088</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>127.9377605158449</v>
+        <v>128.8876997594213</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.9377605158449</v>
+        <v>144.8876997594213</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>144.9377605158449</v>
+        <v>145.8876997594213</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>149.9377605158449</v>
+        <v>150.8876997594213</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>157.0419271825116</v>
+        <v>157.991866426088</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>158.9794271825116</v>
+        <v>159.929366426088</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>163.9794271825116</v>
+        <v>164.929366426088</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>179.1773438491782</v>
+        <v>180.1272830927547</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>186.9794271825116</v>
+        <v>187.929366426088</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>189.0627605158449</v>
+        <v>190.0126997594213</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>189.0627605158449</v>
+        <v>190.0126997594213</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>193.0835938491782</v>
+        <v>194.0335330927547</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>199.9794271825116</v>
+        <v>200.9293664260879</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>213.2710938491782</v>
+        <v>214.2210330927546</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>214.1773438491782</v>
+        <v>215.1272830927546</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>219.9585938491782</v>
+        <v>220.9085330927546</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>227.1252605158449</v>
+        <v>228.0751997594213</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>315.0419271825115</v>
+        <v>315.9918664260879</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>318.1773438491782</v>
+        <v>319.1272830927546</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>319.1773438491782</v>
+        <v>320.1272830927546</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>325.9794271825115</v>
+        <v>326.9293664260879</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>334.9377605158449</v>
+        <v>335.8876997594213</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>337.0419271825115</v>
+        <v>337.9918664260879</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>339.9794271825115</v>
+        <v>340.9293664260879</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>341.9377605158449</v>
+        <v>342.8876997594213</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.93776051584491</v>
+        <v>18.8876997594213</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.9377605158449</v>
+        <v>26.8876997594213</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>51.93776051584491</v>
+        <v>52.8876997594213</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>60.93776051584491</v>
+        <v>61.8876997594213</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>73.13567718251157</v>
+        <v>74.08561642608797</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>91.01067718251157</v>
+        <v>91.96061642608797</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.0210938491782</v>
+        <v>105.9710330927546</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>106.9377605158449</v>
+        <v>107.8876997594213</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>115.2294271825116</v>
+        <v>116.179366426088</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.0419271825116</v>
+        <v>123.991866426088</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>129.9377605158449</v>
+        <v>130.8876997594213</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>143.1356771825116</v>
+        <v>144.085616426088</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>156.9377605158449</v>
+        <v>157.8876997594213</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>164.1773438491782</v>
+        <v>165.1272830927547</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>179.9794271825116</v>
+        <v>180.929366426088</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>184.9794271825116</v>
+        <v>185.929366426088</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>193.2710938491782</v>
+        <v>194.2210330927546</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>200.2710938491782</v>
+        <v>201.2210330927546</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>227.0419271825116</v>
+        <v>227.9918664260879</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>232.9585938491782</v>
+        <v>233.9085330927546</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.0419271825115</v>
+        <v>335.9918664260879</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>335.9377605158449</v>
+        <v>336.8876997594213</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>340.0835938491782</v>
+        <v>341.0335330927546</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>343.0419271825115</v>
+        <v>343.9918664260879</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.041927182511574</v>
+        <v>3.991866426087963</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.04192718251158</v>
+        <v>18.99186642608796</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.13567718251158</v>
+        <v>19.08561642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>23.93776051584491</v>
+        <v>24.8876997594213</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.04192718251157</v>
+        <v>31.99186642608796</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.9377605158449</v>
+        <v>32.8876997594213</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.93776051584491</v>
+        <v>40.8876997594213</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.04192718251157</v>
+        <v>45.99186642608796</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.22942718251158</v>
+        <v>54.17936642608796</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.04192718251158</v>
+        <v>60.99186642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.93776051584491</v>
+        <v>62.8876997594213</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.13567718251157</v>
+        <v>68.08561642608797</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>73.04192718251157</v>
+        <v>73.99186642608797</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -14672,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.22942718251157</v>
+        <v>82.17936642608797</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>89.91692718251157</v>
+        <v>90.86686642608797</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>91.91692718251157</v>
+        <v>92.86686642608797</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.9169271825116</v>
+        <v>104.866866426088</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.0210938491782</v>
+        <v>104.9710330927546</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>104.0210938491782</v>
+        <v>104.9710330927546</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>108.9377605158449</v>
+        <v>109.8876997594213</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>116.0419271825116</v>
+        <v>116.991866426088</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.1356771825116</v>
+        <v>117.085616426088</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>122.9377605158449</v>
+        <v>123.8876997594213</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>129.0419271825116</v>
+        <v>129.991866426088</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.9377605158449</v>
+        <v>151.8876997594213</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.2294271825116</v>
+        <v>152.179366426088</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>179.2710938491782</v>
+        <v>180.2210330927547</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>186.2710938491782</v>
+        <v>187.2210330927547</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>188.9585938491782</v>
+        <v>189.9085330927547</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>189.0627605158449</v>
+        <v>190.0126997594213</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>189.9585938491782</v>
+        <v>190.9085330927547</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>212.9794271825116</v>
+        <v>213.9293664260879</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -16629,7 +16629,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>215.0419271825116</v>
+        <v>215.9918664260879</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>220.1252605158449</v>
+        <v>221.0751997594213</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>222.0419271825116</v>
+        <v>222.9918664260879</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>229.0419271825116</v>
+        <v>229.9918664260879</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>233.9585938491782</v>
+        <v>234.9085330927546</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>235.1460938491782</v>
+        <v>236.0960330927546</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.0835938491782</v>
+        <v>319.0335330927546</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.2710938491782</v>
+        <v>327.2210330927546</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.0419271825115</v>
+        <v>336.9918664260879</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.9377605158449</v>
+        <v>337.8876997594213</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.9794271825115</v>
+        <v>341.9293664260879</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>343.9377605158449</v>
+        <v>344.8876997594213</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.979427182511574</v>
+        <v>2.929366426087963</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.229427182511574</v>
+        <v>5.179366426087963</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.13567718251158</v>
+        <v>18.08561642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.13567718251158</v>
+        <v>25.08561642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.22942718251158</v>
+        <v>25.17936642608796</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.13567718251157</v>
+        <v>26.08561642608796</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.22942718251157</v>
+        <v>26.17936642608796</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.04192718251157</v>
+        <v>32.99186642608796</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.04192718251157</v>
+        <v>38.99186642608796</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>38.13567718251157</v>
+        <v>39.08561642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>38.22942718251157</v>
+        <v>39.17936642608796</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>45.93776051584491</v>
+        <v>46.8876997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.93776051584491</v>
+        <v>47.8876997594213</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>52.13567718251158</v>
+        <v>53.08561642608796</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>52.22942718251158</v>
+        <v>53.17936642608796</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>52.93776051584491</v>
+        <v>53.8876997594213</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>53.13567718251158</v>
+        <v>54.08561642608796</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>53.93776051584491</v>
+        <v>54.8876997594213</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>59.04192718251158</v>
+        <v>59.99186642608796</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>59.13567718251158</v>
+        <v>60.08561642608796</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>66.13567718251157</v>
+        <v>67.08561642608797</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>66.93776051584491</v>
+        <v>67.8876997594213</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>67.22942718251157</v>
+        <v>68.17936642608797</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>73.22942718251157</v>
+        <v>74.17936642608797</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>74.04192718251157</v>
+        <v>74.99186642608797</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>80.13567718251157</v>
+        <v>81.08561642608797</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>81.13567718251157</v>
+        <v>82.08561642608797</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>92.10442718251157</v>
+        <v>93.05436642608797</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>103.9169271825116</v>
+        <v>104.866866426088</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>104.9169271825116</v>
+        <v>105.866866426088</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>108.1356771825116</v>
+        <v>109.085616426088</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>109.9377605158449</v>
+        <v>110.8876997594213</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>115.0419271825116</v>
+        <v>115.991866426088</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>115.9377605158449</v>
+        <v>116.8876997594213</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>116.2294271825116</v>
+        <v>117.179366426088</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>116.9377605158449</v>
+        <v>117.8876997594213</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>123.9794271825116</v>
+        <v>124.929366426088</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>128.9377605158449</v>
+        <v>129.8876997594213</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>129.1356771825116</v>
+        <v>130.085616426088</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>129.2294271825116</v>
+        <v>130.179366426088</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>130.1356771825116</v>
+        <v>131.085616426088</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>144.0419271825116</v>
+        <v>144.991866426088</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>150.0419271825116</v>
+        <v>150.991866426088</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -22568,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>151.9794271825116</v>
+        <v>152.929366426088</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>157.2294271825116</v>
+        <v>158.179366426088</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>157.9794271825116</v>
+        <v>158.929366426088</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>158.0835938491782</v>
+        <v>159.0335330927547</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>164.2710938491782</v>
+        <v>165.2210330927547</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>165.1773438491782</v>
+        <v>166.1272830927547</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>178.0835938491782</v>
+        <v>179.0335330927547</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>178.2710938491782</v>
+        <v>179.2210330927547</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>179.0835938491782</v>
+        <v>180.0335330927547</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>183.9794271825116</v>
+        <v>184.929366426088</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>184.9794271825116</v>
+        <v>185.929366426088</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>185.1773438491782</v>
+        <v>186.1272830927547</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>185.9794271825116</v>
+        <v>186.929366426088</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>187.9585938491782</v>
+        <v>188.9085330927547</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>188.9585938491782</v>
+        <v>189.9085330927547</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>192.2710938491782</v>
+        <v>193.2210330927547</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>193.1773438491782</v>
+        <v>194.1272830927547</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>193.9794271825116</v>
+        <v>194.9293664260879</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>199.2710938491782</v>
+        <v>200.2210330927546</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>200.1773438491782</v>
+        <v>201.1272830927546</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>213.1773438491782</v>
+        <v>214.1272830927546</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>213.9794271825116</v>
+        <v>214.9293664260879</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>214.0835938491782</v>
+        <v>215.0335330927546</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>220.0419271825116</v>
+        <v>220.9918664260879</v>
       </c>
       <c r="AD68" t="n">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>226.0627605158449</v>
+        <v>227.0126997594213</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>226.9585938491782</v>
+        <v>227.9085330927546</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>227.9585938491782</v>
+        <v>228.9085330927546</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>228.1460938491782</v>
+        <v>229.0960330927546</v>
       </c>
       <c r="AD72" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>228.9585938491782</v>
+        <v>229.9085330927546</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>234.0419271825116</v>
+        <v>234.9918664260879</v>
       </c>
       <c r="AD74" t="n">
         <v>1</v>
@@ -25573,12 +25573,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Atletico Madrid19333</t>
+          <t>Rayo Vallecano19340</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -25587,42 +25587,42 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="G75" t="n">
-        <v>2.064</v>
+        <v>2.251</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K75" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>19333</v>
+        <v>19340</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -25652,19 +25652,19 @@
         <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD75" t="n">
         <v>0</v>
       </c>
       <c r="AE75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD76" t="n">
         <v>0</v>
@@ -25779,12 +25779,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rayo Vallecano19340</t>
+          <t>Sevilla19341</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -25793,42 +25793,42 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.04</v>
+        <v>0.462</v>
       </c>
       <c r="G77" t="n">
-        <v>2.251</v>
+        <v>2.354</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K77" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>1</v>
       </c>
       <c r="U77" t="n">
-        <v>19340</v>
+        <v>19341</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -25864,13 +25864,13 @@
         <v>1</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -25882,12 +25882,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sevilla19341</t>
+          <t>Atletico Madrid19333</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -25896,13 +25896,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.462</v>
+        <v>1.17</v>
       </c>
       <c r="G78" t="n">
-        <v>2.354</v>
+        <v>2.064</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -25911,20 +25911,20 @@
         <v>9</v>
       </c>
       <c r="K78" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -25943,7 +25943,7 @@
         <v>1</v>
       </c>
       <c r="U78" t="n">
-        <v>19341</v>
+        <v>19333</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -25961,13 +25961,13 @@
         <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD78" t="n">
         <v>0</v>
@@ -25985,12 +25985,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Osasuna19325</t>
+          <t>Celta Vigo19326</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -25999,54 +25999,54 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.432</v>
+        <v>0.599</v>
       </c>
       <c r="G79" t="n">
-        <v>2.99</v>
+        <v>1.643</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K79" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
-        <v>19325</v>
+        <v>19326</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -26070,10 +26070,10 @@
         <v>1</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE79" t="n">
         <v>0</v>
@@ -26088,12 +26088,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Celta Vigo19326</t>
+          <t>Osasuna19325</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -26102,54 +26102,54 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.599</v>
+        <v>0.432</v>
       </c>
       <c r="G80" t="n">
-        <v>1.643</v>
+        <v>2.99</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K80" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>19326</v>
+        <v>19325</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -26173,10 +26173,10 @@
         <v>1</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE80" t="n">
         <v>0</v>
@@ -26276,7 +26276,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>313.9585938491782</v>
+        <v>314.9085330927546</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>314.0419271825115</v>
+        <v>314.9918664260879</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>314.9377605158449</v>
+        <v>315.8876997594213</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>323.9794271825115</v>
+        <v>324.9293664260879</v>
       </c>
       <c r="AD84" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>326.0835938491782</v>
+        <v>327.0335330927546</v>
       </c>
       <c r="AD85" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>335.9377605158449</v>
+        <v>336.8876997594213</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>338.0627605158449</v>
+        <v>339.0126997594213</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>339.1773438491782</v>
+        <v>340.1272830927546</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>339.2710938491782</v>
+        <v>340.2210330927546</v>
       </c>
       <c r="AD89" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>344.0419271825115</v>
+        <v>344.9918664260879</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.041927182511574</v>
+        <v>4.991866426087963</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.937760515844907</v>
+        <v>5.887699759421296</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.09401051584491</v>
+        <v>18.0439497594213</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.22942718251158</v>
+        <v>19.17936642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.93776051584491</v>
+        <v>19.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>29.9377605158449</v>
+        <v>30.8876997594213</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.22942718251157</v>
+        <v>32.17936642608796</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.04192718251157</v>
+        <v>39.99186642608796</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>44.93776051584491</v>
+        <v>45.8876997594213</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.13567718251157</v>
+        <v>47.08561642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>59.22942718251158</v>
+        <v>60.17936642608796</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -28610,7 +28610,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>60.22942718251158</v>
+        <v>61.17936642608796</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -28713,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>64.93776051584491</v>
+        <v>65.8876997594213</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>74.13567718251157</v>
+        <v>75.08561642608797</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -28919,7 +28919,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>74.93776051584491</v>
+        <v>75.8876997594213</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>80.93776051584491</v>
+        <v>81.8876997594213</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>90.10442718251157</v>
+        <v>91.05436642608797</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>92.01067718251157</v>
+        <v>92.96061642608797</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>108.0419271825116</v>
+        <v>108.991866426088</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>122.2294271825116</v>
+        <v>123.179366426088</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>125.9377605158449</v>
+        <v>126.8876997594213</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>130.0419271825116</v>
+        <v>130.991866426088</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>130.9377605158449</v>
+        <v>131.8876997594213</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>148.9377605158449</v>
+        <v>149.8876997594213</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.1356771825116</v>
+        <v>151.085616426088</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>150.2294271825116</v>
+        <v>151.179366426088</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>151.1356771825116</v>
+        <v>152.085616426088</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>162.9794271825116</v>
+        <v>163.929366426088</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>164.0835938491782</v>
+        <v>165.0335330927547</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>165.2710938491782</v>
+        <v>166.2210330927547</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>165.9794271825116</v>
+        <v>166.929366426088</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>192.0835938491782</v>
+        <v>193.0335330927547</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>192.0835938491782</v>
+        <v>193.0335330927547</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.1773438491782</v>
+        <v>200.1272830927546</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>214.2710938491782</v>
+        <v>215.2210330927546</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>219.0419271825116</v>
+        <v>219.9918664260879</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -31185,7 +31185,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>221.0627605158449</v>
+        <v>222.0126997594213</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>233.0419271825116</v>
+        <v>233.9918664260879</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>235.0419271825116</v>
+        <v>235.9918664260879</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>315.0419271825115</v>
+        <v>315.9918664260879</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>316.0419271825115</v>
+        <v>316.9918664260879</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>319.0835938491782</v>
+        <v>320.0335330927546</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>319.9794271825115</v>
+        <v>320.9293664260879</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>326.1773438491782</v>
+        <v>327.1272830927546</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>326.9794271825115</v>
+        <v>327.9293664260879</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>342.0419271825115</v>
+        <v>342.9918664260879</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>342.0419271825115</v>
+        <v>342.9918664260879</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>343.0419271825115</v>
+        <v>343.9918664260879</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.04192718251157</v>
+        <v>25.99186642608796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.22942718251157</v>
+        <v>33.17936642608796</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -32901,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.22942718251157</v>
+        <v>46.17936642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.04192718251157</v>
+        <v>46.99186642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>66.22942718251157</v>
+        <v>67.17936642608797</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -33210,7 +33210,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>73.93776051584491</v>
+        <v>74.8876997594213</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>80.22942718251157</v>
+        <v>81.17936642608797</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -33416,7 +33416,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>122.0419271825116</v>
+        <v>122.991866426088</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>130.2294271825116</v>
+        <v>131.179366426088</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.1356771825116</v>
+        <v>145.085616426088</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>144.2294271825116</v>
+        <v>145.179366426088</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>155.9377605158449</v>
+        <v>156.8876997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.1356771825116</v>
+        <v>158.085616426088</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.0835938491782</v>
+        <v>166.0335330927547</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>177.9794271825116</v>
+        <v>178.929366426088</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>192.1773438491782</v>
+        <v>193.1272830927547</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>197.9794271825116</v>
+        <v>198.9293664260879</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>220.9585938491782</v>
+        <v>221.9085330927546</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>221.9585938491782</v>
+        <v>222.9085330927546</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>228.0419271825116</v>
+        <v>228.9918664260879</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -34858,7 +34858,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>312.0627605158449</v>
+        <v>313.0126997594213</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -35064,7 +35064,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>315.9377605158449</v>
+        <v>316.8876997594213</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>316.0419271825115</v>
+        <v>316.9918664260879</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>324.9794271825115</v>
+        <v>325.9293664260879</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>337.9794271825115</v>
+        <v>338.9293664260879</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>342.9377605158449</v>
+        <v>343.8876997594213</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>347.0835938491782</v>
+        <v>348.0335330927546</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.229427182511574</v>
+        <v>4.179366426087963</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -35956,7 +35956,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.135677182511574</v>
+        <v>5.085616426087963</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.04192718251158</v>
+        <v>17.99186642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -36162,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>17.22942718251158</v>
+        <v>18.17936642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.93776051584491</v>
+        <v>23.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -36368,7 +36368,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.93776051584491</v>
+        <v>39.8876997594213</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -36471,7 +36471,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>50.93776051584491</v>
+        <v>51.8876997594213</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -36574,7 +36574,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.04192718251158</v>
+        <v>52.99186642608796</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>57.93776051584491</v>
+        <v>58.8876997594213</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.13567718251158</v>
+        <v>61.08561642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>66.04192718251157</v>
+        <v>66.99186642608797</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>71.93776051584491</v>
+        <v>72.8876997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.22942718251157</v>
+        <v>75.17936642608797</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -37192,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>90.01067718251157</v>
+        <v>90.96061642608797</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -37295,7 +37295,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>91.01067718251157</v>
+        <v>91.96061642608797</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -37398,7 +37398,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>105.9169271825116</v>
+        <v>106.866866426088</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -37501,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>106.0210938491782</v>
+        <v>106.9710330927546</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>109.0419271825116</v>
+        <v>109.991866426088</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>113.1356771825116</v>
+        <v>114.085616426088</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>113.9377605158449</v>
+        <v>114.8876997594213</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>122.1356771825116</v>
+        <v>123.085616426088</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>143.0419271825116</v>
+        <v>143.991866426088</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>144.0419271825116</v>
+        <v>144.991866426088</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>151.0419271825116</v>
+        <v>151.991866426088</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>158.2710938491782</v>
+        <v>159.2210330927547</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>164.9794271825116</v>
+        <v>165.929366426088</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>178.0835938491782</v>
+        <v>179.0335330927547</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -38634,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>178.9794271825116</v>
+        <v>179.929366426088</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>188.0627605158449</v>
+        <v>189.0126997594213</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -38840,7 +38840,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>192.9794271825116</v>
+        <v>193.929366426088</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>199.0835938491782</v>
+        <v>200.0335330927546</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.9377605158449</v>
+        <v>215.8876997594213</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>218.9585938491782</v>
+        <v>219.9085330927546</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>225.9585938491782</v>
+        <v>226.9085330927546</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>234.1460938491782</v>
+        <v>235.0960330927546</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>235.9585938491782</v>
+        <v>236.9085330927546</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>236.0419271825116</v>
+        <v>236.9918664260879</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>314.9377605158449</v>
+        <v>315.8876997594213</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>315.0419271825115</v>
+        <v>315.9918664260879</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>317.9794271825115</v>
+        <v>318.9293664260879</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>325.0835938491782</v>
+        <v>326.0335330927546</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -40179,7 +40179,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>325.1773438491782</v>
+        <v>326.1272830927546</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>325.2710938491782</v>
+        <v>326.2210330927546</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>338.9794271825115</v>
+        <v>339.9293664260879</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>339.0835938491782</v>
+        <v>340.0335330927546</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>340.1773438491782</v>
+        <v>341.1272830927546</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -40865,7 +40865,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.13567718251157</v>
+        <v>33.08561642608796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -40968,7 +40968,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.93776051584491</v>
+        <v>33.8876997594213</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -41071,7 +41071,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.13567718251157</v>
+        <v>46.08561642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -41174,7 +41174,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>67.93776051584491</v>
+        <v>68.8876997594213</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -41277,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>81.93776051584491</v>
+        <v>82.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -41380,7 +41380,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>91.10442718251157</v>
+        <v>92.05436642608797</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -41483,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>108.2294271825116</v>
+        <v>109.179366426088</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -41586,7 +41586,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>109.2294271825116</v>
+        <v>110.179366426088</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -41689,7 +41689,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>120.9377605158449</v>
+        <v>121.8876997594213</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>185.2710938491782</v>
+        <v>186.2210330927547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -41895,7 +41895,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>186.1773438491782</v>
+        <v>187.1272830927547</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41998,7 +41998,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>188.0627605158449</v>
+        <v>189.0126997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>190.0627605158449</v>
+        <v>191.0126997594213</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>200.0835938491782</v>
+        <v>201.0335330927546</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -42307,7 +42307,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>200.9794271825116</v>
+        <v>201.9293664260879</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -42410,7 +42410,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>221.0419271825116</v>
+        <v>221.9918664260879</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -42428,12 +42428,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cadiz19336</t>
+          <t>Almeria19337</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -42442,19 +42442,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.23</v>
+        <v>2.035</v>
       </c>
       <c r="G18" t="n">
-        <v>1.534</v>
+        <v>0.502</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
         <v>12</v>
@@ -42463,14 +42463,14 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -42489,7 +42489,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>19336</v>
+        <v>19337</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -42531,12 +42531,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Almeria19337</t>
+          <t>Cadiz19336</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -42545,19 +42545,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.035</v>
+        <v>2.23</v>
       </c>
       <c r="G19" t="n">
-        <v>0.502</v>
+        <v>1.534</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
         <v>12</v>
@@ -42566,14 +42566,14 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -42592,7 +42592,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>19337</v>
+        <v>19336</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>318.2710938491782</v>
+        <v>319.2210330927546</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>319.0835938491782</v>
+        <v>320.0335330927546</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>334.9377605158449</v>
+        <v>335.8876997594213</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -43131,7 +43131,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.0419271825115</v>
+        <v>335.9918664260879</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>337.0419271825115</v>
+        <v>337.9918664260879</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>342.9377605158449</v>
+        <v>343.8876997594213</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -43611,7 +43611,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.041927182511574</v>
+        <v>3.991866426087963</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -43714,7 +43714,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.04192718251158</v>
+        <v>18.99186642608796</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -43817,7 +43817,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.13567718251158</v>
+        <v>19.08561642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -43920,7 +43920,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>23.93776051584491</v>
+        <v>24.8876997594213</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -44023,7 +44023,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.04192718251157</v>
+        <v>31.99186642608796</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -44126,7 +44126,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.9377605158449</v>
+        <v>32.8876997594213</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -44229,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.93776051584491</v>
+        <v>40.8876997594213</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.04192718251157</v>
+        <v>45.99186642608796</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -44435,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.22942718251158</v>
+        <v>54.17936642608796</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.04192718251158</v>
+        <v>60.99186642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.93776051584491</v>
+        <v>62.8876997594213</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -44744,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.13567718251157</v>
+        <v>68.08561642608797</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -44847,7 +44847,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>73.04192718251157</v>
+        <v>73.99186642608797</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -44950,7 +44950,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.22942718251157</v>
+        <v>82.17936642608797</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -45053,7 +45053,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>89.91692718251157</v>
+        <v>90.86686642608797</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -45156,7 +45156,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>91.91692718251157</v>
+        <v>92.86686642608797</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -45259,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.9169271825116</v>
+        <v>104.866866426088</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.0210938491782</v>
+        <v>104.9710330927546</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -45465,7 +45465,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>104.0210938491782</v>
+        <v>104.9710330927546</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>108.9377605158449</v>
+        <v>109.8876997594213</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>116.0419271825116</v>
+        <v>116.991866426088</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.1356771825116</v>
+        <v>117.085616426088</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>122.9377605158449</v>
+        <v>123.8876997594213</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>129.0419271825116</v>
+        <v>129.991866426088</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.9377605158449</v>
+        <v>151.8876997594213</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.2294271825116</v>
+        <v>152.179366426088</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>179.2710938491782</v>
+        <v>180.2210330927547</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>186.2710938491782</v>
+        <v>187.2210330927547</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>188.9585938491782</v>
+        <v>189.9085330927547</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>189.0627605158449</v>
+        <v>190.0126997594213</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>189.9585938491782</v>
+        <v>190.9085330927547</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>212.9794271825116</v>
+        <v>213.9293664260879</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>215.0419271825116</v>
+        <v>215.9918664260879</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>220.1252605158449</v>
+        <v>221.0751997594213</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>222.0419271825116</v>
+        <v>222.9918664260879</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>229.0419271825116</v>
+        <v>229.9918664260879</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>233.9585938491782</v>
+        <v>234.9085330927546</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>235.1460938491782</v>
+        <v>236.0960330927546</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.0835938491782</v>
+        <v>319.0335330927546</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.2710938491782</v>
+        <v>327.2210330927546</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.0419271825115</v>
+        <v>336.9918664260879</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.9377605158449</v>
+        <v>337.8876997594213</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.9794271825115</v>
+        <v>341.9293664260879</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>343.9377605158449</v>
+        <v>344.8876997594213</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -48417,7 +48417,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.04192718251157</v>
+        <v>25.99186642608796</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -48520,7 +48520,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.22942718251157</v>
+        <v>33.17936642608796</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -48623,7 +48623,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.22942718251157</v>
+        <v>46.17936642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -48726,7 +48726,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.04192718251157</v>
+        <v>46.99186642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>66.22942718251157</v>
+        <v>67.17936642608797</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -48932,7 +48932,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>73.93776051584491</v>
+        <v>74.8876997594213</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -49035,7 +49035,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>80.22942718251157</v>
+        <v>81.17936642608797</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -49138,7 +49138,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>122.0419271825116</v>
+        <v>122.991866426088</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -49241,7 +49241,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>130.2294271825116</v>
+        <v>131.179366426088</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.1356771825116</v>
+        <v>145.085616426088</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>144.2294271825116</v>
+        <v>145.179366426088</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>155.9377605158449</v>
+        <v>156.8876997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -49653,7 +49653,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.1356771825116</v>
+        <v>158.085616426088</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -49756,7 +49756,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.0835938491782</v>
+        <v>166.0335330927547</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -49859,7 +49859,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>177.9794271825116</v>
+        <v>178.929366426088</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -49962,7 +49962,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>192.1773438491782</v>
+        <v>193.1272830927547</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>197.9794271825116</v>
+        <v>198.9293664260879</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>220.9585938491782</v>
+        <v>221.9085330927546</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>221.9585938491782</v>
+        <v>222.9085330927546</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>228.0419271825116</v>
+        <v>228.9918664260879</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>312.0627605158449</v>
+        <v>313.0126997594213</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>315.9377605158449</v>
+        <v>316.8876997594213</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -50889,7 +50889,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>316.0419271825115</v>
+        <v>316.9918664260879</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>324.9794271825115</v>
+        <v>325.9293664260879</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>337.9794271825115</v>
+        <v>338.9293664260879</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>342.9377605158449</v>
+        <v>343.8876997594213</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>347.0835938491782</v>
+        <v>348.0335330927546</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -51575,7 +51575,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.937760515844907</v>
+        <v>3.887699759421297</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -51678,7 +51678,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.135677182511574</v>
+        <v>4.085616426087963</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -51781,7 +51781,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>3.937760515844907</v>
+        <v>4.887699759421296</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -51884,7 +51884,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.04192718251158</v>
+        <v>24.99186642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -51987,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.9377605158449</v>
+        <v>25.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -52090,7 +52090,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.13567718251157</v>
+        <v>32.08561642608796</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -52193,7 +52193,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>36.93776051584491</v>
+        <v>37.8876997594213</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -52296,7 +52296,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>37.93776051584491</v>
+        <v>38.8876997594213</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -52399,7 +52399,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.13567718251157</v>
+        <v>40.08561642608796</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.22942718251157</v>
+        <v>47.17936642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -52605,7 +52605,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>58.93776051584491</v>
+        <v>59.8876997594213</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -52708,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>62.93776051584491</v>
+        <v>63.8876997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>63.02109384917824</v>
+        <v>63.97103309275463</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -52914,7 +52914,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>65.93776051584491</v>
+        <v>66.8876997594213</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -53017,7 +53017,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>72.93776051584491</v>
+        <v>73.8876997594213</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>90.91692718251157</v>
+        <v>91.86686642608797</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>102.1773438491782</v>
+        <v>103.1272830927546</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -53326,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.9169271825116</v>
+        <v>105.866866426088</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -53429,7 +53429,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>105.9169271825116</v>
+        <v>106.866866426088</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>109.1356771825116</v>
+        <v>110.085616426088</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>121.9377605158449</v>
+        <v>122.8876997594213</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>123.1356771825116</v>
+        <v>124.085616426088</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.2294271825116</v>
+        <v>124.179366426088</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>127.9377605158449</v>
+        <v>128.8876997594213</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.9377605158449</v>
+        <v>144.8876997594213</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>144.9377605158449</v>
+        <v>145.8876997594213</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>149.9377605158449</v>
+        <v>150.8876997594213</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>157.0419271825116</v>
+        <v>157.991866426088</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>158.9794271825116</v>
+        <v>159.929366426088</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>163.9794271825116</v>
+        <v>164.929366426088</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>179.1773438491782</v>
+        <v>180.1272830927547</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>186.9794271825116</v>
+        <v>187.929366426088</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>189.0627605158449</v>
+        <v>190.0126997594213</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>189.0627605158449</v>
+        <v>190.0126997594213</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>193.0835938491782</v>
+        <v>194.0335330927547</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>199.9794271825116</v>
+        <v>200.9293664260879</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>213.2710938491782</v>
+        <v>214.2210330927546</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>214.1773438491782</v>
+        <v>215.1272830927546</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>219.9585938491782</v>
+        <v>220.9085330927546</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>227.1252605158449</v>
+        <v>228.0751997594213</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>315.0419271825115</v>
+        <v>315.9918664260879</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>318.1773438491782</v>
+        <v>319.1272830927546</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>319.1773438491782</v>
+        <v>320.1272830927546</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>325.9794271825115</v>
+        <v>326.9293664260879</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>334.9377605158449</v>
+        <v>335.8876997594213</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>337.0419271825115</v>
+        <v>337.9918664260879</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>339.9794271825115</v>
+        <v>340.9293664260879</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -56622,7 +56622,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>341.9377605158449</v>
+        <v>342.8876997594213</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -56896,7 +56896,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.979427182511574</v>
+        <v>2.929366426087963</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -56999,7 +56999,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.229427182511574</v>
+        <v>5.179366426087963</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -57102,7 +57102,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.13567718251158</v>
+        <v>18.08561642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.13567718251158</v>
+        <v>25.08561642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57308,7 +57308,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.22942718251158</v>
+        <v>25.17936642608796</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -57411,7 +57411,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.13567718251157</v>
+        <v>26.08561642608796</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.22942718251157</v>
+        <v>26.17936642608796</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -57617,7 +57617,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.04192718251157</v>
+        <v>32.99186642608796</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -57720,7 +57720,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.04192718251157</v>
+        <v>38.99186642608796</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>38.13567718251157</v>
+        <v>39.08561642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -57926,7 +57926,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>38.22942718251157</v>
+        <v>39.17936642608796</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>45.93776051584491</v>
+        <v>46.8876997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58132,7 +58132,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.93776051584491</v>
+        <v>47.8876997594213</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58235,7 +58235,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>52.13567718251158</v>
+        <v>53.08561642608796</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -58338,7 +58338,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>52.22942718251158</v>
+        <v>53.17936642608796</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -58441,7 +58441,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>52.93776051584491</v>
+        <v>53.8876997594213</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>53.13567718251158</v>
+        <v>54.08561642608796</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58647,7 +58647,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>53.93776051584491</v>
+        <v>54.8876997594213</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>59.04192718251158</v>
+        <v>59.99186642608796</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -58853,7 +58853,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>59.13567718251158</v>
+        <v>60.08561642608796</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>66.13567718251157</v>
+        <v>67.08561642608797</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -59059,7 +59059,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>66.93776051584491</v>
+        <v>67.8876997594213</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -59162,7 +59162,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>67.22942718251157</v>
+        <v>68.17936642608797</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>73.22942718251157</v>
+        <v>74.17936642608797</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>74.04192718251157</v>
+        <v>74.99186642608797</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>80.13567718251157</v>
+        <v>81.08561642608797</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>81.13567718251157</v>
+        <v>82.08561642608797</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>92.10442718251157</v>
+        <v>93.05436642608797</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>103.9169271825116</v>
+        <v>104.866866426088</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>104.9169271825116</v>
+        <v>105.866866426088</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -59986,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>108.1356771825116</v>
+        <v>109.085616426088</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>109.9377605158449</v>
+        <v>110.8876997594213</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>115.0419271825116</v>
+        <v>115.991866426088</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>115.9377605158449</v>
+        <v>116.8876997594213</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>116.2294271825116</v>
+        <v>117.179366426088</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>116.9377605158449</v>
+        <v>117.8876997594213</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>123.9794271825116</v>
+        <v>124.929366426088</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>128.9377605158449</v>
+        <v>129.8876997594213</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>129.1356771825116</v>
+        <v>130.085616426088</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>129.2294271825116</v>
+        <v>130.179366426088</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>130.1356771825116</v>
+        <v>131.085616426088</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>144.0419271825116</v>
+        <v>144.991866426088</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>150.0419271825116</v>
+        <v>150.991866426088</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>151.9794271825116</v>
+        <v>152.929366426088</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>157.2294271825116</v>
+        <v>158.179366426088</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>157.9794271825116</v>
+        <v>158.929366426088</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -61634,7 +61634,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>158.0835938491782</v>
+        <v>159.0335330927547</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>164.2710938491782</v>
+        <v>165.2210330927547</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>165.1773438491782</v>
+        <v>166.1272830927547</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>178.0835938491782</v>
+        <v>179.0335330927547</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>178.2710938491782</v>
+        <v>179.2210330927547</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>179.0835938491782</v>
+        <v>180.0335330927547</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>183.9794271825116</v>
+        <v>184.929366426088</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>184.9794271825116</v>
+        <v>185.929366426088</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -62458,7 +62458,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>185.1773438491782</v>
+        <v>186.1272830927547</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>185.9794271825116</v>
+        <v>186.929366426088</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>187.9585938491782</v>
+        <v>188.9085330927547</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>188.9585938491782</v>
+        <v>189.9085330927547</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>192.2710938491782</v>
+        <v>193.2210330927547</v>
       </c>
       <c r="AD60" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>193.1773438491782</v>
+        <v>194.1272830927547</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>193.9794271825116</v>
+        <v>194.9293664260879</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>199.2710938491782</v>
+        <v>200.2210330927546</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>200.1773438491782</v>
+        <v>201.1272830927546</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>213.1773438491782</v>
+        <v>214.1272830927546</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>213.9794271825116</v>
+        <v>214.9293664260879</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>214.0835938491782</v>
+        <v>215.0335330927546</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>220.0419271825116</v>
+        <v>220.9918664260879</v>
       </c>
       <c r="AD68" t="n">
         <v>0</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>226.0627605158449</v>
+        <v>227.0126997594213</v>
       </c>
       <c r="AD69" t="n">
         <v>1</v>
@@ -63900,7 +63900,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>226.9585938491782</v>
+        <v>227.9085330927546</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>227.9585938491782</v>
+        <v>228.9085330927546</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>228.1460938491782</v>
+        <v>229.0960330927546</v>
       </c>
       <c r="AD72" t="n">
         <v>1</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>228.9585938491782</v>
+        <v>229.9085330927546</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -64312,7 +64312,7 @@
         <v>1</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>234.0419271825116</v>
+        <v>234.9918664260879</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -64330,12 +64330,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Villarreal19333</t>
+          <t>Real Betis19339</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -64344,25 +64344,25 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.064</v>
+        <v>0.678</v>
       </c>
       <c r="G75" t="n">
-        <v>1.17</v>
+        <v>0.846</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
@@ -64372,7 +64372,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -64391,7 +64391,7 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>19333</v>
+        <v>19339</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD75" t="n">
         <v>1</v>
@@ -64433,12 +64433,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Real Betis19339</t>
+          <t>Mallorca19340</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -64447,45 +64447,45 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.678</v>
+        <v>2.251</v>
       </c>
       <c r="G76" t="n">
-        <v>0.846</v>
+        <v>1.04</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>8</v>
       </c>
       <c r="K76" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
         <v>1</v>
@@ -64494,7 +64494,7 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>19339</v>
+        <v>19340</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -64509,19 +64509,19 @@
         <v>2</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB76" t="n">
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
         <v>0</v>
@@ -64536,12 +64536,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mallorca19340</t>
+          <t>Real Sociedad19341</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -64550,45 +64550,45 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.251</v>
+        <v>2.354</v>
       </c>
       <c r="G77" t="n">
-        <v>1.04</v>
+        <v>0.462</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K77" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>3</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
         <v>1</v>
@@ -64597,7 +64597,7 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>19340</v>
+        <v>19341</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -64621,10 +64621,10 @@
         <v>0</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE77" t="n">
         <v>0</v>
@@ -64639,12 +64639,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Real Sociedad19341</t>
+          <t>Villarreal19333</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -64653,35 +64653,35 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.354</v>
+        <v>2.064</v>
       </c>
       <c r="G78" t="n">
-        <v>0.462</v>
+        <v>1.17</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K78" t="n">
         <v>9</v>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -64700,7 +64700,7 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>19341</v>
+        <v>19333</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -64715,16 +64715,16 @@
         <v>2</v>
       </c>
       <c r="Z78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB78" t="n">
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD78" t="n">
         <v>1</v>
@@ -64742,12 +64742,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Getafe19325</t>
+          <t>Cadiz19326</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -64756,54 +64756,54 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.99</v>
+        <v>1.643</v>
       </c>
       <c r="G79" t="n">
-        <v>0.432</v>
+        <v>0.599</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>3</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>19325</v>
+        <v>19326</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -64827,13 +64827,13 @@
         <v>0</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD79" t="n">
         <v>0</v>
       </c>
       <c r="AE79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -64845,12 +64845,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cadiz19326</t>
+          <t>Getafe19325</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -64859,54 +64859,54 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.643</v>
+        <v>2.99</v>
       </c>
       <c r="G80" t="n">
-        <v>0.599</v>
+        <v>0.432</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>3</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
-        <v>19326</v>
+        <v>19325</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -64930,13 +64930,13 @@
         <v>0</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -65033,7 +65033,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>313.9585938491782</v>
+        <v>314.9085330927546</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>314.0419271825115</v>
+        <v>314.9918664260879</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>314.9377605158449</v>
+        <v>315.8876997594213</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>323.9794271825115</v>
+        <v>324.9293664260879</v>
       </c>
       <c r="AD84" t="n">
         <v>1</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>326.0835938491782</v>
+        <v>327.0335330927546</v>
       </c>
       <c r="AD85" t="n">
         <v>1</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>335.9377605158449</v>
+        <v>336.8876997594213</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>338.0627605158449</v>
+        <v>339.0126997594213</v>
       </c>
       <c r="AD87" t="n">
         <v>1</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>339.1773438491782</v>
+        <v>340.1272830927546</v>
       </c>
       <c r="AD88" t="n">
         <v>1</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>339.2710938491782</v>
+        <v>340.2210330927546</v>
       </c>
       <c r="AD89" t="n">
         <v>1</v>
@@ -65960,7 +65960,7 @@
         <v>1</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>344.0419271825115</v>
+        <v>344.9918664260879</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -66234,7 +66234,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.229427182511574</v>
+        <v>4.179366426087963</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.135677182511574</v>
+        <v>5.085616426087963</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.04192718251158</v>
+        <v>17.99186642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>17.22942718251158</v>
+        <v>18.17936642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -66646,7 +66646,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.93776051584491</v>
+        <v>23.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.93776051584491</v>
+        <v>39.8876997594213</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>50.93776051584491</v>
+        <v>51.8876997594213</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.04192718251158</v>
+        <v>52.99186642608796</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>57.93776051584491</v>
+        <v>58.8876997594213</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.13567718251158</v>
+        <v>61.08561642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>66.04192718251157</v>
+        <v>66.99186642608797</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>71.93776051584491</v>
+        <v>72.8876997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.22942718251157</v>
+        <v>75.17936642608797</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>90.01067718251157</v>
+        <v>90.96061642608797</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>91.01067718251157</v>
+        <v>91.96061642608797</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>105.9169271825116</v>
+        <v>106.866866426088</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67882,7 +67882,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>106.0210938491782</v>
+        <v>106.9710330927546</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>109.0419271825116</v>
+        <v>109.991866426088</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>113.1356771825116</v>
+        <v>114.085616426088</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>113.9377605158449</v>
+        <v>114.8876997594213</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>122.1356771825116</v>
+        <v>123.085616426088</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>143.0419271825116</v>
+        <v>143.991866426088</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>144.0419271825116</v>
+        <v>144.991866426088</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>151.0419271825116</v>
+        <v>151.991866426088</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>158.2710938491782</v>
+        <v>159.2210330927547</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>164.9794271825116</v>
+        <v>165.929366426088</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>178.0835938491782</v>
+        <v>179.0335330927547</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>178.9794271825116</v>
+        <v>179.929366426088</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>188.0627605158449</v>
+        <v>189.0126997594213</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>192.9794271825116</v>
+        <v>193.929366426088</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69324,7 +69324,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>199.0835938491782</v>
+        <v>200.0335330927546</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.9377605158449</v>
+        <v>215.8876997594213</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>218.9585938491782</v>
+        <v>219.9085330927546</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>225.9585938491782</v>
+        <v>226.9085330927546</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69736,7 +69736,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>234.1460938491782</v>
+        <v>235.0960330927546</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>235.9585938491782</v>
+        <v>236.9085330927546</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>236.0419271825116</v>
+        <v>236.9918664260879</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>314.9377605158449</v>
+        <v>315.8876997594213</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>315.0419271825115</v>
+        <v>315.9918664260879</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>317.9794271825115</v>
+        <v>318.9293664260879</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -70457,7 +70457,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>325.0835938491782</v>
+        <v>326.0335330927546</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -70560,7 +70560,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>325.1773438491782</v>
+        <v>326.1272830927546</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -70663,7 +70663,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>325.2710938491782</v>
+        <v>326.2210330927546</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>338.9794271825115</v>
+        <v>339.9293664260879</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>339.0835938491782</v>
+        <v>340.0335330927546</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70972,7 +70972,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>340.1773438491782</v>
+        <v>341.1272830927546</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.93776051584491</v>
+        <v>18.8876997594213</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.9377605158449</v>
+        <v>26.8876997594213</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>51.93776051584491</v>
+        <v>52.8876997594213</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>60.93776051584491</v>
+        <v>61.8876997594213</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>73.13567718251157</v>
+        <v>74.08561642608797</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>91.01067718251157</v>
+        <v>91.96061642608797</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.0210938491782</v>
+        <v>105.9710330927546</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>106.9377605158449</v>
+        <v>107.8876997594213</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>115.2294271825116</v>
+        <v>116.179366426088</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.0419271825116</v>
+        <v>123.991866426088</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>129.9377605158449</v>
+        <v>130.8876997594213</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>143.1356771825116</v>
+        <v>144.085616426088</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>156.9377605158449</v>
+        <v>157.8876997594213</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>164.1773438491782</v>
+        <v>165.1272830927547</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>179.9794271825116</v>
+        <v>180.929366426088</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>184.9794271825116</v>
+        <v>185.929366426088</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>193.2710938491782</v>
+        <v>194.2210330927546</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>200.2710938491782</v>
+        <v>201.2210330927546</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>227.0419271825116</v>
+        <v>227.9918664260879</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>232.9585938491782</v>
+        <v>233.9085330927546</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -73221,12 +73221,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Barcelona19324</t>
+          <t>Athletic Club19322</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -73235,54 +73235,54 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.414</v>
+        <v>2.978</v>
       </c>
       <c r="G22" t="n">
-        <v>0.126</v>
+        <v>0.769</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>28</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>19324</v>
+        <v>19322</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -73297,16 +73297,16 @@
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -73324,12 +73324,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Athletic Club19322</t>
+          <t>Barcelona19324</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -73338,54 +73338,54 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.978</v>
+        <v>4.414</v>
       </c>
       <c r="G23" t="n">
-        <v>0.769</v>
+        <v>0.126</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>28</v>
       </c>
       <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
         <v>6</v>
       </c>
-      <c r="L23" t="n">
-        <v>3</v>
-      </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>19322</v>
+        <v>19324</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -73400,16 +73400,16 @@
         <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.0419271825115</v>
+        <v>335.9918664260879</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>335.9377605158449</v>
+        <v>336.8876997594213</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>340.0835938491782</v>
+        <v>341.0335330927546</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>343.0419271825115</v>
+        <v>343.9918664260879</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -74095,7 +74095,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.041927182511574</v>
+        <v>4.991866426087963</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -74198,7 +74198,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.937760515844907</v>
+        <v>5.887699759421296</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -74301,7 +74301,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.09401051584491</v>
+        <v>18.0439497594213</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.22942718251158</v>
+        <v>19.17936642608796</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -74507,7 +74507,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.93776051584491</v>
+        <v>19.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>29.9377605158449</v>
+        <v>30.8876997594213</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.22942718251157</v>
+        <v>32.17936642608796</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.04192718251157</v>
+        <v>39.99186642608796</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>44.93776051584491</v>
+        <v>45.8876997594213</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.13567718251157</v>
+        <v>47.08561642608796</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>59.22942718251158</v>
+        <v>60.17936642608796</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>60.22942718251158</v>
+        <v>61.17936642608796</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>64.93776051584491</v>
+        <v>65.8876997594213</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>74.13567718251157</v>
+        <v>75.08561642608797</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>74.93776051584491</v>
+        <v>75.8876997594213</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>80.93776051584491</v>
+        <v>81.8876997594213</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>90.10442718251157</v>
+        <v>91.05436642608797</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>92.01067718251157</v>
+        <v>92.96061642608797</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>108.0419271825116</v>
+        <v>108.991866426088</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>122.2294271825116</v>
+        <v>123.179366426088</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>125.9377605158449</v>
+        <v>126.8876997594213</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>130.0419271825116</v>
+        <v>130.991866426088</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>130.9377605158449</v>
+        <v>131.8876997594213</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>148.9377605158449</v>
+        <v>149.8876997594213</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.1356771825116</v>
+        <v>151.085616426088</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>150.2294271825116</v>
+        <v>151.179366426088</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>151.1356771825116</v>
+        <v>152.085616426088</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>162.9794271825116</v>
+        <v>163.929366426088</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>164.0835938491782</v>
+        <v>165.0335330927547</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>165.2710938491782</v>
+        <v>166.2210330927547</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>165.9794271825116</v>
+        <v>166.929366426088</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>192.0835938491782</v>
+        <v>193.0335330927547</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>192.0835938491782</v>
+        <v>193.0335330927547</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.1773438491782</v>
+        <v>200.1272830927546</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>214.2710938491782</v>
+        <v>215.2210330927546</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>219.0419271825116</v>
+        <v>219.9918664260879</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>221.0627605158449</v>
+        <v>222.0126997594213</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>233.0419271825116</v>
+        <v>233.9918664260879</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>235.0419271825116</v>
+        <v>235.9918664260879</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>315.0419271825115</v>
+        <v>315.9918664260879</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -78318,7 +78318,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>316.0419271825115</v>
+        <v>316.9918664260879</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>319.0835938491782</v>
+        <v>320.0335330927546</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>319.9794271825115</v>
+        <v>320.9293664260879</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>326.1773438491782</v>
+        <v>327.1272830927546</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>326.9794271825115</v>
+        <v>327.9293664260879</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>342.0419271825115</v>
+        <v>342.9918664260879</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -78936,7 +78936,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>342.0419271825115</v>
+        <v>342.9918664260879</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -79039,7 +79039,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>343.0419271825115</v>
+        <v>343.9918664260879</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.13567718251157</v>
+        <v>33.08561642608796</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.93776051584491</v>
+        <v>33.8876997594213</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.13567718251157</v>
+        <v>46.08561642608796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>67.93776051584491</v>
+        <v>68.8876997594213</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79725,7 +79725,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>81.93776051584491</v>
+        <v>82.8876997594213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79828,7 +79828,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>91.10442718251157</v>
+        <v>92.05436642608797</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>108.2294271825116</v>
+        <v>109.179366426088</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>109.2294271825116</v>
+        <v>110.179366426088</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>120.9377605158449</v>
+        <v>121.8876997594213</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>185.2710938491782</v>
+        <v>186.2210330927547</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80343,7 +80343,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>186.1773438491782</v>
+        <v>187.1272830927547</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>188.0627605158449</v>
+        <v>189.0126997594213</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>190.0627605158449</v>
+        <v>191.0126997594213</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>200.0835938491782</v>
+        <v>201.0335330927546</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>200.9794271825116</v>
+        <v>201.9293664260879</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>221.0419271825116</v>
+        <v>221.9918664260879</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -80876,12 +80876,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Elche19336</t>
+          <t>Espanyol19337</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -80890,25 +80890,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.534</v>
+        <v>0.502</v>
       </c>
       <c r="G18" t="n">
-        <v>2.23</v>
+        <v>2.035</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -80918,7 +80918,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -80937,7 +80937,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>19336</v>
+        <v>19337</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80979,12 +80979,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Espanyol19337</t>
+          <t>Elche19336</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -80993,25 +80993,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.502</v>
+        <v>1.534</v>
       </c>
       <c r="G19" t="n">
-        <v>2.035</v>
+        <v>2.23</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -81021,7 +81021,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -81040,7 +81040,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>19337</v>
+        <v>19336</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>304.0210938491782</v>
+        <v>304.9710330927546</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>311.0627605158449</v>
+        <v>312.0126997594213</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81270,7 +81270,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>318.2710938491782</v>
+        <v>319.2210330927546</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>319.0835938491782</v>
+        <v>320.0335330927546</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>334.9377605158449</v>
+        <v>335.8876997594213</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.0419271825115</v>
+        <v>335.9918664260879</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>337.0419271825115</v>
+        <v>337.9918664260879</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>342.9377605158449</v>
+        <v>343.8876997594213</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>

--- a/EDA_DF/LaLiga_Rank_ML.xlsx
+++ b/EDA_DF/LaLiga_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.8876997594213</v>
+        <v>17.97316332366898</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>31.8876997594213</v>
+        <v>31.97316332366898</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>44.8876997594213</v>
+        <v>44.97316332366898</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.99186642608796</v>
+        <v>54.07732999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>60.8876997594213</v>
+        <v>60.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.99186642608797</v>
+        <v>68.07732999033566</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.99186642608797</v>
+        <v>82.07732999033566</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>108.8876997594213</v>
+        <v>108.973163323669</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>115.8876997594213</v>
+        <v>115.973163323669</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>143.8876997594213</v>
+        <v>143.973163323669</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>159.1272830927547</v>
+        <v>159.2127466570023</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>179.1272830927547</v>
+        <v>179.2127466570023</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>187.0335330927547</v>
+        <v>187.1189966570023</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>192.929366426088</v>
+        <v>193.0148299903356</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>199.9293664260879</v>
+        <v>200.0148299903357</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>235.9085330927546</v>
+        <v>235.9939966570023</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>319.9293664260879</v>
+        <v>320.0148299903357</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>320.2210330927546</v>
+        <v>320.3064966570024</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>344.9918664260879</v>
+        <v>345.0773299903357</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.8876997594213</v>
+        <v>17.97316332366898</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>31.8876997594213</v>
+        <v>31.97316332366898</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>44.8876997594213</v>
+        <v>44.97316332366898</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.99186642608796</v>
+        <v>54.07732999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>60.8876997594213</v>
+        <v>60.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.99186642608797</v>
+        <v>68.07732999033566</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.99186642608797</v>
+        <v>82.07732999033566</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>108.8876997594213</v>
+        <v>108.973163323669</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>115.8876997594213</v>
+        <v>115.973163323669</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>143.8876997594213</v>
+        <v>143.973163323669</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>159.1272830927547</v>
+        <v>159.2127466570023</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>179.1272830927547</v>
+        <v>179.2127466570023</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>187.0335330927547</v>
+        <v>187.1189966570023</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>192.929366426088</v>
+        <v>193.0148299903356</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>199.9293664260879</v>
+        <v>200.0148299903357</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>235.9085330927546</v>
+        <v>235.9939966570023</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>319.9293664260879</v>
+        <v>320.0148299903357</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>320.2210330927546</v>
+        <v>320.3064966570024</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>344.9918664260879</v>
+        <v>345.0773299903357</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.887699759421297</v>
+        <v>3.973163323668982</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.085616426087963</v>
+        <v>4.171079990335649</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.887699759421296</v>
+        <v>4.973163323668982</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.99186642608796</v>
+        <v>25.07732999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.8876997594213</v>
+        <v>25.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.08561642608796</v>
+        <v>32.17107999033565</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>37.8876997594213</v>
+        <v>37.97316332366898</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>38.8876997594213</v>
+        <v>38.97316332366898</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>40.08561642608796</v>
+        <v>40.17107999033565</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>47.17936642608796</v>
+        <v>47.26482999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>59.8876997594213</v>
+        <v>59.97316332366898</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>63.8876997594213</v>
+        <v>63.97316332366898</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>63.97103309275463</v>
+        <v>64.05649665700231</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>66.8876997594213</v>
+        <v>66.97316332366898</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>73.8876997594213</v>
+        <v>73.97316332366898</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>91.86686642608797</v>
+        <v>91.95232999033566</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.1272830927546</v>
+        <v>103.2127466570023</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>105.866866426088</v>
+        <v>105.9523299903356</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>106.866866426088</v>
+        <v>106.9523299903356</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>110.085616426088</v>
+        <v>110.1710799903356</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>122.8876997594213</v>
+        <v>122.973163323669</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>124.085616426088</v>
+        <v>124.1710799903356</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>124.179366426088</v>
+        <v>124.2648299903356</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>128.8876997594213</v>
+        <v>128.973163323669</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>144.8876997594213</v>
+        <v>144.973163323669</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>145.8876997594213</v>
+        <v>145.973163323669</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>150.8876997594213</v>
+        <v>150.973163323669</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>157.991866426088</v>
+        <v>158.0773299903356</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>159.929366426088</v>
+        <v>160.0148299903356</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>164.929366426088</v>
+        <v>165.0148299903356</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>180.1272830927547</v>
+        <v>180.2127466570023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>187.929366426088</v>
+        <v>188.0148299903356</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.0126997594213</v>
+        <v>190.098163323669</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>190.0126997594213</v>
+        <v>190.098163323669</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>194.0335330927547</v>
+        <v>194.1189966570023</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>200.9293664260879</v>
+        <v>201.0148299903357</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>214.2210330927546</v>
+        <v>214.3064966570023</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>215.1272830927546</v>
+        <v>215.2127466570023</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>220.9085330927546</v>
+        <v>220.9939966570023</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>228.0751997594213</v>
+        <v>228.160663323669</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>315.9918664260879</v>
+        <v>316.0773299903357</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>319.1272830927546</v>
+        <v>319.2127466570024</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>320.1272830927546</v>
+        <v>320.2127466570024</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>326.9293664260879</v>
+        <v>327.0148299903357</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>335.8876997594213</v>
+        <v>335.973163323669</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>337.9918664260879</v>
+        <v>338.0773299903357</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>340.9293664260879</v>
+        <v>341.0148299903357</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>342.8876997594213</v>
+        <v>342.973163323669</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.8876997594213</v>
+        <v>18.97316332366898</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.8876997594213</v>
+        <v>26.97316332366898</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>52.8876997594213</v>
+        <v>52.97316332366898</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>61.8876997594213</v>
+        <v>61.97316332366898</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>74.08561642608797</v>
+        <v>74.17107999033566</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>91.96061642608797</v>
+        <v>92.04607999033566</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.9710330927546</v>
+        <v>106.0564966570023</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>107.8876997594213</v>
+        <v>107.973163323669</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.179366426088</v>
+        <v>116.2648299903356</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.991866426088</v>
+        <v>124.0773299903356</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.8876997594213</v>
+        <v>130.973163323669</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.085616426088</v>
+        <v>144.1710799903356</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.8876997594213</v>
+        <v>157.973163323669</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.1272830927547</v>
+        <v>165.2127466570023</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>180.929366426088</v>
+        <v>181.0148299903356</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>185.929366426088</v>
+        <v>186.0148299903356</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>194.2210330927546</v>
+        <v>194.3064966570023</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>201.2210330927546</v>
+        <v>201.3064966570023</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>227.9918664260879</v>
+        <v>228.0773299903357</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>233.9085330927546</v>
+        <v>233.9939966570023</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.9918664260879</v>
+        <v>336.0773299903357</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>336.8876997594213</v>
+        <v>336.973163323669</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>341.0335330927546</v>
+        <v>341.1189966570024</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>343.9918664260879</v>
+        <v>344.0773299903357</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.991866426087963</v>
+        <v>4.077329990335649</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.99186642608796</v>
+        <v>19.07732999033565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.08561642608796</v>
+        <v>19.17107999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.8876997594213</v>
+        <v>24.97316332366898</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.99186642608796</v>
+        <v>32.07732999033565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.8876997594213</v>
+        <v>32.97316332366898</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>40.8876997594213</v>
+        <v>40.97316332366898</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.99186642608796</v>
+        <v>46.07732999033565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.17936642608796</v>
+        <v>54.26482999033565</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.99186642608796</v>
+        <v>61.07732999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>62.8876997594213</v>
+        <v>62.97316332366898</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.08561642608797</v>
+        <v>68.17107999033566</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>73.99186642608797</v>
+        <v>74.07732999033566</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -14672,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>82.17936642608797</v>
+        <v>82.26482999033566</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>90.86686642608797</v>
+        <v>90.95232999033566</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>92.86686642608797</v>
+        <v>92.95232999033566</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>104.866866426088</v>
+        <v>104.9523299903356</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.9710330927546</v>
+        <v>105.0564966570023</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>104.9710330927546</v>
+        <v>105.0564966570023</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>109.8876997594213</v>
+        <v>109.973163323669</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>116.991866426088</v>
+        <v>117.0773299903356</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>117.085616426088</v>
+        <v>117.1710799903356</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.8876997594213</v>
+        <v>123.973163323669</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>129.991866426088</v>
+        <v>130.0773299903356</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>151.8876997594213</v>
+        <v>151.973163323669</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>152.179366426088</v>
+        <v>152.2648299903356</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>180.2210330927547</v>
+        <v>180.3064966570023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>187.2210330927547</v>
+        <v>187.3064966570023</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>189.9085330927547</v>
+        <v>189.9939966570023</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>190.0126997594213</v>
+        <v>190.098163323669</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>190.9085330927547</v>
+        <v>190.9939966570023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>213.9293664260879</v>
+        <v>214.0148299903357</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -16629,7 +16629,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>215.9918664260879</v>
+        <v>216.0773299903357</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>221.0751997594213</v>
+        <v>221.160663323669</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>222.9918664260879</v>
+        <v>223.0773299903357</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>229.9918664260879</v>
+        <v>230.0773299903357</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>234.9085330927546</v>
+        <v>234.9939966570023</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>236.0960330927546</v>
+        <v>236.1814966570023</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.0335330927546</v>
+        <v>319.1189966570024</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>327.2210330927546</v>
+        <v>327.3064966570024</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.9918664260879</v>
+        <v>337.0773299903357</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>337.8876997594213</v>
+        <v>337.973163323669</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>341.9293664260879</v>
+        <v>342.0148299903357</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>344.8876997594213</v>
+        <v>344.973163323669</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.929366426087963</v>
+        <v>3.014829990335648</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.179366426087963</v>
+        <v>5.264829990335649</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.08561642608796</v>
+        <v>18.17107999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.08561642608796</v>
+        <v>25.17107999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.17936642608796</v>
+        <v>25.26482999033565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>26.08561642608796</v>
+        <v>26.17107999033565</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.17936642608796</v>
+        <v>26.26482999033565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.99186642608796</v>
+        <v>33.07732999033565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.99186642608796</v>
+        <v>39.07732999033565</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.08561642608796</v>
+        <v>39.17107999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.17936642608796</v>
+        <v>39.26482999033565</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.8876997594213</v>
+        <v>46.97316332366898</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>47.8876997594213</v>
+        <v>47.97316332366898</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.08561642608796</v>
+        <v>53.17107999033565</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.17936642608796</v>
+        <v>53.26482999033565</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>53.8876997594213</v>
+        <v>53.97316332366898</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>54.08561642608796</v>
+        <v>54.17107999033565</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>54.8876997594213</v>
+        <v>54.97316332366898</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>59.99186642608796</v>
+        <v>60.07732999033565</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>60.08561642608796</v>
+        <v>60.17107999033565</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>67.08561642608797</v>
+        <v>67.17107999033566</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>67.8876997594213</v>
+        <v>67.97316332366898</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>68.17936642608797</v>
+        <v>68.26482999033566</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>74.17936642608797</v>
+        <v>74.26482999033566</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>74.99186642608797</v>
+        <v>75.07732999033566</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>81.08561642608797</v>
+        <v>81.17107999033566</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>82.08561642608797</v>
+        <v>82.17107999033566</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>93.05436642608797</v>
+        <v>93.13982999033566</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>104.866866426088</v>
+        <v>104.9523299903356</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>105.866866426088</v>
+        <v>105.9523299903356</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>109.085616426088</v>
+        <v>109.1710799903356</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>110.8876997594213</v>
+        <v>110.973163323669</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>115.991866426088</v>
+        <v>116.0773299903356</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>116.8876997594213</v>
+        <v>116.973163323669</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>117.179366426088</v>
+        <v>117.2648299903356</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>117.8876997594213</v>
+        <v>117.973163323669</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>124.929366426088</v>
+        <v>125.0148299903356</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>129.8876997594213</v>
+        <v>129.973163323669</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>130.085616426088</v>
+        <v>130.1710799903356</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>130.179366426088</v>
+        <v>130.2648299903356</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>131.085616426088</v>
+        <v>131.1710799903356</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>144.991866426088</v>
+        <v>145.0773299903356</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>150.991866426088</v>
+        <v>151.0773299903356</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -22568,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>152.929366426088</v>
+        <v>153.0148299903356</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>158.179366426088</v>
+        <v>158.2648299903356</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>158.929366426088</v>
+        <v>159.0148299903356</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>159.0335330927547</v>
+        <v>159.1189966570023</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>165.2210330927547</v>
+        <v>165.3064966570023</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>166.1272830927547</v>
+        <v>166.2127466570023</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>179.0335330927547</v>
+        <v>179.1189966570023</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>179.2210330927547</v>
+        <v>179.3064966570023</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>180.0335330927547</v>
+        <v>180.1189966570023</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>184.929366426088</v>
+        <v>185.0148299903356</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>185.929366426088</v>
+        <v>186.0148299903356</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>186.1272830927547</v>
+        <v>186.2127466570023</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>186.929366426088</v>
+        <v>187.0148299903356</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>188.9085330927547</v>
+        <v>188.9939966570023</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>189.9085330927547</v>
+        <v>189.9939966570023</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>193.2210330927547</v>
+        <v>193.3064966570023</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>194.1272830927547</v>
+        <v>194.2127466570023</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>194.9293664260879</v>
+        <v>195.0148299903357</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>200.2210330927546</v>
+        <v>200.3064966570023</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>201.1272830927546</v>
+        <v>201.2127466570023</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>214.1272830927546</v>
+        <v>214.2127466570023</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>214.9293664260879</v>
+        <v>215.0148299903357</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>215.0335330927546</v>
+        <v>215.1189966570023</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>220.9918664260879</v>
+        <v>221.0773299903357</v>
       </c>
       <c r="AD68" t="n">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>227.0126997594213</v>
+        <v>227.098163323669</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>227.9085330927546</v>
+        <v>227.9939966570023</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>228.9085330927546</v>
+        <v>228.9939966570023</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>229.0960330927546</v>
+        <v>229.1814966570023</v>
       </c>
       <c r="AD72" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>229.9085330927546</v>
+        <v>229.9939966570023</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>234.9918664260879</v>
+        <v>235.0773299903357</v>
       </c>
       <c r="AD74" t="n">
         <v>1</v>
@@ -25573,12 +25573,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rayo Vallecano19340</t>
+          <t>Atletico Madrid19333</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -25587,42 +25587,42 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="G75" t="n">
-        <v>2.251</v>
+        <v>2.064</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K75" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>19340</v>
+        <v>19333</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -25652,19 +25652,19 @@
         <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD75" t="n">
         <v>0</v>
       </c>
       <c r="AE75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD76" t="n">
         <v>0</v>
@@ -25779,12 +25779,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sevilla19341</t>
+          <t>Rayo Vallecano19340</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -25793,42 +25793,42 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.462</v>
+        <v>1.04</v>
       </c>
       <c r="G77" t="n">
-        <v>2.354</v>
+        <v>2.251</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K77" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>1</v>
       </c>
       <c r="U77" t="n">
-        <v>19341</v>
+        <v>19340</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -25864,13 +25864,13 @@
         <v>1</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -25882,12 +25882,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Atletico Madrid19333</t>
+          <t>Sevilla19341</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -25896,13 +25896,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.17</v>
+        <v>0.462</v>
       </c>
       <c r="G78" t="n">
-        <v>2.064</v>
+        <v>2.354</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -25911,20 +25911,20 @@
         <v>9</v>
       </c>
       <c r="K78" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -25943,7 +25943,7 @@
         <v>1</v>
       </c>
       <c r="U78" t="n">
-        <v>19333</v>
+        <v>19341</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -25961,13 +25961,13 @@
         <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD78" t="n">
         <v>0</v>
@@ -25985,12 +25985,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Celta Vigo19326</t>
+          <t>Osasuna19325</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -25999,54 +25999,54 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.599</v>
+        <v>0.432</v>
       </c>
       <c r="G79" t="n">
-        <v>1.643</v>
+        <v>2.99</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K79" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>19326</v>
+        <v>19325</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -26070,10 +26070,10 @@
         <v>1</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE79" t="n">
         <v>0</v>
@@ -26088,12 +26088,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Osasuna19325</t>
+          <t>Celta Vigo19326</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -26102,54 +26102,54 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.432</v>
+        <v>0.599</v>
       </c>
       <c r="G80" t="n">
-        <v>2.99</v>
+        <v>1.643</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K80" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
-        <v>19325</v>
+        <v>19326</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -26173,10 +26173,10 @@
         <v>1</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE80" t="n">
         <v>0</v>
@@ -26276,7 +26276,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>314.9085330927546</v>
+        <v>314.9939966570024</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>314.9918664260879</v>
+        <v>315.0773299903357</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>315.8876997594213</v>
+        <v>315.973163323669</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>324.9293664260879</v>
+        <v>325.0148299903357</v>
       </c>
       <c r="AD84" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>327.0335330927546</v>
+        <v>327.1189966570024</v>
       </c>
       <c r="AD85" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>336.8876997594213</v>
+        <v>336.973163323669</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>339.0126997594213</v>
+        <v>339.098163323669</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>340.1272830927546</v>
+        <v>340.2127466570024</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>340.2210330927546</v>
+        <v>340.3064966570024</v>
       </c>
       <c r="AD89" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>344.9918664260879</v>
+        <v>345.0773299903357</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.991866426087963</v>
+        <v>5.077329990335649</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.887699759421296</v>
+        <v>5.973163323668982</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.0439497594213</v>
+        <v>18.12941332366898</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.17936642608796</v>
+        <v>19.26482999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>19.8876997594213</v>
+        <v>19.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>30.8876997594213</v>
+        <v>30.97316332366898</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.17936642608796</v>
+        <v>32.26482999033565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.99186642608796</v>
+        <v>40.07732999033565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>45.8876997594213</v>
+        <v>45.97316332366898</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>47.08561642608796</v>
+        <v>47.17107999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.17936642608796</v>
+        <v>60.26482999033565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -28610,7 +28610,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>61.17936642608796</v>
+        <v>61.26482999033565</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -28713,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>65.8876997594213</v>
+        <v>65.97316332366898</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>75.08561642608797</v>
+        <v>75.17107999033566</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -28919,7 +28919,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>75.8876997594213</v>
+        <v>75.97316332366898</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>81.8876997594213</v>
+        <v>81.97316332366898</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>91.05436642608797</v>
+        <v>91.13982999033566</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>92.96061642608797</v>
+        <v>93.04607999033566</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>108.991866426088</v>
+        <v>109.0773299903356</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>123.179366426088</v>
+        <v>123.2648299903356</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>126.8876997594213</v>
+        <v>126.973163323669</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>130.991866426088</v>
+        <v>131.0773299903356</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>131.8876997594213</v>
+        <v>131.973163323669</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>149.8876997594213</v>
+        <v>149.973163323669</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>151.085616426088</v>
+        <v>151.1710799903356</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.179366426088</v>
+        <v>151.2648299903356</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>152.085616426088</v>
+        <v>152.1710799903356</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>163.929366426088</v>
+        <v>164.0148299903356</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.0335330927547</v>
+        <v>165.1189966570023</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>166.2210330927547</v>
+        <v>166.3064966570023</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>166.929366426088</v>
+        <v>167.0148299903356</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>193.0335330927547</v>
+        <v>193.1189966570023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>193.0335330927547</v>
+        <v>193.1189966570023</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>200.1272830927546</v>
+        <v>200.2127466570023</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.2210330927546</v>
+        <v>215.3064966570023</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>219.9918664260879</v>
+        <v>220.0773299903357</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -31185,7 +31185,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>222.0126997594213</v>
+        <v>222.098163323669</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>233.9918664260879</v>
+        <v>234.0773299903357</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>235.9918664260879</v>
+        <v>236.0773299903357</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>315.9918664260879</v>
+        <v>316.0773299903357</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>316.9918664260879</v>
+        <v>317.0773299903357</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>320.0335330927546</v>
+        <v>320.1189966570024</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>320.9293664260879</v>
+        <v>321.0148299903357</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>327.1272830927546</v>
+        <v>327.2127466570024</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>327.9293664260879</v>
+        <v>328.0148299903357</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>342.9918664260879</v>
+        <v>343.0773299903357</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>342.9918664260879</v>
+        <v>343.0773299903357</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>343.9918664260879</v>
+        <v>344.0773299903357</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.99186642608796</v>
+        <v>26.07732999033565</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.17936642608796</v>
+        <v>33.26482999033565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -32901,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.17936642608796</v>
+        <v>46.26482999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.99186642608796</v>
+        <v>47.07732999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>67.17936642608797</v>
+        <v>67.26482999033566</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -33210,7 +33210,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>74.8876997594213</v>
+        <v>74.97316332366898</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.17936642608797</v>
+        <v>81.26482999033566</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -33416,7 +33416,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>122.991866426088</v>
+        <v>123.0773299903356</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>131.179366426088</v>
+        <v>131.2648299903356</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.085616426088</v>
+        <v>145.1710799903356</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>145.179366426088</v>
+        <v>145.2648299903356</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>156.8876997594213</v>
+        <v>156.973163323669</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.085616426088</v>
+        <v>158.1710799903356</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>166.0335330927547</v>
+        <v>166.1189966570023</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>178.929366426088</v>
+        <v>179.0148299903356</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>193.1272830927547</v>
+        <v>193.2127466570023</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>198.9293664260879</v>
+        <v>199.0148299903357</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>221.9085330927546</v>
+        <v>221.9939966570023</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>222.9085330927546</v>
+        <v>222.9939966570023</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>228.9918664260879</v>
+        <v>229.0773299903357</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -34858,7 +34858,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>313.0126997594213</v>
+        <v>313.098163323669</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -35064,7 +35064,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>316.8876997594213</v>
+        <v>316.973163323669</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>316.9918664260879</v>
+        <v>317.0773299903357</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>325.9293664260879</v>
+        <v>326.0148299903357</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>338.9293664260879</v>
+        <v>339.0148299903357</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>343.8876997594213</v>
+        <v>343.973163323669</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>348.0335330927546</v>
+        <v>348.1189966570024</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.179366426087963</v>
+        <v>4.264829990335649</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -35956,7 +35956,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.085616426087963</v>
+        <v>5.171079990335649</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.99186642608796</v>
+        <v>18.07732999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -36162,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.17936642608796</v>
+        <v>18.26482999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>23.8876997594213</v>
+        <v>23.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -36368,7 +36368,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.8876997594213</v>
+        <v>39.97316332366898</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -36471,7 +36471,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>51.8876997594213</v>
+        <v>51.97316332366898</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -36574,7 +36574,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.99186642608796</v>
+        <v>53.07732999033565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>58.8876997594213</v>
+        <v>58.97316332366898</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.08561642608796</v>
+        <v>61.17107999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>66.99186642608797</v>
+        <v>67.07732999033566</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>72.8876997594213</v>
+        <v>72.97316332366898</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>75.17936642608797</v>
+        <v>75.26482999033566</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -37192,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>90.96061642608797</v>
+        <v>91.04607999033566</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -37295,7 +37295,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>91.96061642608797</v>
+        <v>92.04607999033566</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -37398,7 +37398,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>106.866866426088</v>
+        <v>106.9523299903356</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -37501,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>106.9710330927546</v>
+        <v>107.0564966570023</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>109.991866426088</v>
+        <v>110.0773299903356</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>114.085616426088</v>
+        <v>114.1710799903356</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>114.8876997594213</v>
+        <v>114.973163323669</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>123.085616426088</v>
+        <v>123.1710799903356</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>143.991866426088</v>
+        <v>144.0773299903356</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>144.991866426088</v>
+        <v>145.0773299903356</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>151.991866426088</v>
+        <v>152.0773299903356</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>159.2210330927547</v>
+        <v>159.3064966570023</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>165.929366426088</v>
+        <v>166.0148299903356</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>179.0335330927547</v>
+        <v>179.1189966570023</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -38634,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>179.929366426088</v>
+        <v>180.0148299903356</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>189.0126997594213</v>
+        <v>189.098163323669</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -38840,7 +38840,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>193.929366426088</v>
+        <v>194.0148299903356</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>200.0335330927546</v>
+        <v>200.1189966570023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>215.8876997594213</v>
+        <v>215.973163323669</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>219.9085330927546</v>
+        <v>219.9939966570023</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>226.9085330927546</v>
+        <v>226.9939966570023</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>235.0960330927546</v>
+        <v>235.1814966570023</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>236.9085330927546</v>
+        <v>236.9939966570023</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>236.9918664260879</v>
+        <v>237.0773299903357</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>315.8876997594213</v>
+        <v>315.973163323669</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>315.9918664260879</v>
+        <v>316.0773299903357</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>318.9293664260879</v>
+        <v>319.0148299903357</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>326.0335330927546</v>
+        <v>326.1189966570024</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -40179,7 +40179,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>326.1272830927546</v>
+        <v>326.2127466570024</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>326.2210330927546</v>
+        <v>326.3064966570024</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>339.9293664260879</v>
+        <v>340.0148299903357</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>340.0335330927546</v>
+        <v>340.1189966570024</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>341.1272830927546</v>
+        <v>341.2127466570024</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -40865,7 +40865,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>33.08561642608796</v>
+        <v>33.17107999033565</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -40968,7 +40968,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.8876997594213</v>
+        <v>33.97316332366898</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -41071,7 +41071,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.08561642608796</v>
+        <v>46.17107999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -41174,7 +41174,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>68.8876997594213</v>
+        <v>68.97316332366898</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -41277,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>82.8876997594213</v>
+        <v>82.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -41380,7 +41380,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>92.05436642608797</v>
+        <v>92.13982999033566</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -41483,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>109.179366426088</v>
+        <v>109.2648299903356</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -41586,7 +41586,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>110.179366426088</v>
+        <v>110.2648299903356</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -41689,7 +41689,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>121.8876997594213</v>
+        <v>121.973163323669</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>186.2210330927547</v>
+        <v>186.3064966570023</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -41895,7 +41895,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>187.1272830927547</v>
+        <v>187.2127466570023</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41998,7 +41998,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>189.0126997594213</v>
+        <v>189.098163323669</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>191.0126997594213</v>
+        <v>191.098163323669</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>201.0335330927546</v>
+        <v>201.1189966570023</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -42307,7 +42307,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>201.9293664260879</v>
+        <v>202.0148299903357</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -42410,7 +42410,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>221.9918664260879</v>
+        <v>222.0773299903357</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -42428,12 +42428,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Almeria19337</t>
+          <t>Cadiz19336</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -42442,19 +42442,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.035</v>
+        <v>2.23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.502</v>
+        <v>1.534</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" t="n">
         <v>12</v>
@@ -42463,14 +42463,14 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -42489,7 +42489,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>19337</v>
+        <v>19336</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -42531,12 +42531,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cadiz19336</t>
+          <t>Almeria19337</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -42545,19 +42545,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.23</v>
+        <v>2.035</v>
       </c>
       <c r="G19" t="n">
-        <v>1.534</v>
+        <v>0.502</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
         <v>12</v>
@@ -42566,14 +42566,14 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -42592,7 +42592,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>19336</v>
+        <v>19337</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>319.2210330927546</v>
+        <v>319.3064966570024</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>320.0335330927546</v>
+        <v>320.1189966570024</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>335.8876997594213</v>
+        <v>335.973163323669</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -43131,7 +43131,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.9918664260879</v>
+        <v>336.0773299903357</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>337.9918664260879</v>
+        <v>338.0773299903357</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>343.8876997594213</v>
+        <v>343.973163323669</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -43611,7 +43611,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.991866426087963</v>
+        <v>4.077329990335649</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -43714,7 +43714,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.99186642608796</v>
+        <v>19.07732999033565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -43817,7 +43817,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.08561642608796</v>
+        <v>19.17107999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -43920,7 +43920,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.8876997594213</v>
+        <v>24.97316332366898</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -44023,7 +44023,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.99186642608796</v>
+        <v>32.07732999033565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -44126,7 +44126,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.8876997594213</v>
+        <v>32.97316332366898</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -44229,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>40.8876997594213</v>
+        <v>40.97316332366898</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.99186642608796</v>
+        <v>46.07732999033565</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -44435,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.17936642608796</v>
+        <v>54.26482999033565</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.99186642608796</v>
+        <v>61.07732999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>62.8876997594213</v>
+        <v>62.97316332366898</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -44744,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.08561642608797</v>
+        <v>68.17107999033566</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -44847,7 +44847,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>73.99186642608797</v>
+        <v>74.07732999033566</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -44950,7 +44950,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>82.17936642608797</v>
+        <v>82.26482999033566</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -45053,7 +45053,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>90.86686642608797</v>
+        <v>90.95232999033566</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -45156,7 +45156,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>92.86686642608797</v>
+        <v>92.95232999033566</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -45259,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>104.866866426088</v>
+        <v>104.9523299903356</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>104.9710330927546</v>
+        <v>105.0564966570023</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -45465,7 +45465,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>104.9710330927546</v>
+        <v>105.0564966570023</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>109.8876997594213</v>
+        <v>109.973163323669</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>116.991866426088</v>
+        <v>117.0773299903356</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>117.085616426088</v>
+        <v>117.1710799903356</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.8876997594213</v>
+        <v>123.973163323669</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>129.991866426088</v>
+        <v>130.0773299903356</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>151.8876997594213</v>
+        <v>151.973163323669</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>152.179366426088</v>
+        <v>152.2648299903356</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>180.2210330927547</v>
+        <v>180.3064966570023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>187.2210330927547</v>
+        <v>187.3064966570023</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>189.9085330927547</v>
+        <v>189.9939966570023</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>190.0126997594213</v>
+        <v>190.098163323669</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>190.9085330927547</v>
+        <v>190.9939966570023</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>213.9293664260879</v>
+        <v>214.0148299903357</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>215.9918664260879</v>
+        <v>216.0773299903357</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>221.0751997594213</v>
+        <v>221.160663323669</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>222.9918664260879</v>
+        <v>223.0773299903357</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>229.9918664260879</v>
+        <v>230.0773299903357</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>234.9085330927546</v>
+        <v>234.9939966570023</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>236.0960330927546</v>
+        <v>236.1814966570023</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.0335330927546</v>
+        <v>319.1189966570024</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>327.2210330927546</v>
+        <v>327.3064966570024</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.9918664260879</v>
+        <v>337.0773299903357</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>337.8876997594213</v>
+        <v>337.973163323669</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>341.9293664260879</v>
+        <v>342.0148299903357</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>344.8876997594213</v>
+        <v>344.973163323669</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -48417,7 +48417,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.99186642608796</v>
+        <v>26.07732999033565</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -48520,7 +48520,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.17936642608796</v>
+        <v>33.26482999033565</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -48623,7 +48623,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.17936642608796</v>
+        <v>46.26482999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -48726,7 +48726,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.99186642608796</v>
+        <v>47.07732999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>67.17936642608797</v>
+        <v>67.26482999033566</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -48932,7 +48932,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>74.8876997594213</v>
+        <v>74.97316332366898</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -49035,7 +49035,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.17936642608797</v>
+        <v>81.26482999033566</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -49138,7 +49138,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>122.991866426088</v>
+        <v>123.0773299903356</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -49241,7 +49241,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>131.179366426088</v>
+        <v>131.2648299903356</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.085616426088</v>
+        <v>145.1710799903356</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>145.179366426088</v>
+        <v>145.2648299903356</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>156.8876997594213</v>
+        <v>156.973163323669</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -49653,7 +49653,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.085616426088</v>
+        <v>158.1710799903356</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -49756,7 +49756,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>166.0335330927547</v>
+        <v>166.1189966570023</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -49859,7 +49859,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>178.929366426088</v>
+        <v>179.0148299903356</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -49962,7 +49962,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>193.1272830927547</v>
+        <v>193.2127466570023</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>198.9293664260879</v>
+        <v>199.0148299903357</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>221.9085330927546</v>
+        <v>221.9939966570023</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>222.9085330927546</v>
+        <v>222.9939966570023</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>228.9918664260879</v>
+        <v>229.0773299903357</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>313.0126997594213</v>
+        <v>313.098163323669</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>316.8876997594213</v>
+        <v>316.973163323669</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -50889,7 +50889,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>316.9918664260879</v>
+        <v>317.0773299903357</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>325.9293664260879</v>
+        <v>326.0148299903357</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>338.9293664260879</v>
+        <v>339.0148299903357</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>343.8876997594213</v>
+        <v>343.973163323669</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>348.0335330927546</v>
+        <v>348.1189966570024</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -51575,7 +51575,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.887699759421297</v>
+        <v>3.973163323668982</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -51678,7 +51678,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.085616426087963</v>
+        <v>4.171079990335649</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -51781,7 +51781,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.887699759421296</v>
+        <v>4.973163323668982</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -51884,7 +51884,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.99186642608796</v>
+        <v>25.07732999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -51987,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.8876997594213</v>
+        <v>25.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -52090,7 +52090,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.08561642608796</v>
+        <v>32.17107999033565</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -52193,7 +52193,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>37.8876997594213</v>
+        <v>37.97316332366898</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -52296,7 +52296,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>38.8876997594213</v>
+        <v>38.97316332366898</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -52399,7 +52399,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>40.08561642608796</v>
+        <v>40.17107999033565</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>47.17936642608796</v>
+        <v>47.26482999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -52605,7 +52605,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>59.8876997594213</v>
+        <v>59.97316332366898</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -52708,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>63.8876997594213</v>
+        <v>63.97316332366898</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>63.97103309275463</v>
+        <v>64.05649665700231</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -52914,7 +52914,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>66.8876997594213</v>
+        <v>66.97316332366898</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -53017,7 +53017,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>73.8876997594213</v>
+        <v>73.97316332366898</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>91.86686642608797</v>
+        <v>91.95232999033566</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.1272830927546</v>
+        <v>103.2127466570023</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -53326,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>105.866866426088</v>
+        <v>105.9523299903356</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -53429,7 +53429,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>106.866866426088</v>
+        <v>106.9523299903356</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>110.085616426088</v>
+        <v>110.1710799903356</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>122.8876997594213</v>
+        <v>122.973163323669</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>124.085616426088</v>
+        <v>124.1710799903356</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>124.179366426088</v>
+        <v>124.2648299903356</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>128.8876997594213</v>
+        <v>128.973163323669</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>144.8876997594213</v>
+        <v>144.973163323669</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>145.8876997594213</v>
+        <v>145.973163323669</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>150.8876997594213</v>
+        <v>150.973163323669</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>157.991866426088</v>
+        <v>158.0773299903356</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>159.929366426088</v>
+        <v>160.0148299903356</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>164.929366426088</v>
+        <v>165.0148299903356</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>180.1272830927547</v>
+        <v>180.2127466570023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>187.929366426088</v>
+        <v>188.0148299903356</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.0126997594213</v>
+        <v>190.098163323669</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>190.0126997594213</v>
+        <v>190.098163323669</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>194.0335330927547</v>
+        <v>194.1189966570023</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>200.9293664260879</v>
+        <v>201.0148299903357</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>214.2210330927546</v>
+        <v>214.3064966570023</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>215.1272830927546</v>
+        <v>215.2127466570023</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>220.9085330927546</v>
+        <v>220.9939966570023</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>228.0751997594213</v>
+        <v>228.160663323669</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>315.9918664260879</v>
+        <v>316.0773299903357</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>319.1272830927546</v>
+        <v>319.2127466570024</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>320.1272830927546</v>
+        <v>320.2127466570024</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>326.9293664260879</v>
+        <v>327.0148299903357</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>335.8876997594213</v>
+        <v>335.973163323669</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>337.9918664260879</v>
+        <v>338.0773299903357</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>340.9293664260879</v>
+        <v>341.0148299903357</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -56622,7 +56622,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>342.8876997594213</v>
+        <v>342.973163323669</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -56896,7 +56896,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.929366426087963</v>
+        <v>3.014829990335648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -56999,7 +56999,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.179366426087963</v>
+        <v>5.264829990335649</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -57102,7 +57102,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.08561642608796</v>
+        <v>18.17107999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.08561642608796</v>
+        <v>25.17107999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57308,7 +57308,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.17936642608796</v>
+        <v>25.26482999033565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -57411,7 +57411,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>26.08561642608796</v>
+        <v>26.17107999033565</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.17936642608796</v>
+        <v>26.26482999033565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -57617,7 +57617,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.99186642608796</v>
+        <v>33.07732999033565</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -57720,7 +57720,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.99186642608796</v>
+        <v>39.07732999033565</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.08561642608796</v>
+        <v>39.17107999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -57926,7 +57926,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.17936642608796</v>
+        <v>39.26482999033565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.8876997594213</v>
+        <v>46.97316332366898</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58132,7 +58132,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>47.8876997594213</v>
+        <v>47.97316332366898</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58235,7 +58235,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.08561642608796</v>
+        <v>53.17107999033565</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -58338,7 +58338,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.17936642608796</v>
+        <v>53.26482999033565</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -58441,7 +58441,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>53.8876997594213</v>
+        <v>53.97316332366898</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>54.08561642608796</v>
+        <v>54.17107999033565</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58647,7 +58647,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>54.8876997594213</v>
+        <v>54.97316332366898</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>59.99186642608796</v>
+        <v>60.07732999033565</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -58853,7 +58853,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>60.08561642608796</v>
+        <v>60.17107999033565</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>67.08561642608797</v>
+        <v>67.17107999033566</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -59059,7 +59059,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>67.8876997594213</v>
+        <v>67.97316332366898</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -59162,7 +59162,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>68.17936642608797</v>
+        <v>68.26482999033566</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>74.17936642608797</v>
+        <v>74.26482999033566</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>74.99186642608797</v>
+        <v>75.07732999033566</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>81.08561642608797</v>
+        <v>81.17107999033566</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>82.08561642608797</v>
+        <v>82.17107999033566</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>93.05436642608797</v>
+        <v>93.13982999033566</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>104.866866426088</v>
+        <v>104.9523299903356</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>105.866866426088</v>
+        <v>105.9523299903356</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -59986,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>109.085616426088</v>
+        <v>109.1710799903356</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>110.8876997594213</v>
+        <v>110.973163323669</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>115.991866426088</v>
+        <v>116.0773299903356</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>116.8876997594213</v>
+        <v>116.973163323669</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>117.179366426088</v>
+        <v>117.2648299903356</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>117.8876997594213</v>
+        <v>117.973163323669</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>124.929366426088</v>
+        <v>125.0148299903356</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>129.8876997594213</v>
+        <v>129.973163323669</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>130.085616426088</v>
+        <v>130.1710799903356</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>130.179366426088</v>
+        <v>130.2648299903356</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>131.085616426088</v>
+        <v>131.1710799903356</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>144.991866426088</v>
+        <v>145.0773299903356</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>150.991866426088</v>
+        <v>151.0773299903356</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>152.929366426088</v>
+        <v>153.0148299903356</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>158.179366426088</v>
+        <v>158.2648299903356</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>158.929366426088</v>
+        <v>159.0148299903356</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -61634,7 +61634,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>159.0335330927547</v>
+        <v>159.1189966570023</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>165.2210330927547</v>
+        <v>165.3064966570023</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>166.1272830927547</v>
+        <v>166.2127466570023</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>179.0335330927547</v>
+        <v>179.1189966570023</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>179.2210330927547</v>
+        <v>179.3064966570023</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>180.0335330927547</v>
+        <v>180.1189966570023</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>184.929366426088</v>
+        <v>185.0148299903356</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>185.929366426088</v>
+        <v>186.0148299903356</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -62458,7 +62458,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>186.1272830927547</v>
+        <v>186.2127466570023</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>186.929366426088</v>
+        <v>187.0148299903356</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>188.9085330927547</v>
+        <v>188.9939966570023</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>189.9085330927547</v>
+        <v>189.9939966570023</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>193.2210330927547</v>
+        <v>193.3064966570023</v>
       </c>
       <c r="AD60" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>194.1272830927547</v>
+        <v>194.2127466570023</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>194.9293664260879</v>
+        <v>195.0148299903357</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>200.2210330927546</v>
+        <v>200.3064966570023</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>201.1272830927546</v>
+        <v>201.2127466570023</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>214.1272830927546</v>
+        <v>214.2127466570023</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>214.9293664260879</v>
+        <v>215.0148299903357</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>215.0335330927546</v>
+        <v>215.1189966570023</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>220.9918664260879</v>
+        <v>221.0773299903357</v>
       </c>
       <c r="AD68" t="n">
         <v>0</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>227.0126997594213</v>
+        <v>227.098163323669</v>
       </c>
       <c r="AD69" t="n">
         <v>1</v>
@@ -63900,7 +63900,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>227.9085330927546</v>
+        <v>227.9939966570023</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>228.9085330927546</v>
+        <v>228.9939966570023</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>229.0960330927546</v>
+        <v>229.1814966570023</v>
       </c>
       <c r="AD72" t="n">
         <v>1</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>229.9085330927546</v>
+        <v>229.9939966570023</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -64312,7 +64312,7 @@
         <v>1</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>234.9918664260879</v>
+        <v>235.0773299903357</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -64330,12 +64330,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Real Betis19339</t>
+          <t>Villarreal19333</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -64344,25 +64344,25 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.678</v>
+        <v>2.064</v>
       </c>
       <c r="G75" t="n">
-        <v>0.846</v>
+        <v>1.17</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
@@ -64372,7 +64372,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -64391,7 +64391,7 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>19339</v>
+        <v>19333</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD75" t="n">
         <v>1</v>
@@ -64433,12 +64433,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mallorca19340</t>
+          <t>Real Betis19339</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -64447,45 +64447,45 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.251</v>
+        <v>0.678</v>
       </c>
       <c r="G76" t="n">
-        <v>1.04</v>
+        <v>0.846</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>8</v>
       </c>
       <c r="K76" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
         <v>1</v>
@@ -64494,7 +64494,7 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>19340</v>
+        <v>19339</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -64509,19 +64509,19 @@
         <v>2</v>
       </c>
       <c r="Z76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76" t="n">
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE76" t="n">
         <v>0</v>
@@ -64536,12 +64536,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Real Sociedad19341</t>
+          <t>Mallorca19340</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -64550,45 +64550,45 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.354</v>
+        <v>2.251</v>
       </c>
       <c r="G77" t="n">
-        <v>0.462</v>
+        <v>1.04</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K77" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>3</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" t="n">
         <v>1</v>
@@ -64597,7 +64597,7 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>19341</v>
+        <v>19340</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -64621,10 +64621,10 @@
         <v>0</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
         <v>0</v>
@@ -64639,12 +64639,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Villarreal19333</t>
+          <t>Real Sociedad19341</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -64653,35 +64653,35 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.064</v>
+        <v>2.354</v>
       </c>
       <c r="G78" t="n">
-        <v>1.17</v>
+        <v>0.462</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K78" t="n">
         <v>9</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -64700,7 +64700,7 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>19333</v>
+        <v>19341</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -64715,16 +64715,16 @@
         <v>2</v>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB78" t="n">
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD78" t="n">
         <v>1</v>
@@ -64742,12 +64742,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cadiz19326</t>
+          <t>Getafe19325</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -64756,54 +64756,54 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.643</v>
+        <v>2.99</v>
       </c>
       <c r="G79" t="n">
-        <v>0.599</v>
+        <v>0.432</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>3</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
-        <v>19326</v>
+        <v>19325</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -64827,13 +64827,13 @@
         <v>0</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD79" t="n">
         <v>0</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -64845,12 +64845,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Getafe19325</t>
+          <t>Cadiz19326</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -64859,54 +64859,54 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.99</v>
+        <v>1.643</v>
       </c>
       <c r="G80" t="n">
-        <v>0.432</v>
+        <v>0.599</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>3</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>19325</v>
+        <v>19326</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -64930,13 +64930,13 @@
         <v>0</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
       </c>
       <c r="AE80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -65033,7 +65033,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>314.9085330927546</v>
+        <v>314.9939966570024</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>314.9918664260879</v>
+        <v>315.0773299903357</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>315.8876997594213</v>
+        <v>315.973163323669</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>324.9293664260879</v>
+        <v>325.0148299903357</v>
       </c>
       <c r="AD84" t="n">
         <v>1</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>327.0335330927546</v>
+        <v>327.1189966570024</v>
       </c>
       <c r="AD85" t="n">
         <v>1</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>336.8876997594213</v>
+        <v>336.973163323669</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>339.0126997594213</v>
+        <v>339.098163323669</v>
       </c>
       <c r="AD87" t="n">
         <v>1</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>340.1272830927546</v>
+        <v>340.2127466570024</v>
       </c>
       <c r="AD88" t="n">
         <v>1</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>340.2210330927546</v>
+        <v>340.3064966570024</v>
       </c>
       <c r="AD89" t="n">
         <v>1</v>
@@ -65960,7 +65960,7 @@
         <v>1</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>344.9918664260879</v>
+        <v>345.0773299903357</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -66234,7 +66234,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.179366426087963</v>
+        <v>4.264829990335649</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.085616426087963</v>
+        <v>5.171079990335649</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.99186642608796</v>
+        <v>18.07732999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.17936642608796</v>
+        <v>18.26482999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -66646,7 +66646,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>23.8876997594213</v>
+        <v>23.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.8876997594213</v>
+        <v>39.97316332366898</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>51.8876997594213</v>
+        <v>51.97316332366898</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.99186642608796</v>
+        <v>53.07732999033565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>58.8876997594213</v>
+        <v>58.97316332366898</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.08561642608796</v>
+        <v>61.17107999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>66.99186642608797</v>
+        <v>67.07732999033566</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>72.8876997594213</v>
+        <v>72.97316332366898</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>75.17936642608797</v>
+        <v>75.26482999033566</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>90.96061642608797</v>
+        <v>91.04607999033566</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>91.96061642608797</v>
+        <v>92.04607999033566</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>106.866866426088</v>
+        <v>106.9523299903356</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67882,7 +67882,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>106.9710330927546</v>
+        <v>107.0564966570023</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>109.991866426088</v>
+        <v>110.0773299903356</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>114.085616426088</v>
+        <v>114.1710799903356</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>114.8876997594213</v>
+        <v>114.973163323669</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>123.085616426088</v>
+        <v>123.1710799903356</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>143.991866426088</v>
+        <v>144.0773299903356</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>144.991866426088</v>
+        <v>145.0773299903356</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>151.991866426088</v>
+        <v>152.0773299903356</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>159.2210330927547</v>
+        <v>159.3064966570023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>165.929366426088</v>
+        <v>166.0148299903356</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>179.0335330927547</v>
+        <v>179.1189966570023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>179.929366426088</v>
+        <v>180.0148299903356</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>189.0126997594213</v>
+        <v>189.098163323669</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>193.929366426088</v>
+        <v>194.0148299903356</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69324,7 +69324,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>200.0335330927546</v>
+        <v>200.1189966570023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>215.8876997594213</v>
+        <v>215.973163323669</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>219.9085330927546</v>
+        <v>219.9939966570023</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>226.9085330927546</v>
+        <v>226.9939966570023</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69736,7 +69736,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>235.0960330927546</v>
+        <v>235.1814966570023</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>236.9085330927546</v>
+        <v>236.9939966570023</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>236.9918664260879</v>
+        <v>237.0773299903357</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>315.8876997594213</v>
+        <v>315.973163323669</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>315.9918664260879</v>
+        <v>316.0773299903357</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>318.9293664260879</v>
+        <v>319.0148299903357</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -70457,7 +70457,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>326.0335330927546</v>
+        <v>326.1189966570024</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -70560,7 +70560,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>326.1272830927546</v>
+        <v>326.2127466570024</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -70663,7 +70663,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>326.2210330927546</v>
+        <v>326.3064966570024</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>339.9293664260879</v>
+        <v>340.0148299903357</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>340.0335330927546</v>
+        <v>340.1189966570024</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70972,7 +70972,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>341.1272830927546</v>
+        <v>341.2127466570024</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.8876997594213</v>
+        <v>18.97316332366898</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.8876997594213</v>
+        <v>26.97316332366898</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>52.8876997594213</v>
+        <v>52.97316332366898</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>61.8876997594213</v>
+        <v>61.97316332366898</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>74.08561642608797</v>
+        <v>74.17107999033566</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>91.96061642608797</v>
+        <v>92.04607999033566</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.9710330927546</v>
+        <v>106.0564966570023</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>107.8876997594213</v>
+        <v>107.973163323669</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.179366426088</v>
+        <v>116.2648299903356</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.991866426088</v>
+        <v>124.0773299903356</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.8876997594213</v>
+        <v>130.973163323669</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.085616426088</v>
+        <v>144.1710799903356</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.8876997594213</v>
+        <v>157.973163323669</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.1272830927547</v>
+        <v>165.2127466570023</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>180.929366426088</v>
+        <v>181.0148299903356</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>185.929366426088</v>
+        <v>186.0148299903356</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>194.2210330927546</v>
+        <v>194.3064966570023</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>201.2210330927546</v>
+        <v>201.3064966570023</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>227.9918664260879</v>
+        <v>228.0773299903357</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>233.9085330927546</v>
+        <v>233.9939966570023</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -73221,12 +73221,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Athletic Club19322</t>
+          <t>Barcelona19324</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -73235,54 +73235,54 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.978</v>
+        <v>4.414</v>
       </c>
       <c r="G22" t="n">
-        <v>0.769</v>
+        <v>0.126</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>28</v>
       </c>
       <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
         <v>6</v>
       </c>
-      <c r="L22" t="n">
-        <v>3</v>
-      </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>19322</v>
+        <v>19324</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -73297,16 +73297,16 @@
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -73324,12 +73324,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Barcelona19324</t>
+          <t>Athletic Club19322</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -73338,54 +73338,54 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.414</v>
+        <v>2.978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.126</v>
+        <v>0.769</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>28</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>19324</v>
+        <v>19322</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -73400,16 +73400,16 @@
         <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.9918664260879</v>
+        <v>336.0773299903357</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>336.8876997594213</v>
+        <v>336.973163323669</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>341.0335330927546</v>
+        <v>341.1189966570024</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>343.9918664260879</v>
+        <v>344.0773299903357</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -74095,7 +74095,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.991866426087963</v>
+        <v>5.077329990335649</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -74198,7 +74198,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.887699759421296</v>
+        <v>5.973163323668982</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -74301,7 +74301,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.0439497594213</v>
+        <v>18.12941332366898</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.17936642608796</v>
+        <v>19.26482999033565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -74507,7 +74507,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>19.8876997594213</v>
+        <v>19.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>30.8876997594213</v>
+        <v>30.97316332366898</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.17936642608796</v>
+        <v>32.26482999033565</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.99186642608796</v>
+        <v>40.07732999033565</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>45.8876997594213</v>
+        <v>45.97316332366898</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>47.08561642608796</v>
+        <v>47.17107999033565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.17936642608796</v>
+        <v>60.26482999033565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>61.17936642608796</v>
+        <v>61.26482999033565</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>65.8876997594213</v>
+        <v>65.97316332366898</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>75.08561642608797</v>
+        <v>75.17107999033566</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>75.8876997594213</v>
+        <v>75.97316332366898</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>81.8876997594213</v>
+        <v>81.97316332366898</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>91.05436642608797</v>
+        <v>91.13982999033566</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>92.96061642608797</v>
+        <v>93.04607999033566</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>108.991866426088</v>
+        <v>109.0773299903356</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>123.179366426088</v>
+        <v>123.2648299903356</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>126.8876997594213</v>
+        <v>126.973163323669</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>130.991866426088</v>
+        <v>131.0773299903356</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>131.8876997594213</v>
+        <v>131.973163323669</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>149.8876997594213</v>
+        <v>149.973163323669</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>151.085616426088</v>
+        <v>151.1710799903356</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.179366426088</v>
+        <v>151.2648299903356</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>152.085616426088</v>
+        <v>152.1710799903356</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>163.929366426088</v>
+        <v>164.0148299903356</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.0335330927547</v>
+        <v>165.1189966570023</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>166.2210330927547</v>
+        <v>166.3064966570023</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>166.929366426088</v>
+        <v>167.0148299903356</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>193.0335330927547</v>
+        <v>193.1189966570023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>193.0335330927547</v>
+        <v>193.1189966570023</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>200.1272830927546</v>
+        <v>200.2127466570023</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.2210330927546</v>
+        <v>215.3064966570023</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>219.9918664260879</v>
+        <v>220.0773299903357</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>222.0126997594213</v>
+        <v>222.098163323669</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>233.9918664260879</v>
+        <v>234.0773299903357</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>235.9918664260879</v>
+        <v>236.0773299903357</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>315.9918664260879</v>
+        <v>316.0773299903357</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -78318,7 +78318,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>316.9918664260879</v>
+        <v>317.0773299903357</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>320.0335330927546</v>
+        <v>320.1189966570024</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>320.9293664260879</v>
+        <v>321.0148299903357</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>327.1272830927546</v>
+        <v>327.2127466570024</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>327.9293664260879</v>
+        <v>328.0148299903357</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>342.9918664260879</v>
+        <v>343.0773299903357</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -78936,7 +78936,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>342.9918664260879</v>
+        <v>343.0773299903357</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -79039,7 +79039,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>343.9918664260879</v>
+        <v>344.0773299903357</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>33.08561642608796</v>
+        <v>33.17107999033565</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.8876997594213</v>
+        <v>33.97316332366898</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.08561642608796</v>
+        <v>46.17107999033565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>68.8876997594213</v>
+        <v>68.97316332366898</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79725,7 +79725,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>82.8876997594213</v>
+        <v>82.97316332366898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79828,7 +79828,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>92.05436642608797</v>
+        <v>92.13982999033566</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>109.179366426088</v>
+        <v>109.2648299903356</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>110.179366426088</v>
+        <v>110.2648299903356</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>121.8876997594213</v>
+        <v>121.973163323669</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>186.2210330927547</v>
+        <v>186.3064966570023</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80343,7 +80343,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>187.1272830927547</v>
+        <v>187.2127466570023</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>189.0126997594213</v>
+        <v>189.098163323669</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>191.0126997594213</v>
+        <v>191.098163323669</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>201.0335330927546</v>
+        <v>201.1189966570023</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>201.9293664260879</v>
+        <v>202.0148299903357</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>221.9918664260879</v>
+        <v>222.0773299903357</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -80876,12 +80876,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Espanyol19337</t>
+          <t>Elche19336</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -80890,25 +80890,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.502</v>
+        <v>1.534</v>
       </c>
       <c r="G18" t="n">
-        <v>2.035</v>
+        <v>2.23</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -80918,7 +80918,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -80937,7 +80937,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>19337</v>
+        <v>19336</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80979,12 +80979,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Elche19336</t>
+          <t>Espanyol19337</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -80993,25 +80993,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.534</v>
+        <v>0.502</v>
       </c>
       <c r="G19" t="n">
-        <v>2.23</v>
+        <v>2.035</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -81021,7 +81021,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -81040,7 +81040,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>19336</v>
+        <v>19337</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>304.9710330927546</v>
+        <v>305.0564966570024</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>312.0126997594213</v>
+        <v>312.098163323669</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81270,7 +81270,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>319.2210330927546</v>
+        <v>319.3064966570024</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>320.0335330927546</v>
+        <v>320.1189966570024</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>335.8876997594213</v>
+        <v>335.973163323669</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>335.9918664260879</v>
+        <v>336.0773299903357</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>337.9918664260879</v>
+        <v>338.0773299903357</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>343.8876997594213</v>
+        <v>343.973163323669</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>

--- a/EDA_DF/LaLiga_Rank_ML.xlsx
+++ b/EDA_DF/LaLiga_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.45553390315972</v>
+        <v>18.5628770769676</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.45553390315972</v>
+        <v>32.5628770769676</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.45553390315972</v>
+        <v>45.5628770769676</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>54.55970056982639</v>
+        <v>54.66704374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>61.45553390315972</v>
+        <v>61.5628770769676</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>68.55970056982639</v>
+        <v>68.66704374363427</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>82.55970056982639</v>
+        <v>82.66704374363427</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>109.4555339031597</v>
+        <v>109.5628770769676</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.4555339031597</v>
+        <v>116.5628770769676</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.4555339031597</v>
+        <v>144.5628770769676</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>159.6951172364931</v>
+        <v>159.8024604103009</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>179.6951172364931</v>
+        <v>179.8024604103009</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>187.6013672364931</v>
+        <v>187.7087104103009</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>193.4972005698264</v>
+        <v>193.6045437436343</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>200.4972005698264</v>
+        <v>200.6045437436343</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>236.476367236493</v>
+        <v>236.5837104103009</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>320.4972005698264</v>
+        <v>320.6045437436343</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>320.788867236493</v>
+        <v>320.8962104103009</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>345.5597005698264</v>
+        <v>345.6670437436343</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.45553390315972</v>
+        <v>18.5628770769676</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.45553390315972</v>
+        <v>32.5628770769676</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.45553390315972</v>
+        <v>45.5628770769676</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>54.55970056982639</v>
+        <v>54.66704374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>61.45553390315972</v>
+        <v>61.5628770769676</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>68.55970056982639</v>
+        <v>68.66704374363427</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>82.55970056982639</v>
+        <v>82.66704374363427</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>109.4555339031597</v>
+        <v>109.5628770769676</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.4555339031597</v>
+        <v>116.5628770769676</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.4555339031597</v>
+        <v>144.5628770769676</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>159.6951172364931</v>
+        <v>159.8024604103009</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>179.6951172364931</v>
+        <v>179.8024604103009</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>187.6013672364931</v>
+        <v>187.7087104103009</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>193.4972005698264</v>
+        <v>193.6045437436343</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>200.4972005698264</v>
+        <v>200.6045437436343</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>236.476367236493</v>
+        <v>236.5837104103009</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>320.4972005698264</v>
+        <v>320.6045437436343</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>320.788867236493</v>
+        <v>320.8962104103009</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>345.5597005698264</v>
+        <v>345.6670437436343</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.455533903159722</v>
+        <v>4.562877076967593</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.653450569826389</v>
+        <v>4.76079374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.455533903159722</v>
+        <v>5.562877076967593</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.55970056982639</v>
+        <v>25.66704374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>26.45553390315972</v>
+        <v>26.5628770769676</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.65345056982639</v>
+        <v>32.76079374363426</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>38.45553390315972</v>
+        <v>38.5628770769676</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.45553390315972</v>
+        <v>39.5628770769676</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>40.65345056982639</v>
+        <v>40.76079374363426</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>47.74720056982639</v>
+        <v>47.85454374363426</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.45553390315972</v>
+        <v>60.5628770769676</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>64.45553390315972</v>
+        <v>64.5628770769676</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>64.53886723649305</v>
+        <v>64.64621041030092</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>67.45553390315972</v>
+        <v>67.5628770769676</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>74.45553390315972</v>
+        <v>74.5628770769676</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>92.43470056982639</v>
+        <v>92.54204374363427</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.6951172364931</v>
+        <v>103.8024604103009</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>106.4347005698264</v>
+        <v>106.5420437436343</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>107.4347005698264</v>
+        <v>107.5420437436343</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>110.6534505698264</v>
+        <v>110.7607937436343</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>123.4555339031597</v>
+        <v>123.5628770769676</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>124.6534505698264</v>
+        <v>124.7607937436343</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>124.7472005698264</v>
+        <v>124.8545437436343</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>129.4555339031597</v>
+        <v>129.5628770769676</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>145.4555339031597</v>
+        <v>145.5628770769676</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>146.4555339031597</v>
+        <v>146.5628770769676</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>151.4555339031597</v>
+        <v>151.5628770769676</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>158.5597005698264</v>
+        <v>158.6670437436343</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>160.4972005698264</v>
+        <v>160.6045437436343</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>165.4972005698264</v>
+        <v>165.6045437436343</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>180.6951172364931</v>
+        <v>180.8024604103009</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>188.4972005698264</v>
+        <v>188.6045437436343</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.5805339031597</v>
+        <v>190.6878770769676</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>190.5805339031597</v>
+        <v>190.6878770769676</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>194.601367236493</v>
+        <v>194.7087104103009</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>201.4972005698264</v>
+        <v>201.6045437436343</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>214.788867236493</v>
+        <v>214.8962104103009</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>215.695117236493</v>
+        <v>215.8024604103009</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>221.476367236493</v>
+        <v>221.5837104103009</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>228.6430339031597</v>
+        <v>228.7503770769676</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>316.5597005698264</v>
+        <v>316.6670437436343</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>319.695117236493</v>
+        <v>319.8024604103009</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>320.695117236493</v>
+        <v>320.8024604103009</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>327.4972005698264</v>
+        <v>327.6045437436343</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>336.4555339031597</v>
+        <v>336.5628770769676</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>338.5597005698264</v>
+        <v>338.6670437436343</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>341.4972005698264</v>
+        <v>341.6045437436343</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>343.4555339031597</v>
+        <v>343.5628770769676</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.45553390315972</v>
+        <v>19.5628770769676</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>27.45553390315972</v>
+        <v>27.5628770769676</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>53.45553390315972</v>
+        <v>53.5628770769676</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>62.45553390315972</v>
+        <v>62.5628770769676</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>74.65345056982639</v>
+        <v>74.76079374363427</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>92.52845056982639</v>
+        <v>92.63579374363427</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>106.5388672364931</v>
+        <v>106.6462104103009</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>108.4555339031597</v>
+        <v>108.5628770769676</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.7472005698264</v>
+        <v>116.8545437436343</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>124.5597005698264</v>
+        <v>124.6670437436343</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>131.4555339031597</v>
+        <v>131.5628770769676</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.6534505698264</v>
+        <v>144.7607937436343</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.4555339031597</v>
+        <v>158.5628770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.6951172364931</v>
+        <v>165.8024604103009</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>181.4972005698264</v>
+        <v>181.6045437436343</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>186.4972005698264</v>
+        <v>186.6045437436343</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>194.788867236493</v>
+        <v>194.8962104103009</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>201.788867236493</v>
+        <v>201.8962104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>228.5597005698264</v>
+        <v>228.6670437436343</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>234.476367236493</v>
+        <v>234.5837104103009</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>336.5597005698264</v>
+        <v>336.6670437436343</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>337.4555339031597</v>
+        <v>337.5628770769676</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>341.601367236493</v>
+        <v>341.7087104103009</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>344.5597005698264</v>
+        <v>344.6670437436343</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.559700569826389</v>
+        <v>4.66704374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.55970056982639</v>
+        <v>19.66704374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.65345056982639</v>
+        <v>19.76079374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.45553390315972</v>
+        <v>25.5628770769676</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.55970056982639</v>
+        <v>32.66704374363426</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>33.45553390315972</v>
+        <v>33.5628770769676</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>41.45553390315972</v>
+        <v>41.5628770769676</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>46.55970056982639</v>
+        <v>46.66704374363426</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.74720056982639</v>
+        <v>54.85454374363426</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.55970056982639</v>
+        <v>61.66704374363426</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>63.45553390315972</v>
+        <v>63.5628770769676</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.65345056982639</v>
+        <v>68.76079374363427</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.55970056982639</v>
+        <v>74.66704374363427</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -14672,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>82.74720056982639</v>
+        <v>82.85454374363427</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>91.43470056982639</v>
+        <v>91.54204374363427</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>93.43470056982639</v>
+        <v>93.54204374363427</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>105.4347005698264</v>
+        <v>105.5420437436343</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>105.5388672364931</v>
+        <v>105.6462104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>105.5388672364931</v>
+        <v>105.6462104103009</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>110.4555339031597</v>
+        <v>110.5628770769676</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>117.5597005698264</v>
+        <v>117.6670437436343</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>117.6534505698264</v>
+        <v>117.7607937436343</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>124.4555339031597</v>
+        <v>124.5628770769676</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>130.5597005698264</v>
+        <v>130.6670437436343</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>152.4555339031597</v>
+        <v>152.5628770769676</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>152.7472005698264</v>
+        <v>152.8545437436343</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>180.7888672364931</v>
+        <v>180.8962104103009</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>187.7888672364931</v>
+        <v>187.8962104103009</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>190.4763672364931</v>
+        <v>190.5837104103009</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>190.5805339031597</v>
+        <v>190.6878770769676</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>191.4763672364931</v>
+        <v>191.5837104103009</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.4972005698264</v>
+        <v>214.6045437436343</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -16629,7 +16629,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>216.5597005698264</v>
+        <v>216.6670437436343</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>221.6430339031597</v>
+        <v>221.7503770769676</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>223.5597005698264</v>
+        <v>223.6670437436343</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>230.5597005698264</v>
+        <v>230.6670437436343</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>235.476367236493</v>
+        <v>235.5837104103009</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>236.663867236493</v>
+        <v>236.7712104103009</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.601367236493</v>
+        <v>319.7087104103009</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>327.788867236493</v>
+        <v>327.8962104103009</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>337.5597005698264</v>
+        <v>337.6670437436343</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>338.4555339031597</v>
+        <v>338.5628770769676</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>342.4972005698264</v>
+        <v>342.6045437436343</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>345.4555339031597</v>
+        <v>345.5628770769676</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.497200569826389</v>
+        <v>3.60454374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.747200569826389</v>
+        <v>5.85454374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.65345056982639</v>
+        <v>18.76079374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.65345056982639</v>
+        <v>25.76079374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.74720056982639</v>
+        <v>25.85454374363426</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>26.65345056982639</v>
+        <v>26.76079374363426</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.74720056982639</v>
+        <v>26.85454374363426</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>33.55970056982639</v>
+        <v>33.66704374363426</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.55970056982639</v>
+        <v>39.66704374363426</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.65345056982639</v>
+        <v>39.76079374363426</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.74720056982639</v>
+        <v>39.85454374363426</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>47.45553390315972</v>
+        <v>47.5628770769676</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>48.45553390315972</v>
+        <v>48.5628770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.65345056982639</v>
+        <v>53.76079374363426</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.74720056982639</v>
+        <v>53.85454374363426</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>54.45553390315972</v>
+        <v>54.5628770769676</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>54.65345056982639</v>
+        <v>54.76079374363426</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>55.45553390315972</v>
+        <v>55.5628770769676</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>60.55970056982639</v>
+        <v>60.66704374363426</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>60.65345056982639</v>
+        <v>60.76079374363426</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>67.65345056982639</v>
+        <v>67.76079374363427</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>68.45553390315972</v>
+        <v>68.5628770769676</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>68.74720056982639</v>
+        <v>68.85454374363427</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>74.74720056982639</v>
+        <v>74.85454374363427</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>75.55970056982639</v>
+        <v>75.66704374363427</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>81.65345056982639</v>
+        <v>81.76079374363427</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>82.65345056982639</v>
+        <v>82.76079374363427</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>93.62220056982639</v>
+        <v>93.72954374363427</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>105.4347005698264</v>
+        <v>105.5420437436343</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>106.4347005698264</v>
+        <v>106.5420437436343</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>109.6534505698264</v>
+        <v>109.7607937436343</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>111.4555339031597</v>
+        <v>111.5628770769676</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>116.5597005698264</v>
+        <v>116.6670437436343</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>117.4555339031597</v>
+        <v>117.5628770769676</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>117.7472005698264</v>
+        <v>117.8545437436343</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>118.4555339031597</v>
+        <v>118.5628770769676</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>125.4972005698264</v>
+        <v>125.6045437436343</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>130.4555339031597</v>
+        <v>130.5628770769676</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>130.6534505698264</v>
+        <v>130.7607937436343</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>130.7472005698264</v>
+        <v>130.8545437436343</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>131.6534505698264</v>
+        <v>131.7607937436343</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>145.5597005698264</v>
+        <v>145.6670437436343</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>151.5597005698264</v>
+        <v>151.6670437436343</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -22568,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>153.4972005698264</v>
+        <v>153.6045437436343</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>158.7472005698264</v>
+        <v>158.8545437436343</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>159.4972005698264</v>
+        <v>159.6045437436343</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>159.6013672364931</v>
+        <v>159.7087104103009</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>165.7888672364931</v>
+        <v>165.8962104103009</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>166.6951172364931</v>
+        <v>166.8024604103009</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>179.6013672364931</v>
+        <v>179.7087104103009</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>179.7888672364931</v>
+        <v>179.8962104103009</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>180.6013672364931</v>
+        <v>180.7087104103009</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>185.4972005698264</v>
+        <v>185.6045437436343</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>186.4972005698264</v>
+        <v>186.6045437436343</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>186.6951172364931</v>
+        <v>186.8024604103009</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>187.4972005698264</v>
+        <v>187.6045437436343</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>189.4763672364931</v>
+        <v>189.5837104103009</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>190.4763672364931</v>
+        <v>190.5837104103009</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>193.7888672364931</v>
+        <v>193.8962104103009</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>194.695117236493</v>
+        <v>194.8024604103009</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>195.4972005698264</v>
+        <v>195.6045437436343</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>200.788867236493</v>
+        <v>200.8962104103009</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>201.695117236493</v>
+        <v>201.8024604103009</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>214.695117236493</v>
+        <v>214.8024604103009</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>215.4972005698264</v>
+        <v>215.6045437436343</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>215.601367236493</v>
+        <v>215.7087104103009</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>221.5597005698264</v>
+        <v>221.6670437436343</v>
       </c>
       <c r="AD68" t="n">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>227.5805339031597</v>
+        <v>227.6878770769676</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>228.476367236493</v>
+        <v>228.5837104103009</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>229.476367236493</v>
+        <v>229.5837104103009</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>229.663867236493</v>
+        <v>229.7712104103009</v>
       </c>
       <c r="AD72" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>230.476367236493</v>
+        <v>230.5837104103009</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>235.5597005698264</v>
+        <v>235.6670437436343</v>
       </c>
       <c r="AD74" t="n">
         <v>1</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD75" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>1</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD76" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         <v>1</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD78" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD79" t="n">
         <v>1</v>
@@ -26173,7 +26173,7 @@
         <v>1</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
@@ -26276,7 +26276,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>315.476367236493</v>
+        <v>315.5837104103009</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>315.5597005698264</v>
+        <v>315.6670437436343</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>316.4555339031597</v>
+        <v>316.5628770769676</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>325.4972005698264</v>
+        <v>325.6045437436343</v>
       </c>
       <c r="AD84" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>327.601367236493</v>
+        <v>327.7087104103009</v>
       </c>
       <c r="AD85" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>337.4555339031597</v>
+        <v>337.5628770769676</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>339.5805339031597</v>
+        <v>339.6878770769676</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>340.695117236493</v>
+        <v>340.8024604103009</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>340.788867236493</v>
+        <v>340.8962104103009</v>
       </c>
       <c r="AD89" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>345.5597005698264</v>
+        <v>345.6670437436343</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.559700569826389</v>
+        <v>5.66704374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>6.455533903159722</v>
+        <v>6.562877076967592</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.61178390315972</v>
+        <v>18.7191270769676</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.74720056982639</v>
+        <v>19.85454374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>20.45553390315972</v>
+        <v>20.5628770769676</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.45553390315972</v>
+        <v>31.5628770769676</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.74720056982639</v>
+        <v>32.85454374363426</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>40.55970056982639</v>
+        <v>40.66704374363426</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>46.45553390315972</v>
+        <v>46.5628770769676</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>47.65345056982639</v>
+        <v>47.76079374363426</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.74720056982639</v>
+        <v>60.85454374363426</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -28610,7 +28610,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>61.74720056982639</v>
+        <v>61.85454374363426</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -28713,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>66.45553390315972</v>
+        <v>66.5628770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>75.65345056982639</v>
+        <v>75.76079374363427</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -28919,7 +28919,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>76.45553390315972</v>
+        <v>76.5628770769676</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>82.45553390315972</v>
+        <v>82.5628770769676</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>91.62220056982639</v>
+        <v>91.72954374363427</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>93.52845056982639</v>
+        <v>93.63579374363427</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>109.5597005698264</v>
+        <v>109.6670437436343</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>123.7472005698264</v>
+        <v>123.8545437436343</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>127.4555339031597</v>
+        <v>127.5628770769676</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>131.5597005698264</v>
+        <v>131.6670437436343</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>132.4555339031597</v>
+        <v>132.5628770769676</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>150.4555339031597</v>
+        <v>150.5628770769676</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>151.6534505698264</v>
+        <v>151.7607937436343</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.7472005698264</v>
+        <v>151.8545437436343</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>152.6534505698264</v>
+        <v>152.7607937436343</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>164.4972005698264</v>
+        <v>164.6045437436343</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.6013672364931</v>
+        <v>165.7087104103009</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>166.7888672364931</v>
+        <v>166.8962104103009</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>167.4972005698264</v>
+        <v>167.6045437436343</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>193.6013672364931</v>
+        <v>193.7087104103009</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>193.6013672364931</v>
+        <v>193.7087104103009</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>200.695117236493</v>
+        <v>200.8024604103009</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.788867236493</v>
+        <v>215.8962104103009</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>220.5597005698264</v>
+        <v>220.6670437436343</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -31185,7 +31185,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>222.5805339031597</v>
+        <v>222.6878770769676</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>234.5597005698264</v>
+        <v>234.6670437436343</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>236.5597005698264</v>
+        <v>236.6670437436343</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>316.5597005698264</v>
+        <v>316.6670437436343</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>317.5597005698264</v>
+        <v>317.6670437436343</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>320.601367236493</v>
+        <v>320.7087104103009</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>321.4972005698264</v>
+        <v>321.6045437436343</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>327.695117236493</v>
+        <v>327.8024604103009</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>328.4972005698264</v>
+        <v>328.6045437436343</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>343.5597005698264</v>
+        <v>343.6670437436343</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>343.5597005698264</v>
+        <v>343.6670437436343</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>344.5597005698264</v>
+        <v>344.6670437436343</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>26.55970056982639</v>
+        <v>26.66704374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.74720056982639</v>
+        <v>33.85454374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -32901,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.74720056982639</v>
+        <v>46.85454374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.55970056982639</v>
+        <v>47.66704374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>67.74720056982639</v>
+        <v>67.85454374363427</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -33210,7 +33210,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>75.45553390315972</v>
+        <v>75.5628770769676</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.74720056982639</v>
+        <v>81.85454374363427</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -33416,7 +33416,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>123.5597005698264</v>
+        <v>123.6670437436343</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>131.7472005698264</v>
+        <v>131.8545437436343</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.6534505698264</v>
+        <v>145.7607937436343</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>145.7472005698264</v>
+        <v>145.8545437436343</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>157.4555339031597</v>
+        <v>157.5628770769676</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.6534505698264</v>
+        <v>158.7607937436343</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>166.6013672364931</v>
+        <v>166.7087104103009</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>179.4972005698264</v>
+        <v>179.6045437436343</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>193.6951172364931</v>
+        <v>193.8024604103009</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>199.4972005698264</v>
+        <v>199.6045437436343</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>222.476367236493</v>
+        <v>222.5837104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>223.476367236493</v>
+        <v>223.5837104103009</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>229.5597005698264</v>
+        <v>229.6670437436343</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -34858,7 +34858,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>313.5805339031597</v>
+        <v>313.6878770769676</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -35064,7 +35064,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>317.4555339031597</v>
+        <v>317.5628770769676</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>317.5597005698264</v>
+        <v>317.6670437436343</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>326.4972005698264</v>
+        <v>326.6045437436343</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>339.4972005698264</v>
+        <v>339.6045437436343</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>344.4555339031597</v>
+        <v>344.5628770769676</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.5388672364930556</v>
+        <v>0.6462104103009259</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.747200569826389</v>
+        <v>4.85454374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -35956,7 +35956,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.653450569826389</v>
+        <v>5.76079374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.55970056982639</v>
+        <v>18.66704374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -36162,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.74720056982639</v>
+        <v>18.85454374363426</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>24.45553390315972</v>
+        <v>24.5628770769676</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -36368,7 +36368,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>40.45553390315972</v>
+        <v>40.5628770769676</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -36471,7 +36471,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.45553390315972</v>
+        <v>52.5628770769676</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -36574,7 +36574,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.55970056982639</v>
+        <v>53.66704374363426</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>59.45553390315972</v>
+        <v>59.5628770769676</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.65345056982639</v>
+        <v>61.76079374363426</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.55970056982639</v>
+        <v>67.66704374363427</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>73.45553390315972</v>
+        <v>73.5628770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>75.74720056982639</v>
+        <v>75.85454374363427</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -37192,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>91.52845056982639</v>
+        <v>91.63579374363427</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -37295,7 +37295,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>92.52845056982639</v>
+        <v>92.63579374363427</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -37398,7 +37398,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>107.4347005698264</v>
+        <v>107.5420437436343</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -37501,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>107.5388672364931</v>
+        <v>107.6462104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>110.5597005698264</v>
+        <v>110.6670437436343</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>114.6534505698264</v>
+        <v>114.7607937436343</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>115.4555339031597</v>
+        <v>115.5628770769676</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>123.6534505698264</v>
+        <v>123.7607937436343</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>144.5597005698264</v>
+        <v>144.6670437436343</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>145.5597005698264</v>
+        <v>145.6670437436343</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>152.5597005698264</v>
+        <v>152.6670437436343</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>159.7888672364931</v>
+        <v>159.8962104103009</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>166.4972005698264</v>
+        <v>166.6045437436343</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>179.6013672364931</v>
+        <v>179.7087104103009</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -38634,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>180.4972005698264</v>
+        <v>180.6045437436343</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>189.5805339031597</v>
+        <v>189.6878770769676</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -38840,7 +38840,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>194.4972005698264</v>
+        <v>194.6045437436343</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>200.601367236493</v>
+        <v>200.7087104103009</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>216.4555339031597</v>
+        <v>216.5628770769676</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>220.476367236493</v>
+        <v>220.5837104103009</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>227.476367236493</v>
+        <v>227.5837104103009</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>235.663867236493</v>
+        <v>235.7712104103009</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>237.476367236493</v>
+        <v>237.5837104103009</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>237.5597005698264</v>
+        <v>237.6670437436343</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>316.4555339031597</v>
+        <v>316.5628770769676</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>316.5597005698264</v>
+        <v>316.6670437436343</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>319.4972005698264</v>
+        <v>319.6045437436343</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>326.601367236493</v>
+        <v>326.7087104103009</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -40179,7 +40179,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>326.695117236493</v>
+        <v>326.8024604103009</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>326.788867236493</v>
+        <v>326.8962104103009</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>340.4972005698264</v>
+        <v>340.6045437436343</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>340.601367236493</v>
+        <v>340.7087104103009</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>341.695117236493</v>
+        <v>341.8024604103009</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -40865,7 +40865,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>33.65345056982639</v>
+        <v>33.76079374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -40968,7 +40968,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>34.45553390315972</v>
+        <v>34.5628770769676</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -41071,7 +41071,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.65345056982639</v>
+        <v>46.76079374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -41174,7 +41174,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>69.45553390315972</v>
+        <v>69.5628770769676</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -41277,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>83.45553390315972</v>
+        <v>83.5628770769676</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -41380,7 +41380,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>92.62220056982639</v>
+        <v>92.72954374363427</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -41483,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>109.7472005698264</v>
+        <v>109.8545437436343</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -41586,7 +41586,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>110.7472005698264</v>
+        <v>110.8545437436343</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -41689,7 +41689,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>122.4555339031597</v>
+        <v>122.5628770769676</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>186.7888672364931</v>
+        <v>186.8962104103009</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -41895,7 +41895,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>187.6951172364931</v>
+        <v>187.8024604103009</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41998,7 +41998,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>189.5805339031597</v>
+        <v>189.6878770769676</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>191.5805339031597</v>
+        <v>191.6878770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>201.601367236493</v>
+        <v>201.7087104103009</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -42307,7 +42307,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>202.4972005698264</v>
+        <v>202.6045437436343</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -42410,7 +42410,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.5597005698264</v>
+        <v>222.6670437436343</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>319.788867236493</v>
+        <v>319.8962104103009</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>320.601367236493</v>
+        <v>320.7087104103009</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>336.4555339031597</v>
+        <v>336.5628770769676</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -43131,7 +43131,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>336.5597005698264</v>
+        <v>336.6670437436343</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>338.5597005698264</v>
+        <v>338.6670437436343</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>344.4555339031597</v>
+        <v>344.5628770769676</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -43611,7 +43611,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.559700569826389</v>
+        <v>4.66704374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -43714,7 +43714,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.55970056982639</v>
+        <v>19.66704374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -43817,7 +43817,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.65345056982639</v>
+        <v>19.76079374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -43920,7 +43920,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.45553390315972</v>
+        <v>25.5628770769676</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -44023,7 +44023,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.55970056982639</v>
+        <v>32.66704374363426</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -44126,7 +44126,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>33.45553390315972</v>
+        <v>33.5628770769676</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -44229,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>41.45553390315972</v>
+        <v>41.5628770769676</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>46.55970056982639</v>
+        <v>46.66704374363426</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -44435,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.74720056982639</v>
+        <v>54.85454374363426</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.55970056982639</v>
+        <v>61.66704374363426</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>63.45553390315972</v>
+        <v>63.5628770769676</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -44744,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.65345056982639</v>
+        <v>68.76079374363427</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -44847,7 +44847,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.55970056982639</v>
+        <v>74.66704374363427</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -44950,7 +44950,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>82.74720056982639</v>
+        <v>82.85454374363427</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -45053,7 +45053,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>91.43470056982639</v>
+        <v>91.54204374363427</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -45156,7 +45156,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>93.43470056982639</v>
+        <v>93.54204374363427</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -45259,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>105.4347005698264</v>
+        <v>105.5420437436343</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>105.5388672364931</v>
+        <v>105.6462104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -45465,7 +45465,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>105.5388672364931</v>
+        <v>105.6462104103009</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>110.4555339031597</v>
+        <v>110.5628770769676</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>117.5597005698264</v>
+        <v>117.6670437436343</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>117.6534505698264</v>
+        <v>117.7607937436343</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>124.4555339031597</v>
+        <v>124.5628770769676</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>130.5597005698264</v>
+        <v>130.6670437436343</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>152.4555339031597</v>
+        <v>152.5628770769676</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>152.7472005698264</v>
+        <v>152.8545437436343</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>180.7888672364931</v>
+        <v>180.8962104103009</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>187.7888672364931</v>
+        <v>187.8962104103009</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>190.4763672364931</v>
+        <v>190.5837104103009</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>190.5805339031597</v>
+        <v>190.6878770769676</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>191.4763672364931</v>
+        <v>191.5837104103009</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.4972005698264</v>
+        <v>214.6045437436343</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>216.5597005698264</v>
+        <v>216.6670437436343</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>221.6430339031597</v>
+        <v>221.7503770769676</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>223.5597005698264</v>
+        <v>223.6670437436343</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>230.5597005698264</v>
+        <v>230.6670437436343</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>235.476367236493</v>
+        <v>235.5837104103009</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>236.663867236493</v>
+        <v>236.7712104103009</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.601367236493</v>
+        <v>319.7087104103009</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>327.788867236493</v>
+        <v>327.8962104103009</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>337.5597005698264</v>
+        <v>337.6670437436343</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>338.4555339031597</v>
+        <v>338.5628770769676</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>342.4972005698264</v>
+        <v>342.6045437436343</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>345.4555339031597</v>
+        <v>345.5628770769676</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -48417,7 +48417,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>26.55970056982639</v>
+        <v>26.66704374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -48520,7 +48520,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.74720056982639</v>
+        <v>33.85454374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -48623,7 +48623,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.74720056982639</v>
+        <v>46.85454374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -48726,7 +48726,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.55970056982639</v>
+        <v>47.66704374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>67.74720056982639</v>
+        <v>67.85454374363427</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -48932,7 +48932,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>75.45553390315972</v>
+        <v>75.5628770769676</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -49035,7 +49035,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.74720056982639</v>
+        <v>81.85454374363427</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -49138,7 +49138,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>123.5597005698264</v>
+        <v>123.6670437436343</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -49241,7 +49241,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>131.7472005698264</v>
+        <v>131.8545437436343</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.6534505698264</v>
+        <v>145.7607937436343</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>145.7472005698264</v>
+        <v>145.8545437436343</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>157.4555339031597</v>
+        <v>157.5628770769676</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -49653,7 +49653,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.6534505698264</v>
+        <v>158.7607937436343</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -49756,7 +49756,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>166.6013672364931</v>
+        <v>166.7087104103009</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -49859,7 +49859,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>179.4972005698264</v>
+        <v>179.6045437436343</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -49962,7 +49962,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>193.6951172364931</v>
+        <v>193.8024604103009</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>199.4972005698264</v>
+        <v>199.6045437436343</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>222.476367236493</v>
+        <v>222.5837104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>223.476367236493</v>
+        <v>223.5837104103009</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>229.5597005698264</v>
+        <v>229.6670437436343</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>313.5805339031597</v>
+        <v>313.6878770769676</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>317.4555339031597</v>
+        <v>317.5628770769676</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -50889,7 +50889,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>317.5597005698264</v>
+        <v>317.6670437436343</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>326.4972005698264</v>
+        <v>326.6045437436343</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>339.4972005698264</v>
+        <v>339.6045437436343</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>344.4555339031597</v>
+        <v>344.5628770769676</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -51472,7 +51472,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.455533903159722</v>
+        <v>4.562877076967593</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -51575,7 +51575,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.653450569826389</v>
+        <v>4.76079374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -51678,7 +51678,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.455533903159722</v>
+        <v>5.562877076967593</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -51781,7 +51781,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.55970056982639</v>
+        <v>25.66704374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -51884,7 +51884,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>26.45553390315972</v>
+        <v>26.5628770769676</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -51987,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.65345056982639</v>
+        <v>32.76079374363426</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -52090,7 +52090,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>38.45553390315972</v>
+        <v>38.5628770769676</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -52193,7 +52193,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.45553390315972</v>
+        <v>39.5628770769676</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -52296,7 +52296,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>40.65345056982639</v>
+        <v>40.76079374363426</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -52399,7 +52399,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>47.74720056982639</v>
+        <v>47.85454374363426</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.45553390315972</v>
+        <v>60.5628770769676</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -52605,7 +52605,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>64.45553390315972</v>
+        <v>64.5628770769676</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -52708,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>64.53886723649305</v>
+        <v>64.64621041030092</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>67.45553390315972</v>
+        <v>67.5628770769676</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -52914,7 +52914,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>74.45553390315972</v>
+        <v>74.5628770769676</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -53017,7 +53017,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>92.43470056982639</v>
+        <v>92.54204374363427</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.6951172364931</v>
+        <v>103.8024604103009</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>106.4347005698264</v>
+        <v>106.5420437436343</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -53326,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>107.4347005698264</v>
+        <v>107.5420437436343</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -53429,7 +53429,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>110.6534505698264</v>
+        <v>110.7607937436343</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>123.4555339031597</v>
+        <v>123.5628770769676</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>124.6534505698264</v>
+        <v>124.7607937436343</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>124.7472005698264</v>
+        <v>124.8545437436343</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>129.4555339031597</v>
+        <v>129.5628770769676</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>145.4555339031597</v>
+        <v>145.5628770769676</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>146.4555339031597</v>
+        <v>146.5628770769676</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>151.4555339031597</v>
+        <v>151.5628770769676</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>158.5597005698264</v>
+        <v>158.6670437436343</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>160.4972005698264</v>
+        <v>160.6045437436343</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>165.4972005698264</v>
+        <v>165.6045437436343</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>180.6951172364931</v>
+        <v>180.8024604103009</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>188.4972005698264</v>
+        <v>188.6045437436343</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.5805339031597</v>
+        <v>190.6878770769676</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>190.5805339031597</v>
+        <v>190.6878770769676</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>194.601367236493</v>
+        <v>194.7087104103009</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>201.4972005698264</v>
+        <v>201.6045437436343</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>214.788867236493</v>
+        <v>214.8962104103009</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>215.695117236493</v>
+        <v>215.8024604103009</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>221.476367236493</v>
+        <v>221.5837104103009</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>228.6430339031597</v>
+        <v>228.7503770769676</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -55695,7 +55695,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -55798,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>316.5597005698264</v>
+        <v>316.6670437436343</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>319.695117236493</v>
+        <v>319.8024604103009</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>320.695117236493</v>
+        <v>320.8024604103009</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>327.4972005698264</v>
+        <v>327.6045437436343</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>336.4555339031597</v>
+        <v>336.5628770769676</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>338.5597005698264</v>
+        <v>338.6670437436343</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>341.4972005698264</v>
+        <v>341.6045437436343</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>343.4555339031597</v>
+        <v>343.5628770769676</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -56793,7 +56793,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.497200569826389</v>
+        <v>3.60454374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -56896,7 +56896,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.747200569826389</v>
+        <v>5.85454374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -56999,7 +56999,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.65345056982639</v>
+        <v>18.76079374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57102,7 +57102,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.65345056982639</v>
+        <v>25.76079374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.74720056982639</v>
+        <v>25.85454374363426</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -57308,7 +57308,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>26.65345056982639</v>
+        <v>26.76079374363426</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57411,7 +57411,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.74720056982639</v>
+        <v>26.85454374363426</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>33.55970056982639</v>
+        <v>33.66704374363426</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -57617,7 +57617,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.55970056982639</v>
+        <v>39.66704374363426</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -57720,7 +57720,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.65345056982639</v>
+        <v>39.76079374363426</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.74720056982639</v>
+        <v>39.85454374363426</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -57926,7 +57926,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>47.45553390315972</v>
+        <v>47.5628770769676</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>48.45553390315972</v>
+        <v>48.5628770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58132,7 +58132,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.65345056982639</v>
+        <v>53.76079374363426</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -58235,7 +58235,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.74720056982639</v>
+        <v>53.85454374363426</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -58338,7 +58338,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>54.45553390315972</v>
+        <v>54.5628770769676</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58441,7 +58441,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>54.65345056982639</v>
+        <v>54.76079374363426</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>55.45553390315972</v>
+        <v>55.5628770769676</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58647,7 +58647,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>60.55970056982639</v>
+        <v>60.66704374363426</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>60.65345056982639</v>
+        <v>60.76079374363426</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -58853,7 +58853,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>67.65345056982639</v>
+        <v>67.76079374363427</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>68.45553390315972</v>
+        <v>68.5628770769676</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -59059,7 +59059,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>68.74720056982639</v>
+        <v>68.85454374363427</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59162,7 +59162,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>74.74720056982639</v>
+        <v>74.85454374363427</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>75.55970056982639</v>
+        <v>75.66704374363427</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -59368,7 +59368,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>81.65345056982639</v>
+        <v>81.76079374363427</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>82.65345056982639</v>
+        <v>82.76079374363427</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>93.62220056982639</v>
+        <v>93.72954374363427</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>105.4347005698264</v>
+        <v>105.5420437436343</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>106.4347005698264</v>
+        <v>106.5420437436343</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -59883,7 +59883,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>109.6534505698264</v>
+        <v>109.7607937436343</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>111.4555339031597</v>
+        <v>111.5628770769676</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>116.5597005698264</v>
+        <v>116.6670437436343</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>117.4555339031597</v>
+        <v>117.5628770769676</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>117.7472005698264</v>
+        <v>117.8545437436343</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>118.4555339031597</v>
+        <v>118.5628770769676</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>125.4972005698264</v>
+        <v>125.6045437436343</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>130.4555339031597</v>
+        <v>130.5628770769676</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>130.6534505698264</v>
+        <v>130.7607937436343</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>130.7472005698264</v>
+        <v>130.8545437436343</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>131.6534505698264</v>
+        <v>131.7607937436343</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>145.5597005698264</v>
+        <v>145.6670437436343</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>151.5597005698264</v>
+        <v>151.6670437436343</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>153.4972005698264</v>
+        <v>153.6045437436343</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>158.7472005698264</v>
+        <v>158.8545437436343</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>159.4972005698264</v>
+        <v>159.6045437436343</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>159.6013672364931</v>
+        <v>159.7087104103009</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>165.7888672364931</v>
+        <v>165.8962104103009</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>166.6951172364931</v>
+        <v>166.8024604103009</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>179.6013672364931</v>
+        <v>179.7087104103009</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>179.7888672364931</v>
+        <v>179.8962104103009</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>180.6013672364931</v>
+        <v>180.7087104103009</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>185.4972005698264</v>
+        <v>185.6045437436343</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>186.4972005698264</v>
+        <v>186.6045437436343</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -62355,7 +62355,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>186.6951172364931</v>
+        <v>186.8024604103009</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>187.4972005698264</v>
+        <v>187.6045437436343</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>189.4763672364931</v>
+        <v>189.5837104103009</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>190.4763672364931</v>
+        <v>190.5837104103009</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>193.7888672364931</v>
+        <v>193.8962104103009</v>
       </c>
       <c r="AD60" t="n">
         <v>1</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>194.695117236493</v>
+        <v>194.8024604103009</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -62973,7 +62973,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>195.4972005698264</v>
+        <v>195.6045437436343</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>200.788867236493</v>
+        <v>200.8962104103009</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>201.695117236493</v>
+        <v>201.8024604103009</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>214.695117236493</v>
+        <v>214.8024604103009</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>215.4972005698264</v>
+        <v>215.6045437436343</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>215.601367236493</v>
+        <v>215.7087104103009</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>1</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>221.5597005698264</v>
+        <v>221.6670437436343</v>
       </c>
       <c r="AD68" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>227.5805339031597</v>
+        <v>227.6878770769676</v>
       </c>
       <c r="AD69" t="n">
         <v>1</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>228.476367236493</v>
+        <v>228.5837104103009</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -63900,7 +63900,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>229.476367236493</v>
+        <v>229.5837104103009</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>229.663867236493</v>
+        <v>229.7712104103009</v>
       </c>
       <c r="AD72" t="n">
         <v>1</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>230.476367236493</v>
+        <v>230.5837104103009</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -64209,7 +64209,7 @@
         <v>1</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>235.5597005698264</v>
+        <v>235.6670437436343</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -64312,7 +64312,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD75" t="n">
         <v>1</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD76" t="n">
         <v>0</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD77" t="n">
         <v>1</v>
@@ -64621,7 +64621,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD78" t="n">
         <v>1</v>
@@ -64724,7 +64724,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD79" t="n">
         <v>0</v>
@@ -64827,7 +64827,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
@@ -64930,7 +64930,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>315.476367236493</v>
+        <v>315.5837104103009</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>315.5597005698264</v>
+        <v>315.6670437436343</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -65136,7 +65136,7 @@
         <v>1</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>316.4555339031597</v>
+        <v>316.5628770769676</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>325.4972005698264</v>
+        <v>325.6045437436343</v>
       </c>
       <c r="AD84" t="n">
         <v>1</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>327.601367236493</v>
+        <v>327.7087104103009</v>
       </c>
       <c r="AD85" t="n">
         <v>1</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>337.4555339031597</v>
+        <v>337.5628770769676</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>339.5805339031597</v>
+        <v>339.6878770769676</v>
       </c>
       <c r="AD87" t="n">
         <v>1</v>
@@ -65651,7 +65651,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>340.695117236493</v>
+        <v>340.8024604103009</v>
       </c>
       <c r="AD88" t="n">
         <v>1</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>340.788867236493</v>
+        <v>340.8962104103009</v>
       </c>
       <c r="AD89" t="n">
         <v>1</v>
@@ -65857,7 +65857,7 @@
         <v>1</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>345.5597005698264</v>
+        <v>345.6670437436343</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.5388672364930556</v>
+        <v>0.6462104103009259</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -66234,7 +66234,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.747200569826389</v>
+        <v>4.85454374363426</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.653450569826389</v>
+        <v>5.76079374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.55970056982639</v>
+        <v>18.66704374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.74720056982639</v>
+        <v>18.85454374363426</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -66646,7 +66646,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>24.45553390315972</v>
+        <v>24.5628770769676</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>40.45553390315972</v>
+        <v>40.5628770769676</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.45553390315972</v>
+        <v>52.5628770769676</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.55970056982639</v>
+        <v>53.66704374363426</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>59.45553390315972</v>
+        <v>59.5628770769676</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.65345056982639</v>
+        <v>61.76079374363426</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.55970056982639</v>
+        <v>67.66704374363427</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>73.45553390315972</v>
+        <v>73.5628770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>75.74720056982639</v>
+        <v>75.85454374363427</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>91.52845056982639</v>
+        <v>91.63579374363427</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>92.52845056982639</v>
+        <v>92.63579374363427</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>107.4347005698264</v>
+        <v>107.5420437436343</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -67882,7 +67882,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>107.5388672364931</v>
+        <v>107.6462104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>110.5597005698264</v>
+        <v>110.6670437436343</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>114.6534505698264</v>
+        <v>114.7607937436343</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>115.4555339031597</v>
+        <v>115.5628770769676</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>123.6534505698264</v>
+        <v>123.7607937436343</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>144.5597005698264</v>
+        <v>144.6670437436343</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>145.5597005698264</v>
+        <v>145.6670437436343</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>152.5597005698264</v>
+        <v>152.6670437436343</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>159.7888672364931</v>
+        <v>159.8962104103009</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>166.4972005698264</v>
+        <v>166.6045437436343</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>179.6013672364931</v>
+        <v>179.7087104103009</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>180.4972005698264</v>
+        <v>180.6045437436343</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>189.5805339031597</v>
+        <v>189.6878770769676</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>194.4972005698264</v>
+        <v>194.6045437436343</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -69324,7 +69324,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>200.601367236493</v>
+        <v>200.7087104103009</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>216.4555339031597</v>
+        <v>216.5628770769676</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>220.476367236493</v>
+        <v>220.5837104103009</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>227.476367236493</v>
+        <v>227.5837104103009</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -69736,7 +69736,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>235.663867236493</v>
+        <v>235.7712104103009</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>237.476367236493</v>
+        <v>237.5837104103009</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>237.5597005698264</v>
+        <v>237.6670437436343</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>316.4555339031597</v>
+        <v>316.5628770769676</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>316.5597005698264</v>
+        <v>316.6670437436343</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>319.4972005698264</v>
+        <v>319.6045437436343</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -70457,7 +70457,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>326.601367236493</v>
+        <v>326.7087104103009</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -70560,7 +70560,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>326.695117236493</v>
+        <v>326.8024604103009</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -70663,7 +70663,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>326.788867236493</v>
+        <v>326.8962104103009</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>340.4972005698264</v>
+        <v>340.6045437436343</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>340.601367236493</v>
+        <v>340.7087104103009</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -70972,7 +70972,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>341.695117236493</v>
+        <v>341.8024604103009</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.45553390315972</v>
+        <v>19.5628770769676</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>27.45553390315972</v>
+        <v>27.5628770769676</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>53.45553390315972</v>
+        <v>53.5628770769676</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>62.45553390315972</v>
+        <v>62.5628770769676</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>74.65345056982639</v>
+        <v>74.76079374363427</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>92.52845056982639</v>
+        <v>92.63579374363427</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>106.5388672364931</v>
+        <v>106.6462104103009</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>108.4555339031597</v>
+        <v>108.5628770769676</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.7472005698264</v>
+        <v>116.8545437436343</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>124.5597005698264</v>
+        <v>124.6670437436343</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>131.4555339031597</v>
+        <v>131.5628770769676</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.6534505698264</v>
+        <v>144.7607937436343</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.4555339031597</v>
+        <v>158.5628770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.6951172364931</v>
+        <v>165.8024604103009</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>181.4972005698264</v>
+        <v>181.6045437436343</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>186.4972005698264</v>
+        <v>186.6045437436343</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>194.788867236493</v>
+        <v>194.8962104103009</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>201.788867236493</v>
+        <v>201.8962104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>228.5597005698264</v>
+        <v>228.6670437436343</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>234.476367236493</v>
+        <v>234.5837104103009</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -73306,7 +73306,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>336.5597005698264</v>
+        <v>336.6670437436343</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>337.4555339031597</v>
+        <v>337.5628770769676</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>341.601367236493</v>
+        <v>341.7087104103009</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>344.5597005698264</v>
+        <v>344.6670437436343</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -74095,7 +74095,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.559700569826389</v>
+        <v>5.66704374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -74198,7 +74198,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>6.455533903159722</v>
+        <v>6.562877076967592</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -74301,7 +74301,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.61178390315972</v>
+        <v>18.7191270769676</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.74720056982639</v>
+        <v>19.85454374363426</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -74507,7 +74507,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>20.45553390315972</v>
+        <v>20.5628770769676</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.45553390315972</v>
+        <v>31.5628770769676</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.74720056982639</v>
+        <v>32.85454374363426</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>40.55970056982639</v>
+        <v>40.66704374363426</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>46.45553390315972</v>
+        <v>46.5628770769676</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>47.65345056982639</v>
+        <v>47.76079374363426</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.74720056982639</v>
+        <v>60.85454374363426</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>61.74720056982639</v>
+        <v>61.85454374363426</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>66.45553390315972</v>
+        <v>66.5628770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>75.65345056982639</v>
+        <v>75.76079374363427</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>76.45553390315972</v>
+        <v>76.5628770769676</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>82.45553390315972</v>
+        <v>82.5628770769676</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>91.62220056982639</v>
+        <v>91.72954374363427</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>93.52845056982639</v>
+        <v>93.63579374363427</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>109.5597005698264</v>
+        <v>109.6670437436343</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>123.7472005698264</v>
+        <v>123.8545437436343</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>127.4555339031597</v>
+        <v>127.5628770769676</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>131.5597005698264</v>
+        <v>131.6670437436343</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>132.4555339031597</v>
+        <v>132.5628770769676</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>150.4555339031597</v>
+        <v>150.5628770769676</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>151.6534505698264</v>
+        <v>151.7607937436343</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.7472005698264</v>
+        <v>151.8545437436343</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>152.6534505698264</v>
+        <v>152.7607937436343</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>164.4972005698264</v>
+        <v>164.6045437436343</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.6013672364931</v>
+        <v>165.7087104103009</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>166.7888672364931</v>
+        <v>166.8962104103009</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>167.4972005698264</v>
+        <v>167.6045437436343</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>193.6013672364931</v>
+        <v>193.7087104103009</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>193.6013672364931</v>
+        <v>193.7087104103009</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>200.695117236493</v>
+        <v>200.8024604103009</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.788867236493</v>
+        <v>215.8962104103009</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>220.5597005698264</v>
+        <v>220.6670437436343</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>222.5805339031597</v>
+        <v>222.6878770769676</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>234.5597005698264</v>
+        <v>234.6670437436343</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>236.5597005698264</v>
+        <v>236.6670437436343</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>316.5597005698264</v>
+        <v>316.6670437436343</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -78318,7 +78318,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>317.5597005698264</v>
+        <v>317.6670437436343</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>320.601367236493</v>
+        <v>320.7087104103009</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>321.4972005698264</v>
+        <v>321.6045437436343</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>327.695117236493</v>
+        <v>327.8024604103009</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>328.4972005698264</v>
+        <v>328.6045437436343</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>343.5597005698264</v>
+        <v>343.6670437436343</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -78936,7 +78936,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>343.5597005698264</v>
+        <v>343.6670437436343</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -79039,7 +79039,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>344.5597005698264</v>
+        <v>344.6670437436343</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>33.65345056982639</v>
+        <v>33.76079374363426</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>34.45553390315972</v>
+        <v>34.5628770769676</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.65345056982639</v>
+        <v>46.76079374363426</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>69.45553390315972</v>
+        <v>69.5628770769676</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79725,7 +79725,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>83.45553390315972</v>
+        <v>83.5628770769676</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79828,7 +79828,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>92.62220056982639</v>
+        <v>92.72954374363427</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>109.7472005698264</v>
+        <v>109.8545437436343</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>110.7472005698264</v>
+        <v>110.8545437436343</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>122.4555339031597</v>
+        <v>122.5628770769676</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>186.7888672364931</v>
+        <v>186.8962104103009</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80343,7 +80343,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>187.6951172364931</v>
+        <v>187.8024604103009</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>189.5805339031597</v>
+        <v>189.6878770769676</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>191.5805339031597</v>
+        <v>191.6878770769676</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>201.601367236493</v>
+        <v>201.7087104103009</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>202.4972005698264</v>
+        <v>202.6045437436343</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.5597005698264</v>
+        <v>222.6670437436343</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>305.538867236493</v>
+        <v>305.6462104103009</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>312.5805339031597</v>
+        <v>312.6878770769676</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81270,7 +81270,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>319.788867236493</v>
+        <v>319.8962104103009</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>320.601367236493</v>
+        <v>320.7087104103009</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>336.4555339031597</v>
+        <v>336.5628770769676</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>336.5597005698264</v>
+        <v>336.6670437436343</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>338.5597005698264</v>
+        <v>338.6670437436343</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>344.4555339031597</v>
+        <v>344.5628770769676</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
